--- a/acs/elections.xlsx
+++ b/acs/elections.xlsx
@@ -8,15 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\User\Downloads\RA Work\acs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53361D2-6EE5-413F-B871-473B374CFEC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B69AA4-6861-4486-810B-739E408AE9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6B2EB732-C0BF-4336-8C6B-FF3332FBF24E}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{6B2EB732-C0BF-4336-8C6B-FF3332FBF24E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2011" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2423" uniqueCount="547">
   <si>
     <t>filename</t>
   </si>
@@ -1599,6 +1596,87 @@
   </si>
   <si>
     <t>upper state legislative</t>
+  </si>
+  <si>
+    <t>geo_filename</t>
+  </si>
+  <si>
+    <t>tract_filename</t>
+  </si>
+  <si>
+    <t>alaska_lower_districts_2022.csv</t>
+  </si>
+  <si>
+    <t>alaska_upper_districts_2022.csv</t>
+  </si>
+  <si>
+    <t>alaska_tracts_2020.csv</t>
+  </si>
+  <si>
+    <t>san_leandro_city_council_2010.csv</t>
+  </si>
+  <si>
+    <t>san leandro_tracts_2020.csv</t>
+  </si>
+  <si>
+    <t>san leandro_tracts_2010.csv</t>
+  </si>
+  <si>
+    <t>berkeley_city_council_2014.csv</t>
+  </si>
+  <si>
+    <t>berkeley_tracts_2010.csv</t>
+  </si>
+  <si>
+    <t>berkeley_city_council_2002.csv</t>
+  </si>
+  <si>
+    <t>berkeley_tracts_2020.csv</t>
+  </si>
+  <si>
+    <t>minneapolis_city_council_2012.csv</t>
+  </si>
+  <si>
+    <t>minneapolis_tracts_2020.csv</t>
+  </si>
+  <si>
+    <t>minneapolis_tracts_2010.csv</t>
+  </si>
+  <si>
+    <t>minneapolis_city_council_2002.csv</t>
+  </si>
+  <si>
+    <t>minneapolis_tracts_2000.csv</t>
+  </si>
+  <si>
+    <t>oakland_city_council_2003.csv</t>
+  </si>
+  <si>
+    <t>oakland_tracts_2010.csv</t>
+  </si>
+  <si>
+    <t>oakland_city_council_2014.csv</t>
+  </si>
+  <si>
+    <t>oakland_tracts_2020.csv</t>
+  </si>
+  <si>
+    <t>san_francisco_city_council_2012.csv</t>
+  </si>
+  <si>
+    <t>san francisco_tracts_2010.csv</t>
+  </si>
+  <si>
+    <t>san_francisco_city_council_2002.csv</t>
+  </si>
+  <si>
+    <t>san francisco_tracts_2000.csv</t>
+  </si>
+  <si>
+    <t>san francisco_tracts_2020.csv</t>
+  </si>
+  <si>
+    <t>san_francisco_city_council_2022.csv</t>
   </si>
 </sst>
 </file>
@@ -1964,10 +2042,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022FCB54-8620-44BA-9E5B-DD50E1770DCA}">
-  <dimension ref="A1:G410"/>
+  <dimension ref="A1:I410"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="B85" workbookViewId="0">
+      <selection activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1980,7 +2058,7 @@
     <col min="7" max="7" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2002,8 +2080,14 @@
       <c r="G1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>520</v>
+      </c>
+      <c r="I1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>203</v>
       </c>
@@ -2026,7 +2110,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>205</v>
       </c>
@@ -2049,7 +2133,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>206</v>
       </c>
@@ -2072,7 +2156,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>207</v>
       </c>
@@ -2095,7 +2179,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>208</v>
       </c>
@@ -2118,7 +2202,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>260</v>
       </c>
@@ -2141,7 +2225,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>261</v>
       </c>
@@ -2164,7 +2248,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>68</v>
       </c>
@@ -2185,7 +2269,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>70</v>
       </c>
@@ -2206,7 +2290,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>77</v>
       </c>
@@ -2227,7 +2311,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>90</v>
       </c>
@@ -2248,7 +2332,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>91</v>
       </c>
@@ -2269,7 +2353,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>102</v>
       </c>
@@ -2290,7 +2374,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>103</v>
       </c>
@@ -2311,7 +2395,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>104</v>
       </c>
@@ -3342,7 +3426,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>430</v>
       </c>
@@ -3363,7 +3447,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>437</v>
       </c>
@@ -3384,7 +3468,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>438</v>
       </c>
@@ -3405,7 +3489,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>439</v>
       </c>
@@ -3426,7 +3510,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>440</v>
       </c>
@@ -3447,7 +3531,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>72</v>
       </c>
@@ -3469,8 +3553,14 @@
       <c r="G70" s="1">
         <v>2017</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H70" t="s">
+        <v>528</v>
+      </c>
+      <c r="I70" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>73</v>
       </c>
@@ -3492,8 +3582,14 @@
       <c r="G71" s="1">
         <v>2010</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H71" t="s">
+        <v>530</v>
+      </c>
+      <c r="I71" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>74</v>
       </c>
@@ -3515,8 +3611,14 @@
       <c r="G72" s="1">
         <v>2010</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H72" t="s">
+        <v>530</v>
+      </c>
+      <c r="I72" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>75</v>
       </c>
@@ -3538,8 +3640,14 @@
       <c r="G73" s="1">
         <v>2010</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H73" t="s">
+        <v>530</v>
+      </c>
+      <c r="I73" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>76</v>
       </c>
@@ -3561,8 +3669,14 @@
       <c r="G74" s="1">
         <v>2010</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H74" t="s">
+        <v>530</v>
+      </c>
+      <c r="I74" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>79</v>
       </c>
@@ -3584,8 +3698,14 @@
       <c r="G75" s="1">
         <v>2020</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H75" t="s">
+        <v>528</v>
+      </c>
+      <c r="I75" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>80</v>
       </c>
@@ -3607,8 +3727,14 @@
       <c r="G76" s="1">
         <v>2020</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H76" t="s">
+        <v>528</v>
+      </c>
+      <c r="I76" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>81</v>
       </c>
@@ -3630,8 +3756,14 @@
       <c r="G77" s="1">
         <v>2020</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H77" t="s">
+        <v>528</v>
+      </c>
+      <c r="I77" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>82</v>
       </c>
@@ -3653,8 +3785,14 @@
       <c r="G78" s="1">
         <v>2020</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H78" t="s">
+        <v>528</v>
+      </c>
+      <c r="I78" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>83</v>
       </c>
@@ -3676,8 +3814,14 @@
       <c r="G79" s="1">
         <v>2014</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H79" t="s">
+        <v>528</v>
+      </c>
+      <c r="I79" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>84</v>
       </c>
@@ -3699,8 +3843,14 @@
       <c r="G80" s="1">
         <v>2014</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H80" t="s">
+        <v>528</v>
+      </c>
+      <c r="I80" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>85</v>
       </c>
@@ -3722,8 +3872,14 @@
       <c r="G81" s="1">
         <v>2014</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H81" t="s">
+        <v>528</v>
+      </c>
+      <c r="I81" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>86</v>
       </c>
@@ -3745,8 +3901,14 @@
       <c r="G82" s="1">
         <v>2012</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H82" t="s">
+        <v>530</v>
+      </c>
+      <c r="I82" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>87</v>
       </c>
@@ -3768,8 +3930,14 @@
       <c r="G83" s="1">
         <v>2012</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H83" t="s">
+        <v>530</v>
+      </c>
+      <c r="I83" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>88</v>
       </c>
@@ -3791,8 +3959,14 @@
       <c r="G84" s="1">
         <v>2012</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H84" t="s">
+        <v>530</v>
+      </c>
+      <c r="I84" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>89</v>
       </c>
@@ -3814,8 +3988,14 @@
       <c r="G85" s="1">
         <v>2012</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H85" t="s">
+        <v>530</v>
+      </c>
+      <c r="I85" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>94</v>
       </c>
@@ -3837,8 +4017,14 @@
       <c r="G86" s="1">
         <v>2018</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H86" t="s">
+        <v>528</v>
+      </c>
+      <c r="I86" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>95</v>
       </c>
@@ -3860,8 +4046,14 @@
       <c r="G87" s="1">
         <v>2018</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H87" t="s">
+        <v>528</v>
+      </c>
+      <c r="I87" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>96</v>
       </c>
@@ -3883,8 +4075,14 @@
       <c r="G88" s="1">
         <v>2018</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H88" t="s">
+        <v>528</v>
+      </c>
+      <c r="I88" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>97</v>
       </c>
@@ -3906,8 +4104,14 @@
       <c r="G89" s="1">
         <v>2018</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H89" t="s">
+        <v>528</v>
+      </c>
+      <c r="I89" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>98</v>
       </c>
@@ -3929,8 +4133,14 @@
       <c r="G90" s="1">
         <v>2016</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H90" t="s">
+        <v>528</v>
+      </c>
+      <c r="I90" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>99</v>
       </c>
@@ -3952,8 +4162,14 @@
       <c r="G91" s="1">
         <v>2016</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H91" t="s">
+        <v>528</v>
+      </c>
+      <c r="I91" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>100</v>
       </c>
@@ -3975,8 +4191,14 @@
       <c r="G92" s="1">
         <v>2016</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H92" t="s">
+        <v>528</v>
+      </c>
+      <c r="I92" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>101</v>
       </c>
@@ -3998,8 +4220,14 @@
       <c r="G93" s="1">
         <v>2016</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H93" t="s">
+        <v>528</v>
+      </c>
+      <c r="I93" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>105</v>
       </c>
@@ -4022,7 +4250,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>106</v>
       </c>
@@ -4045,7 +4273,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>107</v>
       </c>
@@ -4068,7 +4296,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>108</v>
       </c>
@@ -4091,7 +4319,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>117</v>
       </c>
@@ -4114,7 +4342,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>118</v>
       </c>
@@ -4137,7 +4365,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>133</v>
       </c>
@@ -4159,8 +4387,14 @@
       <c r="G100" s="1">
         <v>2020</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H100" t="s">
+        <v>532</v>
+      </c>
+      <c r="I100" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>134</v>
       </c>
@@ -4182,8 +4416,14 @@
       <c r="G101" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H101" t="s">
+        <v>532</v>
+      </c>
+      <c r="I101" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>135</v>
       </c>
@@ -4205,8 +4445,14 @@
       <c r="G102" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H102" t="s">
+        <v>532</v>
+      </c>
+      <c r="I102" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>136</v>
       </c>
@@ -4228,8 +4474,14 @@
       <c r="G103" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H103" t="s">
+        <v>532</v>
+      </c>
+      <c r="I103" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>137</v>
       </c>
@@ -4251,8 +4503,14 @@
       <c r="G104" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H104" t="s">
+        <v>532</v>
+      </c>
+      <c r="I104" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>138</v>
       </c>
@@ -4274,8 +4532,14 @@
       <c r="G105" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H105" t="s">
+        <v>532</v>
+      </c>
+      <c r="I105" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>139</v>
       </c>
@@ -4297,8 +4561,14 @@
       <c r="G106" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H106" t="s">
+        <v>532</v>
+      </c>
+      <c r="I106" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>140</v>
       </c>
@@ -4320,8 +4590,14 @@
       <c r="G107" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H107" t="s">
+        <v>532</v>
+      </c>
+      <c r="I107" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>141</v>
       </c>
@@ -4343,8 +4619,14 @@
       <c r="G108" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H108" t="s">
+        <v>532</v>
+      </c>
+      <c r="I108" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>142</v>
       </c>
@@ -4366,8 +4648,14 @@
       <c r="G109" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H109" t="s">
+        <v>532</v>
+      </c>
+      <c r="I109" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>143</v>
       </c>
@@ -4389,8 +4677,14 @@
       <c r="G110" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H110" t="s">
+        <v>532</v>
+      </c>
+      <c r="I110" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>144</v>
       </c>
@@ -4412,8 +4706,14 @@
       <c r="G111" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H111" t="s">
+        <v>532</v>
+      </c>
+      <c r="I111" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>145</v>
       </c>
@@ -4435,8 +4735,14 @@
       <c r="G112" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H112" t="s">
+        <v>532</v>
+      </c>
+      <c r="I112" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>146</v>
       </c>
@@ -4458,8 +4764,14 @@
       <c r="G113" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H113" t="s">
+        <v>532</v>
+      </c>
+      <c r="I113" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>158</v>
       </c>
@@ -4481,8 +4793,14 @@
       <c r="G114" s="1">
         <v>2013</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H114" t="s">
+        <v>532</v>
+      </c>
+      <c r="I114" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>159</v>
       </c>
@@ -4504,8 +4822,14 @@
       <c r="G115" s="1">
         <v>2013</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H115" t="s">
+        <v>532</v>
+      </c>
+      <c r="I115" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>160</v>
       </c>
@@ -4527,8 +4851,14 @@
       <c r="G116" s="1">
         <v>2013</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H116" t="s">
+        <v>532</v>
+      </c>
+      <c r="I116" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>167</v>
       </c>
@@ -4550,8 +4880,14 @@
       <c r="G117" s="1">
         <v>2009</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H117" t="s">
+        <v>535</v>
+      </c>
+      <c r="I117" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>168</v>
       </c>
@@ -4573,8 +4909,14 @@
       <c r="G118" s="1">
         <v>2009</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H118" t="s">
+        <v>535</v>
+      </c>
+      <c r="I118" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>169</v>
       </c>
@@ -4596,8 +4938,14 @@
       <c r="G119" s="1">
         <v>2009</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H119" t="s">
+        <v>535</v>
+      </c>
+      <c r="I119" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>170</v>
       </c>
@@ -4619,8 +4967,14 @@
       <c r="G120" s="1">
         <v>2009</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H120" t="s">
+        <v>535</v>
+      </c>
+      <c r="I120" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>171</v>
       </c>
@@ -4642,8 +4996,14 @@
       <c r="G121" s="1">
         <v>2009</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H121" t="s">
+        <v>535</v>
+      </c>
+      <c r="I121" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>172</v>
       </c>
@@ -4665,8 +5025,14 @@
       <c r="G122" s="1">
         <v>2009</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H122" t="s">
+        <v>535</v>
+      </c>
+      <c r="I122" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>173</v>
       </c>
@@ -4688,8 +5054,14 @@
       <c r="G123" s="1">
         <v>2009</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H123" t="s">
+        <v>535</v>
+      </c>
+      <c r="I123" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>174</v>
       </c>
@@ -4711,8 +5083,14 @@
       <c r="G124" s="1">
         <v>2009</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H124" t="s">
+        <v>535</v>
+      </c>
+      <c r="I124" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>175</v>
       </c>
@@ -4734,8 +5112,14 @@
       <c r="G125" s="1">
         <v>2009</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H125" t="s">
+        <v>535</v>
+      </c>
+      <c r="I125" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>176</v>
       </c>
@@ -4757,8 +5141,14 @@
       <c r="G126" s="1">
         <v>2009</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H126" t="s">
+        <v>535</v>
+      </c>
+      <c r="I126" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>177</v>
       </c>
@@ -4780,8 +5170,14 @@
       <c r="G127" s="1">
         <v>2009</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H127" t="s">
+        <v>535</v>
+      </c>
+      <c r="I127" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>178</v>
       </c>
@@ -4803,8 +5199,14 @@
       <c r="G128" s="1">
         <v>2009</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H128" t="s">
+        <v>535</v>
+      </c>
+      <c r="I128" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>179</v>
       </c>
@@ -4826,8 +5228,14 @@
       <c r="G129" s="1">
         <v>2009</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H129" t="s">
+        <v>535</v>
+      </c>
+      <c r="I129" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>187</v>
       </c>
@@ -4849,8 +5257,14 @@
       <c r="G130" s="1">
         <v>2017</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H130" t="s">
+        <v>532</v>
+      </c>
+      <c r="I130" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>188</v>
       </c>
@@ -4872,8 +5286,14 @@
       <c r="G131" s="1">
         <v>2017</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H131" t="s">
+        <v>532</v>
+      </c>
+      <c r="I131" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>189</v>
       </c>
@@ -4895,8 +5315,14 @@
       <c r="G132" s="1">
         <v>2017</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H132" t="s">
+        <v>532</v>
+      </c>
+      <c r="I132" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>190</v>
       </c>
@@ -4918,8 +5344,14 @@
       <c r="G133" s="1">
         <v>2017</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H133" t="s">
+        <v>532</v>
+      </c>
+      <c r="I133" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>191</v>
       </c>
@@ -4941,8 +5373,14 @@
       <c r="G134" s="1">
         <v>2017</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H134" t="s">
+        <v>532</v>
+      </c>
+      <c r="I134" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>192</v>
       </c>
@@ -4964,8 +5402,14 @@
       <c r="G135" s="1">
         <v>2017</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H135" t="s">
+        <v>532</v>
+      </c>
+      <c r="I135" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>193</v>
       </c>
@@ -4987,8 +5431,14 @@
       <c r="G136" s="1">
         <v>2017</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H136" t="s">
+        <v>532</v>
+      </c>
+      <c r="I136" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>194</v>
       </c>
@@ -5010,8 +5460,14 @@
       <c r="G137" s="1">
         <v>2017</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H137" t="s">
+        <v>532</v>
+      </c>
+      <c r="I137" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>195</v>
       </c>
@@ -5033,8 +5489,14 @@
       <c r="G138" s="1">
         <v>2017</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H138" t="s">
+        <v>532</v>
+      </c>
+      <c r="I138" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>196</v>
       </c>
@@ -5056,8 +5518,14 @@
       <c r="G139" s="1">
         <v>2017</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H139" t="s">
+        <v>532</v>
+      </c>
+      <c r="I139" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>197</v>
       </c>
@@ -5079,8 +5547,14 @@
       <c r="G140" s="1">
         <v>2017</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H140" t="s">
+        <v>532</v>
+      </c>
+      <c r="I140" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>198</v>
       </c>
@@ -5102,8 +5576,14 @@
       <c r="G141" s="1">
         <v>2017</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H141" t="s">
+        <v>532</v>
+      </c>
+      <c r="I141" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>202</v>
       </c>
@@ -5126,7 +5606,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>211</v>
       </c>
@@ -5149,7 +5629,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>212</v>
       </c>
@@ -6276,7 +6756,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>266</v>
       </c>
@@ -6299,7 +6779,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>267</v>
       </c>
@@ -6322,7 +6802,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>270</v>
       </c>
@@ -6344,8 +6824,14 @@
       <c r="G195" s="1">
         <v>2010</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H195" t="s">
+        <v>537</v>
+      </c>
+      <c r="I195" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>271</v>
       </c>
@@ -6367,8 +6853,14 @@
       <c r="G196" s="1">
         <v>2010</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H196" t="s">
+        <v>537</v>
+      </c>
+      <c r="I196" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>272</v>
       </c>
@@ -6390,8 +6882,14 @@
       <c r="G197" s="1">
         <v>2010</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H197" t="s">
+        <v>537</v>
+      </c>
+      <c r="I197" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>279</v>
       </c>
@@ -6413,8 +6911,14 @@
       <c r="G198" s="1">
         <v>2020</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H198" t="s">
+        <v>539</v>
+      </c>
+      <c r="I198" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>280</v>
       </c>
@@ -6436,8 +6940,14 @@
       <c r="G199" s="1">
         <v>2020</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H199" t="s">
+        <v>539</v>
+      </c>
+      <c r="I199" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>281</v>
       </c>
@@ -6459,8 +6969,14 @@
       <c r="G200" s="1">
         <v>2020</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H200" t="s">
+        <v>539</v>
+      </c>
+      <c r="I200" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>282</v>
       </c>
@@ -6482,8 +6998,14 @@
       <c r="G201" s="1">
         <v>2020</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H201" t="s">
+        <v>539</v>
+      </c>
+      <c r="I201" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>288</v>
       </c>
@@ -6505,8 +7027,14 @@
       <c r="G202" s="1">
         <v>2014</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H202" t="s">
+        <v>539</v>
+      </c>
+      <c r="I202" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>289</v>
       </c>
@@ -6528,8 +7056,14 @@
       <c r="G203" s="1">
         <v>2014</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H203" t="s">
+        <v>539</v>
+      </c>
+      <c r="I203" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>290</v>
       </c>
@@ -6551,8 +7085,14 @@
       <c r="G204" s="1">
         <v>2014</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H204" t="s">
+        <v>539</v>
+      </c>
+      <c r="I204" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>297</v>
       </c>
@@ -6574,8 +7114,14 @@
       <c r="G205" s="1">
         <v>2012</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H205" t="s">
+        <v>537</v>
+      </c>
+      <c r="I205" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>298</v>
       </c>
@@ -6597,8 +7143,14 @@
       <c r="G206" s="1">
         <v>2012</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H206" t="s">
+        <v>537</v>
+      </c>
+      <c r="I206" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>299</v>
       </c>
@@ -6620,8 +7172,14 @@
       <c r="G207" s="1">
         <v>2012</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H207" t="s">
+        <v>537</v>
+      </c>
+      <c r="I207" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>300</v>
       </c>
@@ -6643,8 +7201,14 @@
       <c r="G208" s="1">
         <v>2012</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H208" t="s">
+        <v>537</v>
+      </c>
+      <c r="I208" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>306</v>
       </c>
@@ -6666,8 +7230,14 @@
       <c r="G209" s="1">
         <v>2018</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H209" t="s">
+        <v>539</v>
+      </c>
+      <c r="I209" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>307</v>
       </c>
@@ -6689,8 +7259,14 @@
       <c r="G210" s="1">
         <v>2018</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H210" t="s">
+        <v>539</v>
+      </c>
+      <c r="I210" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>308</v>
       </c>
@@ -6712,8 +7288,14 @@
       <c r="G211" s="1">
         <v>2018</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H211" t="s">
+        <v>539</v>
+      </c>
+      <c r="I211" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>312</v>
       </c>
@@ -6735,8 +7317,14 @@
       <c r="G212" s="1">
         <v>2016</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H212" t="s">
+        <v>539</v>
+      </c>
+      <c r="I212" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>313</v>
       </c>
@@ -6758,8 +7346,14 @@
       <c r="G213" s="1">
         <v>2016</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H213" t="s">
+        <v>539</v>
+      </c>
+      <c r="I213" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>314</v>
       </c>
@@ -6781,8 +7375,14 @@
       <c r="G214" s="1">
         <v>2016</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H214" t="s">
+        <v>539</v>
+      </c>
+      <c r="I214" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>315</v>
       </c>
@@ -6804,8 +7404,14 @@
       <c r="G215" s="1">
         <v>2016</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H215" t="s">
+        <v>539</v>
+      </c>
+      <c r="I215" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>321</v>
       </c>
@@ -6827,8 +7433,14 @@
       <c r="G216" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H216" t="s">
+        <v>539</v>
+      </c>
+      <c r="I216" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>322</v>
       </c>
@@ -6850,8 +7462,14 @@
       <c r="G217" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H217" t="s">
+        <v>539</v>
+      </c>
+      <c r="I217" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>342</v>
       </c>
@@ -6873,8 +7491,14 @@
       <c r="G218" s="1">
         <v>2018</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H218" t="s">
+        <v>541</v>
+      </c>
+      <c r="I218" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>344</v>
       </c>
@@ -6896,8 +7520,14 @@
       <c r="G219" s="1">
         <v>2004</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H219" t="s">
+        <v>543</v>
+      </c>
+      <c r="I219" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>345</v>
       </c>
@@ -6919,8 +7549,14 @@
       <c r="G220" s="1">
         <v>2004</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H220" t="s">
+        <v>543</v>
+      </c>
+      <c r="I220" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>346</v>
       </c>
@@ -6942,8 +7578,14 @@
       <c r="G221" s="1">
         <v>2004</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H221" t="s">
+        <v>543</v>
+      </c>
+      <c r="I221" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>347</v>
       </c>
@@ -6965,8 +7607,14 @@
       <c r="G222" s="1">
         <v>2004</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H222" t="s">
+        <v>543</v>
+      </c>
+      <c r="I222" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>348</v>
       </c>
@@ -6988,8 +7636,14 @@
       <c r="G223" s="1">
         <v>2004</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H223" t="s">
+        <v>543</v>
+      </c>
+      <c r="I223" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>349</v>
       </c>
@@ -7011,8 +7665,14 @@
       <c r="G224" s="1">
         <v>2004</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H224" t="s">
+        <v>543</v>
+      </c>
+      <c r="I224" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>350</v>
       </c>
@@ -7034,8 +7694,14 @@
       <c r="G225" s="1">
         <v>2010</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H225" t="s">
+        <v>543</v>
+      </c>
+      <c r="I225" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>351</v>
       </c>
@@ -7057,8 +7723,14 @@
       <c r="G226" s="1">
         <v>2010</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H226" t="s">
+        <v>543</v>
+      </c>
+      <c r="I226" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>352</v>
       </c>
@@ -7080,8 +7752,14 @@
       <c r="G227" s="1">
         <v>2010</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H227" t="s">
+        <v>543</v>
+      </c>
+      <c r="I227" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>353</v>
       </c>
@@ -7103,8 +7781,14 @@
       <c r="G228" s="1">
         <v>2010</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H228" t="s">
+        <v>543</v>
+      </c>
+      <c r="I228" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>354</v>
       </c>
@@ -7126,8 +7810,14 @@
       <c r="G229" s="1">
         <v>2015</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H229" t="s">
+        <v>541</v>
+      </c>
+      <c r="I229" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>358</v>
       </c>
@@ -7149,8 +7839,14 @@
       <c r="G230" s="1">
         <v>2020</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H230" t="s">
+        <v>541</v>
+      </c>
+      <c r="I230" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>359</v>
       </c>
@@ -7172,8 +7868,14 @@
       <c r="G231" s="1">
         <v>2020</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H231" t="s">
+        <v>541</v>
+      </c>
+      <c r="I231" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>360</v>
       </c>
@@ -7195,8 +7897,14 @@
       <c r="G232" s="1">
         <v>2020</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H232" t="s">
+        <v>541</v>
+      </c>
+      <c r="I232" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>361</v>
       </c>
@@ -7218,8 +7926,14 @@
       <c r="G233" s="1">
         <v>2020</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H233" t="s">
+        <v>541</v>
+      </c>
+      <c r="I233" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>362</v>
       </c>
@@ -7241,8 +7955,14 @@
       <c r="G234" s="1">
         <v>2020</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H234" t="s">
+        <v>541</v>
+      </c>
+      <c r="I234" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>363</v>
       </c>
@@ -7264,8 +7984,14 @@
       <c r="G235" s="1">
         <v>2020</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H235" t="s">
+        <v>541</v>
+      </c>
+      <c r="I235" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>364</v>
       </c>
@@ -7287,8 +8013,14 @@
       <c r="G236" s="1">
         <v>2008</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H236" t="s">
+        <v>543</v>
+      </c>
+      <c r="I236" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>365</v>
       </c>
@@ -7310,8 +8042,14 @@
       <c r="G237" s="1">
         <v>2008</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H237" t="s">
+        <v>543</v>
+      </c>
+      <c r="I237" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>366</v>
       </c>
@@ -7333,8 +8071,14 @@
       <c r="G238" s="1">
         <v>2008</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H238" t="s">
+        <v>543</v>
+      </c>
+      <c r="I238" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>367</v>
       </c>
@@ -7356,8 +8100,14 @@
       <c r="G239" s="1">
         <v>2008</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H239" t="s">
+        <v>543</v>
+      </c>
+      <c r="I239" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>368</v>
       </c>
@@ -7379,8 +8129,14 @@
       <c r="G240" s="1">
         <v>2008</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H240" t="s">
+        <v>543</v>
+      </c>
+      <c r="I240" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>369</v>
       </c>
@@ -7402,8 +8158,14 @@
       <c r="G241" s="1">
         <v>2008</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H241" t="s">
+        <v>543</v>
+      </c>
+      <c r="I241" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>370</v>
       </c>
@@ -7425,8 +8187,14 @@
       <c r="G242" s="1">
         <v>2008</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H242" t="s">
+        <v>543</v>
+      </c>
+      <c r="I242" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>371</v>
       </c>
@@ -7448,8 +8216,14 @@
       <c r="G243" s="1">
         <v>2014</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H243" t="s">
+        <v>541</v>
+      </c>
+      <c r="I243" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>372</v>
       </c>
@@ -7471,8 +8245,14 @@
       <c r="G244" s="1">
         <v>2004</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H244" t="s">
+        <v>543</v>
+      </c>
+      <c r="I244" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>375</v>
       </c>
@@ -7494,8 +8274,14 @@
       <c r="G245" s="1">
         <v>2019</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H245" t="s">
+        <v>541</v>
+      </c>
+      <c r="I245" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>377</v>
       </c>
@@ -7517,8 +8303,14 @@
       <c r="G246" s="1">
         <v>2012</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H246" t="s">
+        <v>541</v>
+      </c>
+      <c r="I246" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>378</v>
       </c>
@@ -7540,8 +8332,14 @@
       <c r="G247" s="1">
         <v>2012</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H247" t="s">
+        <v>541</v>
+      </c>
+      <c r="I247" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>381</v>
       </c>
@@ -7563,8 +8361,14 @@
       <c r="G248" s="1">
         <v>2018</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H248" t="s">
+        <v>541</v>
+      </c>
+      <c r="I248" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>382</v>
       </c>
@@ -7586,8 +8390,14 @@
       <c r="G249" s="1">
         <v>2018</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H249" t="s">
+        <v>541</v>
+      </c>
+      <c r="I249" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>383</v>
       </c>
@@ -7609,8 +8419,14 @@
       <c r="G250" s="1">
         <v>2018</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H250" t="s">
+        <v>541</v>
+      </c>
+      <c r="I250" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>384</v>
       </c>
@@ -7632,8 +8448,14 @@
       <c r="G251" s="1">
         <v>2018</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H251" t="s">
+        <v>541</v>
+      </c>
+      <c r="I251" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>385</v>
       </c>
@@ -7655,8 +8477,14 @@
       <c r="G252" s="1">
         <v>2018</v>
       </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H252" t="s">
+        <v>541</v>
+      </c>
+      <c r="I252" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>386</v>
       </c>
@@ -7678,8 +8506,14 @@
       <c r="G253" s="1">
         <v>2006</v>
       </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H253" t="s">
+        <v>543</v>
+      </c>
+      <c r="I253" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>387</v>
       </c>
@@ -7701,8 +8535,14 @@
       <c r="G254" s="1">
         <v>2006</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H254" t="s">
+        <v>543</v>
+      </c>
+      <c r="I254" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>388</v>
       </c>
@@ -7724,8 +8564,14 @@
       <c r="G255" s="1">
         <v>2006</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H255" t="s">
+        <v>543</v>
+      </c>
+      <c r="I255" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>389</v>
       </c>
@@ -7747,8 +8593,14 @@
       <c r="G256" s="1">
         <v>2006</v>
       </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H256" t="s">
+        <v>543</v>
+      </c>
+      <c r="I256" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>390</v>
       </c>
@@ -7770,8 +8622,14 @@
       <c r="G257" s="1">
         <v>2006</v>
       </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H257" t="s">
+        <v>543</v>
+      </c>
+      <c r="I257" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>396</v>
       </c>
@@ -7793,8 +8651,14 @@
       <c r="G258" s="1">
         <v>2016</v>
       </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H258" t="s">
+        <v>541</v>
+      </c>
+      <c r="I258" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>397</v>
       </c>
@@ -7816,8 +8680,14 @@
       <c r="G259" s="1">
         <v>2016</v>
       </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H259" t="s">
+        <v>541</v>
+      </c>
+      <c r="I259" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>398</v>
       </c>
@@ -7839,8 +8709,14 @@
       <c r="G260" s="1">
         <v>2016</v>
       </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H260" t="s">
+        <v>541</v>
+      </c>
+      <c r="I260" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>399</v>
       </c>
@@ -7862,8 +8738,14 @@
       <c r="G261" s="1">
         <v>2016</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H261" t="s">
+        <v>541</v>
+      </c>
+      <c r="I261" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>400</v>
       </c>
@@ -7885,8 +8767,14 @@
       <c r="G262" s="1">
         <v>2016</v>
       </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H262" t="s">
+        <v>541</v>
+      </c>
+      <c r="I262" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>401</v>
       </c>
@@ -7908,8 +8796,14 @@
       <c r="G263" s="1">
         <v>2016</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H263" t="s">
+        <v>541</v>
+      </c>
+      <c r="I263" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>402</v>
       </c>
@@ -7931,8 +8825,14 @@
       <c r="G264" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H264" t="s">
+        <v>546</v>
+      </c>
+      <c r="I264" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>403</v>
       </c>
@@ -7954,8 +8854,14 @@
       <c r="G265" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H265" t="s">
+        <v>546</v>
+      </c>
+      <c r="I265" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>404</v>
       </c>
@@ -7977,8 +8883,14 @@
       <c r="G266" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H266" t="s">
+        <v>546</v>
+      </c>
+      <c r="I266" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>405</v>
       </c>
@@ -8000,8 +8912,14 @@
       <c r="G267" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H267" t="s">
+        <v>546</v>
+      </c>
+      <c r="I267" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>412</v>
       </c>
@@ -8023,8 +8941,14 @@
       <c r="G268" s="1">
         <v>2020</v>
       </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H268" t="s">
+        <v>525</v>
+      </c>
+      <c r="I268" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>413</v>
       </c>
@@ -8046,8 +8970,14 @@
       <c r="G269" s="1">
         <v>2020</v>
       </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H269" t="s">
+        <v>525</v>
+      </c>
+      <c r="I269" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>426</v>
       </c>
@@ -8070,7 +9000,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>427</v>
       </c>
@@ -8093,7 +9023,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>429</v>
       </c>
@@ -8116,7 +9046,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>431</v>
       </c>
@@ -8139,7 +9069,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>432</v>
       </c>
@@ -8162,7 +9092,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>433</v>
       </c>
@@ -8185,7 +9115,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>434</v>
       </c>
@@ -8208,7 +9138,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>435</v>
       </c>
@@ -8231,7 +9161,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>436</v>
       </c>
@@ -8254,7 +9184,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>120</v>
       </c>
@@ -8274,7 +9204,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>130</v>
       </c>
@@ -8294,7 +9224,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>131</v>
       </c>
@@ -8314,7 +9244,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>132</v>
       </c>
@@ -8334,7 +9264,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>328</v>
       </c>
@@ -8354,7 +9284,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>330</v>
       </c>
@@ -8374,7 +9304,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>334</v>
       </c>
@@ -8394,7 +9324,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>332</v>
       </c>
@@ -8417,7 +9347,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>409</v>
       </c>
@@ -8439,8 +9369,14 @@
       <c r="G287" s="1">
         <v>2010</v>
       </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H287" t="s">
+        <v>525</v>
+      </c>
+      <c r="I287" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>410</v>
       </c>
@@ -8462,8 +9398,14 @@
       <c r="G288" s="1">
         <v>2010</v>
       </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H288" t="s">
+        <v>525</v>
+      </c>
+      <c r="I288" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>414</v>
       </c>
@@ -8485,8 +9427,14 @@
       <c r="G289" s="1">
         <v>2014</v>
       </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H289" t="s">
+        <v>525</v>
+      </c>
+      <c r="I289" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>415</v>
       </c>
@@ -8508,8 +9456,14 @@
       <c r="G290" s="1">
         <v>2014</v>
       </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H290" t="s">
+        <v>525</v>
+      </c>
+      <c r="I290" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>416</v>
       </c>
@@ -8531,8 +9485,14 @@
       <c r="G291" s="1">
         <v>2014</v>
       </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H291" t="s">
+        <v>525</v>
+      </c>
+      <c r="I291" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>418</v>
       </c>
@@ -8554,8 +9514,14 @@
       <c r="G292" s="1">
         <v>2012</v>
       </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H292" t="s">
+        <v>525</v>
+      </c>
+      <c r="I292" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>419</v>
       </c>
@@ -8577,8 +9543,14 @@
       <c r="G293" s="1">
         <v>2012</v>
       </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H293" t="s">
+        <v>525</v>
+      </c>
+      <c r="I293" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>420</v>
       </c>
@@ -8600,8 +9572,14 @@
       <c r="G294" s="1">
         <v>2012</v>
       </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H294" t="s">
+        <v>525</v>
+      </c>
+      <c r="I294" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>421</v>
       </c>
@@ -8623,8 +9601,14 @@
       <c r="G295" s="1">
         <v>2018</v>
       </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H295" t="s">
+        <v>525</v>
+      </c>
+      <c r="I295" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>422</v>
       </c>
@@ -8646,8 +9630,14 @@
       <c r="G296" s="1">
         <v>2018</v>
       </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H296" t="s">
+        <v>525</v>
+      </c>
+      <c r="I296" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>423</v>
       </c>
@@ -8669,8 +9659,14 @@
       <c r="G297" s="1">
         <v>2018</v>
       </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H297" t="s">
+        <v>525</v>
+      </c>
+      <c r="I297" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>425</v>
       </c>
@@ -8692,688 +9688,932 @@
       <c r="G298" s="1">
         <v>2016</v>
       </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H298" t="s">
+        <v>525</v>
+      </c>
+      <c r="I298" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>10</v>
       </c>
-      <c r="C299" t="s">
+      <c r="B299" s="1"/>
+      <c r="C299" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D299" t="s">
+      <c r="D299" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E299">
+      <c r="E299" s="1">
         <v>1</v>
       </c>
-      <c r="F299" t="s">
+      <c r="F299" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G299">
+      <c r="G299" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H299" t="s">
+        <v>522</v>
+      </c>
+      <c r="I299" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>12</v>
       </c>
-      <c r="C300" t="s">
+      <c r="B300" s="1"/>
+      <c r="C300" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D300" t="s">
+      <c r="D300" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E300">
+      <c r="E300" s="1">
         <v>10</v>
       </c>
-      <c r="F300" t="s">
+      <c r="F300" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G300">
+      <c r="G300" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H300" t="s">
+        <v>522</v>
+      </c>
+      <c r="I300" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>13</v>
       </c>
-      <c r="C301" t="s">
+      <c r="B301" s="1"/>
+      <c r="C301" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D301" t="s">
+      <c r="D301" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E301">
+      <c r="E301" s="1">
         <v>11</v>
       </c>
-      <c r="F301" t="s">
+      <c r="F301" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G301">
+      <c r="G301" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H301" t="s">
+        <v>522</v>
+      </c>
+      <c r="I301" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>14</v>
       </c>
-      <c r="C302" t="s">
+      <c r="B302" s="1"/>
+      <c r="C302" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D302" t="s">
+      <c r="D302" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E302">
+      <c r="E302" s="1">
         <v>12</v>
       </c>
-      <c r="F302" t="s">
+      <c r="F302" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G302">
+      <c r="G302" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H302" t="s">
+        <v>522</v>
+      </c>
+      <c r="I302" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>15</v>
       </c>
-      <c r="C303" t="s">
+      <c r="B303" s="1"/>
+      <c r="C303" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D303" t="s">
+      <c r="D303" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E303">
+      <c r="E303" s="1">
         <v>13</v>
       </c>
-      <c r="F303" t="s">
+      <c r="F303" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G303">
+      <c r="G303" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H303" t="s">
+        <v>522</v>
+      </c>
+      <c r="I303" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>16</v>
       </c>
-      <c r="C304" t="s">
+      <c r="B304" s="1"/>
+      <c r="C304" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D304" t="s">
+      <c r="D304" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E304">
+      <c r="E304" s="1">
         <v>14</v>
       </c>
-      <c r="F304" t="s">
+      <c r="F304" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G304">
+      <c r="G304" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H304" t="s">
+        <v>522</v>
+      </c>
+      <c r="I304" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>17</v>
       </c>
-      <c r="C305" t="s">
+      <c r="B305" s="1"/>
+      <c r="C305" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D305" t="s">
+      <c r="D305" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E305">
+      <c r="E305" s="1">
         <v>15</v>
       </c>
-      <c r="F305" t="s">
+      <c r="F305" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G305">
+      <c r="G305" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H305" t="s">
+        <v>522</v>
+      </c>
+      <c r="I305" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>18</v>
       </c>
-      <c r="C306" t="s">
+      <c r="B306" s="1"/>
+      <c r="C306" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D306" t="s">
+      <c r="D306" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E306">
+      <c r="E306" s="1">
         <v>16</v>
       </c>
-      <c r="F306" t="s">
+      <c r="F306" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G306">
+      <c r="G306" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H306" t="s">
+        <v>522</v>
+      </c>
+      <c r="I306" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>19</v>
       </c>
-      <c r="C307" t="s">
+      <c r="B307" s="1"/>
+      <c r="C307" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D307" t="s">
+      <c r="D307" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E307">
+      <c r="E307" s="1">
         <v>17</v>
       </c>
-      <c r="F307" t="s">
+      <c r="F307" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G307">
+      <c r="G307" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H307" t="s">
+        <v>522</v>
+      </c>
+      <c r="I307" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>20</v>
       </c>
-      <c r="C308" t="s">
+      <c r="B308" s="1"/>
+      <c r="C308" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D308" t="s">
+      <c r="D308" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E308">
+      <c r="E308" s="1">
         <v>18</v>
       </c>
-      <c r="F308" t="s">
+      <c r="F308" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G308">
+      <c r="G308" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H308" t="s">
+        <v>522</v>
+      </c>
+      <c r="I308" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>21</v>
       </c>
-      <c r="C309" t="s">
+      <c r="B309" s="1"/>
+      <c r="C309" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D309" t="s">
+      <c r="D309" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E309">
+      <c r="E309" s="1">
         <v>19</v>
       </c>
-      <c r="F309" t="s">
+      <c r="F309" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G309">
+      <c r="G309" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H309" t="s">
+        <v>522</v>
+      </c>
+      <c r="I309" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>22</v>
       </c>
-      <c r="C310" t="s">
+      <c r="B310" s="1"/>
+      <c r="C310" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D310" t="s">
+      <c r="D310" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E310">
+      <c r="E310" s="1">
         <v>2</v>
       </c>
-      <c r="F310" t="s">
+      <c r="F310" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G310">
+      <c r="G310" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H310" t="s">
+        <v>522</v>
+      </c>
+      <c r="I310" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>23</v>
       </c>
-      <c r="C311" t="s">
+      <c r="B311" s="1"/>
+      <c r="C311" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D311" t="s">
+      <c r="D311" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E311">
+      <c r="E311" s="1">
         <v>20</v>
       </c>
-      <c r="F311" t="s">
+      <c r="F311" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G311">
+      <c r="G311" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H311" t="s">
+        <v>522</v>
+      </c>
+      <c r="I311" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>24</v>
       </c>
-      <c r="C312" t="s">
+      <c r="B312" s="1"/>
+      <c r="C312" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D312" t="s">
+      <c r="D312" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E312">
+      <c r="E312" s="1">
         <v>21</v>
       </c>
-      <c r="F312" t="s">
+      <c r="F312" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G312">
+      <c r="G312" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H312" t="s">
+        <v>522</v>
+      </c>
+      <c r="I312" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>25</v>
       </c>
-      <c r="C313" t="s">
+      <c r="B313" s="1"/>
+      <c r="C313" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D313" t="s">
+      <c r="D313" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E313">
+      <c r="E313" s="1">
         <v>22</v>
       </c>
-      <c r="F313" t="s">
+      <c r="F313" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G313">
+      <c r="G313" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H313" t="s">
+        <v>522</v>
+      </c>
+      <c r="I313" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>26</v>
       </c>
-      <c r="C314" t="s">
+      <c r="B314" s="1"/>
+      <c r="C314" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D314" t="s">
+      <c r="D314" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E314">
+      <c r="E314" s="1">
         <v>23</v>
       </c>
-      <c r="F314" t="s">
+      <c r="F314" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G314">
+      <c r="G314" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H314" t="s">
+        <v>522</v>
+      </c>
+      <c r="I314" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>27</v>
       </c>
-      <c r="C315" t="s">
+      <c r="B315" s="1"/>
+      <c r="C315" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D315" t="s">
+      <c r="D315" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E315">
+      <c r="E315" s="1">
         <v>24</v>
       </c>
-      <c r="F315" t="s">
+      <c r="F315" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G315">
+      <c r="G315" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H315" t="s">
+        <v>522</v>
+      </c>
+      <c r="I315" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>28</v>
       </c>
-      <c r="C316" t="s">
+      <c r="B316" s="1"/>
+      <c r="C316" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D316" t="s">
+      <c r="D316" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E316">
+      <c r="E316" s="1">
         <v>25</v>
       </c>
-      <c r="F316" t="s">
+      <c r="F316" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G316">
+      <c r="G316" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H316" t="s">
+        <v>522</v>
+      </c>
+      <c r="I316" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>29</v>
       </c>
-      <c r="C317" t="s">
+      <c r="B317" s="1"/>
+      <c r="C317" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D317" t="s">
+      <c r="D317" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E317">
+      <c r="E317" s="1">
         <v>26</v>
       </c>
-      <c r="F317" t="s">
+      <c r="F317" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G317">
+      <c r="G317" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H317" t="s">
+        <v>522</v>
+      </c>
+      <c r="I317" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>30</v>
       </c>
-      <c r="C318" t="s">
+      <c r="B318" s="1"/>
+      <c r="C318" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D318" t="s">
+      <c r="D318" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E318">
+      <c r="E318" s="1">
         <v>27</v>
       </c>
-      <c r="F318" t="s">
+      <c r="F318" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G318">
+      <c r="G318" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H318" t="s">
+        <v>522</v>
+      </c>
+      <c r="I318" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>31</v>
       </c>
-      <c r="C319" t="s">
+      <c r="B319" s="1"/>
+      <c r="C319" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D319" t="s">
+      <c r="D319" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E319">
+      <c r="E319" s="1">
         <v>28</v>
       </c>
-      <c r="F319" t="s">
+      <c r="F319" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G319">
+      <c r="G319" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H319" t="s">
+        <v>522</v>
+      </c>
+      <c r="I319" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>32</v>
       </c>
-      <c r="C320" t="s">
+      <c r="B320" s="1"/>
+      <c r="C320" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D320" t="s">
+      <c r="D320" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E320">
+      <c r="E320" s="1">
         <v>29</v>
       </c>
-      <c r="F320" t="s">
+      <c r="F320" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G320">
+      <c r="G320" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H320" t="s">
+        <v>522</v>
+      </c>
+      <c r="I320" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>33</v>
       </c>
-      <c r="C321" t="s">
+      <c r="B321" s="1"/>
+      <c r="C321" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D321" t="s">
+      <c r="D321" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E321">
+      <c r="E321" s="1">
         <v>30</v>
       </c>
-      <c r="F321" t="s">
+      <c r="F321" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G321">
+      <c r="G321" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H321" t="s">
+        <v>522</v>
+      </c>
+      <c r="I321" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>34</v>
       </c>
-      <c r="C322" t="s">
+      <c r="B322" s="1"/>
+      <c r="C322" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D322" t="s">
+      <c r="D322" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E322">
+      <c r="E322" s="1">
         <v>31</v>
       </c>
-      <c r="F322" t="s">
+      <c r="F322" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G322">
+      <c r="G322" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H322" t="s">
+        <v>522</v>
+      </c>
+      <c r="I322" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>35</v>
       </c>
-      <c r="C323" t="s">
+      <c r="B323" s="1"/>
+      <c r="C323" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D323" t="s">
+      <c r="D323" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E323">
+      <c r="E323" s="1">
         <v>32</v>
       </c>
-      <c r="F323" t="s">
+      <c r="F323" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G323">
+      <c r="G323" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H323" t="s">
+        <v>522</v>
+      </c>
+      <c r="I323" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>36</v>
       </c>
-      <c r="C324" t="s">
+      <c r="B324" s="1"/>
+      <c r="C324" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D324" t="s">
+      <c r="D324" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E324">
+      <c r="E324" s="1">
         <v>33</v>
       </c>
-      <c r="F324" t="s">
+      <c r="F324" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G324">
+      <c r="G324" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H324" t="s">
+        <v>522</v>
+      </c>
+      <c r="I324" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>37</v>
       </c>
-      <c r="C325" t="s">
+      <c r="B325" s="1"/>
+      <c r="C325" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D325" t="s">
+      <c r="D325" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E325">
+      <c r="E325" s="1">
         <v>34</v>
       </c>
-      <c r="F325" t="s">
+      <c r="F325" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G325">
+      <c r="G325" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H325" t="s">
+        <v>522</v>
+      </c>
+      <c r="I325" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>38</v>
       </c>
-      <c r="C326" t="s">
+      <c r="B326" s="1"/>
+      <c r="C326" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D326" t="s">
+      <c r="D326" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E326">
+      <c r="E326" s="1">
         <v>35</v>
       </c>
-      <c r="F326" t="s">
+      <c r="F326" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G326">
+      <c r="G326" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H326" t="s">
+        <v>522</v>
+      </c>
+      <c r="I326" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>39</v>
       </c>
-      <c r="C327" t="s">
+      <c r="B327" s="1"/>
+      <c r="C327" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D327" t="s">
+      <c r="D327" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E327">
+      <c r="E327" s="1">
         <v>39</v>
       </c>
-      <c r="F327" t="s">
+      <c r="F327" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G327">
+      <c r="G327" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H327" t="s">
+        <v>522</v>
+      </c>
+      <c r="I327" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>40</v>
       </c>
-      <c r="C328" t="s">
+      <c r="B328" s="1"/>
+      <c r="C328" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D328" t="s">
+      <c r="D328" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E328">
+      <c r="E328" s="1">
         <v>4</v>
       </c>
-      <c r="F328" t="s">
+      <c r="F328" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G328">
+      <c r="G328" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H328" t="s">
+        <v>522</v>
+      </c>
+      <c r="I328" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>41</v>
       </c>
-      <c r="C329" t="s">
+      <c r="B329" s="1"/>
+      <c r="C329" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D329" t="s">
+      <c r="D329" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E329">
+      <c r="E329" s="1">
         <v>5</v>
       </c>
-      <c r="F329" t="s">
+      <c r="F329" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G329">
+      <c r="G329" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H329" t="s">
+        <v>522</v>
+      </c>
+      <c r="I329" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>42</v>
       </c>
-      <c r="C330" t="s">
+      <c r="B330" s="1"/>
+      <c r="C330" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D330" t="s">
+      <c r="D330" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E330">
+      <c r="E330" s="1">
         <v>6</v>
       </c>
-      <c r="F330" t="s">
+      <c r="F330" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G330">
+      <c r="G330" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H330" t="s">
+        <v>522</v>
+      </c>
+      <c r="I330" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>43</v>
       </c>
-      <c r="C331" t="s">
+      <c r="B331" s="1"/>
+      <c r="C331" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D331" t="s">
+      <c r="D331" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E331">
+      <c r="E331" s="1">
         <v>7</v>
       </c>
-      <c r="F331" t="s">
+      <c r="F331" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G331">
+      <c r="G331" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H331" t="s">
+        <v>522</v>
+      </c>
+      <c r="I331" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>44</v>
       </c>
-      <c r="C332" t="s">
+      <c r="B332" s="1"/>
+      <c r="C332" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D332" t="s">
+      <c r="D332" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E332">
+      <c r="E332" s="1">
         <v>9</v>
       </c>
-      <c r="F332" t="s">
+      <c r="F332" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G332">
+      <c r="G332" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H332" t="s">
+        <v>522</v>
+      </c>
+      <c r="I332" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>123</v>
       </c>
@@ -9393,7 +10633,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>125</v>
       </c>
@@ -9413,7 +10653,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>126</v>
       </c>
@@ -9433,7 +10673,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>127</v>
       </c>
@@ -10535,7 +11775,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
         <v>66</v>
       </c>
@@ -10554,7 +11794,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
         <v>113</v>
       </c>
@@ -10573,7 +11813,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
         <v>114</v>
       </c>
@@ -10592,7 +11832,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
         <v>115</v>
       </c>
@@ -10611,7 +11851,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
         <v>116</v>
       </c>
@@ -10630,7 +11870,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
         <v>121</v>
       </c>
@@ -10649,7 +11889,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
         <v>441</v>
       </c>
@@ -10668,367 +11908,493 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>45</v>
       </c>
-      <c r="C392" t="s">
+      <c r="B392" s="1"/>
+      <c r="C392" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D392" t="s">
+      <c r="D392" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="E392" t="s">
+      <c r="E392" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="F392" t="s">
+      <c r="F392" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G392">
+      <c r="G392" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H392" t="s">
+        <v>523</v>
+      </c>
+      <c r="I392" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>48</v>
       </c>
-      <c r="C393" t="s">
+      <c r="B393" s="1"/>
+      <c r="C393" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D393" t="s">
+      <c r="D393" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="E393" t="s">
+      <c r="E393" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="F393" t="s">
+      <c r="F393" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G393">
+      <c r="G393" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H393" t="s">
+        <v>523</v>
+      </c>
+      <c r="I393" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>49</v>
       </c>
-      <c r="C394" t="s">
+      <c r="B394" s="1"/>
+      <c r="C394" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D394" t="s">
+      <c r="D394" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="E394" t="s">
+      <c r="E394" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="F394" t="s">
+      <c r="F394" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G394">
+      <c r="G394" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H394" t="s">
+        <v>523</v>
+      </c>
+      <c r="I394" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>50</v>
       </c>
-      <c r="C395" t="s">
+      <c r="B395" s="1"/>
+      <c r="C395" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D395" t="s">
+      <c r="D395" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="E395" t="s">
+      <c r="E395" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="F395" t="s">
+      <c r="F395" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G395">
+      <c r="G395" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H395" t="s">
+        <v>523</v>
+      </c>
+      <c r="I395" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>51</v>
       </c>
-      <c r="C396" t="s">
+      <c r="B396" s="1"/>
+      <c r="C396" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D396" t="s">
+      <c r="D396" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="E396" t="s">
+      <c r="E396" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="F396" t="s">
+      <c r="F396" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G396">
+      <c r="G396" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H396" t="s">
+        <v>523</v>
+      </c>
+      <c r="I396" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>52</v>
       </c>
-      <c r="C397" t="s">
+      <c r="B397" s="1"/>
+      <c r="C397" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D397" t="s">
+      <c r="D397" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="E397" t="s">
+      <c r="E397" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="F397" t="s">
+      <c r="F397" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G397">
+      <c r="G397" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H397" t="s">
+        <v>523</v>
+      </c>
+      <c r="I397" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>53</v>
       </c>
-      <c r="C398" t="s">
+      <c r="B398" s="1"/>
+      <c r="C398" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D398" t="s">
+      <c r="D398" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="E398" t="s">
+      <c r="E398" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="F398" t="s">
+      <c r="F398" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G398">
+      <c r="G398" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H398" t="s">
+        <v>523</v>
+      </c>
+      <c r="I398" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>54</v>
       </c>
-      <c r="C399" t="s">
+      <c r="B399" s="1"/>
+      <c r="C399" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D399" t="s">
+      <c r="D399" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="E399" t="s">
+      <c r="E399" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="F399" t="s">
+      <c r="F399" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G399">
+      <c r="G399" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H399" t="s">
+        <v>523</v>
+      </c>
+      <c r="I399" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>55</v>
       </c>
-      <c r="C400" t="s">
+      <c r="B400" s="1"/>
+      <c r="C400" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D400" t="s">
+      <c r="D400" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="E400" t="s">
+      <c r="E400" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="F400" t="s">
+      <c r="F400" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G400">
+      <c r="G400" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H400" t="s">
+        <v>523</v>
+      </c>
+      <c r="I400" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>56</v>
       </c>
-      <c r="C401" t="s">
+      <c r="B401" s="1"/>
+      <c r="C401" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D401" t="s">
+      <c r="D401" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="E401" t="s">
+      <c r="E401" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="F401" t="s">
+      <c r="F401" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G401">
+      <c r="G401" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H401" t="s">
+        <v>523</v>
+      </c>
+      <c r="I401" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>57</v>
       </c>
-      <c r="C402" t="s">
+      <c r="B402" s="1"/>
+      <c r="C402" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D402" t="s">
+      <c r="D402" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="E402" t="s">
+      <c r="E402" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="F402" t="s">
+      <c r="F402" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G402">
+      <c r="G402" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H402" t="s">
+        <v>523</v>
+      </c>
+      <c r="I402" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>58</v>
       </c>
-      <c r="C403" t="s">
+      <c r="B403" s="1"/>
+      <c r="C403" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D403" t="s">
+      <c r="D403" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="E403" t="s">
+      <c r="E403" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="F403" t="s">
+      <c r="F403" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G403">
+      <c r="G403" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H403" t="s">
+        <v>523</v>
+      </c>
+      <c r="I403" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>59</v>
       </c>
-      <c r="C404" t="s">
+      <c r="B404" s="1"/>
+      <c r="C404" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D404" t="s">
+      <c r="D404" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="E404" t="s">
+      <c r="E404" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="F404" t="s">
+      <c r="F404" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G404">
+      <c r="G404" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H404" t="s">
+        <v>523</v>
+      </c>
+      <c r="I404" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>60</v>
       </c>
-      <c r="C405" t="s">
+      <c r="B405" s="1"/>
+      <c r="C405" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D405" t="s">
+      <c r="D405" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="E405" t="s">
+      <c r="E405" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F405" t="s">
+      <c r="F405" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G405">
+      <c r="G405" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H405" t="s">
+        <v>523</v>
+      </c>
+      <c r="I405" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>61</v>
       </c>
-      <c r="C406" t="s">
+      <c r="B406" s="1"/>
+      <c r="C406" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D406" t="s">
+      <c r="D406" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="E406" t="s">
+      <c r="E406" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="F406" t="s">
+      <c r="F406" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G406">
+      <c r="G406" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H406" t="s">
+        <v>523</v>
+      </c>
+      <c r="I406" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>62</v>
       </c>
-      <c r="C407" t="s">
+      <c r="B407" s="1"/>
+      <c r="C407" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D407" t="s">
+      <c r="D407" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="E407" t="s">
+      <c r="E407" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="F407" t="s">
+      <c r="F407" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G407">
+      <c r="G407" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H407" t="s">
+        <v>523</v>
+      </c>
+      <c r="I407" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>63</v>
       </c>
-      <c r="C408" t="s">
+      <c r="B408" s="1"/>
+      <c r="C408" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D408" t="s">
+      <c r="D408" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="E408" t="s">
+      <c r="E408" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F408" t="s">
+      <c r="F408" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G408">
+      <c r="G408" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H408" t="s">
+        <v>523</v>
+      </c>
+      <c r="I408" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>64</v>
       </c>
-      <c r="C409" t="s">
+      <c r="B409" s="1"/>
+      <c r="C409" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D409" t="s">
+      <c r="D409" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="E409" t="s">
+      <c r="E409" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F409" t="s">
+      <c r="F409" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G409">
+      <c r="G409" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H409" t="s">
+        <v>523</v>
+      </c>
+      <c r="I409" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>128</v>
       </c>
@@ -11054,73 +12420,4 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DAE46A7-AF31-43E6-9805-C764FA4578B2}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E132">
-    <sortCondition descending="1" ref="C2:C132"/>
-    <sortCondition ref="A2:A132"/>
-    <sortCondition descending="1" ref="D2:D132"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B872839-222C-466B-967A-D7731715480A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D64">
-    <sortCondition ref="C2:C64"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133AC941-31A6-4D6C-BB51-FC17F6CBC679}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D86">
-    <sortCondition descending="1" ref="A1:A86"/>
-    <sortCondition descending="1" ref="C1:C86"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/acs/elections.xlsx
+++ b/acs/elections.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\User\Downloads\RA Work\acs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B69AA4-6861-4486-810B-739E408AE9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE24989-D7FB-4C2B-B59B-BED9DE2AC808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{6B2EB732-C0BF-4336-8C6B-FF3332FBF24E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6B2EB732-C0BF-4336-8C6B-FF3332FBF24E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2423" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2640" uniqueCount="562">
   <si>
     <t>filename</t>
   </si>
@@ -1677,6 +1677,51 @@
   </si>
   <si>
     <t>san_francisco_city_council_2022.csv</t>
+  </si>
+  <si>
+    <t>new_york_city_council_2021.csv</t>
+  </si>
+  <si>
+    <t>new york_tracts_2020.csv</t>
+  </si>
+  <si>
+    <t>burlington_city_council_2023.csv</t>
+  </si>
+  <si>
+    <t>vermont_tracts_2020.csv</t>
+  </si>
+  <si>
+    <t>maine_congressional_district_2011.csv</t>
+  </si>
+  <si>
+    <t>maine_congressional_district_2021.csv</t>
+  </si>
+  <si>
+    <t>maine_tracts_2010.csv</t>
+  </si>
+  <si>
+    <t>maine_tracts_2020.csv</t>
+  </si>
+  <si>
+    <t>maine_upper_districts_2020.csv</t>
+  </si>
+  <si>
+    <t>maine_lower_districts_2020.csv</t>
+  </si>
+  <si>
+    <t>las_cruces_city_council_2019.csv</t>
+  </si>
+  <si>
+    <t>new mexico_tracts_2010.csv</t>
+  </si>
+  <si>
+    <t>minneapolis_park_commissioner_2012.csv</t>
+  </si>
+  <si>
+    <t>oakland_city_council_2022.csv</t>
+  </si>
+  <si>
+    <t>place_code</t>
   </si>
 </sst>
 </file>
@@ -1692,7 +1737,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1711,6 +1756,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFD7B7B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1724,16 +1775,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFD7B7B"/>
+      <color rgb="FFFF5050"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2042,10 +2100,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022FCB54-8620-44BA-9E5B-DD50E1770DCA}">
-  <dimension ref="A1:I410"/>
+  <dimension ref="A1:J410"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B85" workbookViewId="0">
-      <selection activeCell="F104" sqref="F104"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2058,7 +2116,7 @@
     <col min="7" max="7" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2086,8 +2144,11 @@
       <c r="I1" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>203</v>
       </c>
@@ -2110,7 +2171,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>205</v>
       </c>
@@ -2133,7 +2194,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>206</v>
       </c>
@@ -2156,7 +2217,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>207</v>
       </c>
@@ -2179,7 +2240,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>208</v>
       </c>
@@ -2202,7 +2263,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>260</v>
       </c>
@@ -2225,7 +2286,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>261</v>
       </c>
@@ -2248,7 +2309,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>68</v>
       </c>
@@ -2269,7 +2330,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>70</v>
       </c>
@@ -2290,7 +2351,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>77</v>
       </c>
@@ -2311,7 +2372,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>90</v>
       </c>
@@ -2332,7 +2393,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>91</v>
       </c>
@@ -2353,7 +2414,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>102</v>
       </c>
@@ -2374,7 +2435,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>103</v>
       </c>
@@ -2395,7 +2456,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>104</v>
       </c>
@@ -4228,141 +4289,171 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="A94" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="D94" t="s">
-        <v>513</v>
-      </c>
-      <c r="E94" t="s">
+      <c r="D94" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E94" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="F94" t="s">
-        <v>71</v>
-      </c>
-      <c r="G94">
+      <c r="F94" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G94" s="1">
         <v>2023</v>
       </c>
+      <c r="H94" t="s">
+        <v>549</v>
+      </c>
+      <c r="I94" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="A95" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="D95" t="s">
-        <v>513</v>
-      </c>
-      <c r="E95" t="s">
+      <c r="D95" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E95" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="F95" t="s">
-        <v>71</v>
-      </c>
-      <c r="G95">
+      <c r="F95" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G95" s="1">
         <v>2023</v>
       </c>
+      <c r="H95" t="s">
+        <v>549</v>
+      </c>
+      <c r="I95" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="A96" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="D96" t="s">
-        <v>513</v>
-      </c>
-      <c r="E96" t="s">
+      <c r="D96" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E96" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="F96" t="s">
-        <v>71</v>
-      </c>
-      <c r="G96">
+      <c r="F96" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G96" s="1">
         <v>2023</v>
       </c>
+      <c r="H96" t="s">
+        <v>549</v>
+      </c>
+      <c r="I96" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="A97" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="D97" t="s">
-        <v>513</v>
-      </c>
-      <c r="E97">
+      <c r="D97" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E97" s="3">
         <v>9</v>
       </c>
-      <c r="F97" t="s">
-        <v>71</v>
-      </c>
-      <c r="G97">
+      <c r="F97" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G97" s="3">
         <v>2022</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="A98" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="D98" t="s">
-        <v>513</v>
-      </c>
-      <c r="E98">
+      <c r="D98" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E98" s="1">
         <v>2</v>
       </c>
-      <c r="F98" t="s">
-        <v>71</v>
-      </c>
-      <c r="G98">
+      <c r="F98" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G98" s="1">
         <v>2019</v>
       </c>
+      <c r="H98" t="s">
+        <v>557</v>
+      </c>
+      <c r="I98" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="A99" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="D99" t="s">
-        <v>513</v>
-      </c>
-      <c r="E99">
+      <c r="D99" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E99" s="1">
         <v>4</v>
       </c>
-      <c r="F99" t="s">
-        <v>71</v>
-      </c>
-      <c r="G99">
+      <c r="F99" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G99" s="1">
         <v>2019</v>
+      </c>
+      <c r="H99" t="s">
+        <v>557</v>
+      </c>
+      <c r="I99" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -5584,1222 +5675,1540 @@
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+      <c r="A142" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D142" t="s">
-        <v>513</v>
-      </c>
-      <c r="E142">
+      <c r="D142" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E142" s="1">
         <v>18</v>
       </c>
-      <c r="F142" t="s">
-        <v>71</v>
-      </c>
-      <c r="G142">
+      <c r="F142" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G142" s="1">
         <v>2021</v>
       </c>
+      <c r="H142" t="s">
+        <v>547</v>
+      </c>
+      <c r="I142" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+      <c r="A143" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D143" t="s">
-        <v>513</v>
-      </c>
-      <c r="E143">
+      <c r="D143" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E143" s="1">
         <v>10</v>
       </c>
-      <c r="F143" t="s">
-        <v>71</v>
-      </c>
-      <c r="G143">
+      <c r="F143" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G143" s="1">
         <v>2021</v>
       </c>
+      <c r="H143" t="s">
+        <v>547</v>
+      </c>
+      <c r="I143" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+      <c r="A144" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D144" t="s">
-        <v>513</v>
-      </c>
-      <c r="E144">
+      <c r="D144" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E144" s="1">
         <v>11</v>
       </c>
-      <c r="F144" t="s">
-        <v>71</v>
-      </c>
-      <c r="G144">
+      <c r="F144" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G144" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+      <c r="H144" t="s">
+        <v>547</v>
+      </c>
+      <c r="I144" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D145" t="s">
-        <v>513</v>
-      </c>
-      <c r="E145">
+      <c r="D145" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E145" s="1">
         <v>12</v>
       </c>
-      <c r="F145" t="s">
-        <v>71</v>
-      </c>
-      <c r="G145">
+      <c r="F145" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G145" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+      <c r="H145" t="s">
+        <v>547</v>
+      </c>
+      <c r="I145" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D146" t="s">
-        <v>513</v>
-      </c>
-      <c r="E146">
+      <c r="D146" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E146" s="1">
         <v>13</v>
       </c>
-      <c r="F146" t="s">
-        <v>71</v>
-      </c>
-      <c r="G146">
+      <c r="F146" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G146" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+      <c r="H146" t="s">
+        <v>547</v>
+      </c>
+      <c r="I146" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D147" t="s">
-        <v>513</v>
-      </c>
-      <c r="E147">
+      <c r="D147" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E147" s="1">
         <v>14</v>
       </c>
-      <c r="F147" t="s">
-        <v>71</v>
-      </c>
-      <c r="G147">
+      <c r="F147" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G147" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+      <c r="H147" t="s">
+        <v>547</v>
+      </c>
+      <c r="I147" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D148" t="s">
-        <v>513</v>
-      </c>
-      <c r="E148">
+      <c r="D148" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E148" s="1">
         <v>15</v>
       </c>
-      <c r="F148" t="s">
-        <v>71</v>
-      </c>
-      <c r="G148">
+      <c r="F148" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G148" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+      <c r="H148" t="s">
+        <v>547</v>
+      </c>
+      <c r="I148" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D149" t="s">
-        <v>513</v>
-      </c>
-      <c r="E149">
+      <c r="D149" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E149" s="1">
         <v>16</v>
       </c>
-      <c r="F149" t="s">
-        <v>71</v>
-      </c>
-      <c r="G149">
+      <c r="F149" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G149" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+      <c r="H149" t="s">
+        <v>547</v>
+      </c>
+      <c r="I149" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D150" t="s">
-        <v>513</v>
-      </c>
-      <c r="E150">
+      <c r="D150" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E150" s="1">
         <v>17</v>
       </c>
-      <c r="F150" t="s">
-        <v>71</v>
-      </c>
-      <c r="G150">
+      <c r="F150" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G150" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+      <c r="H150" t="s">
+        <v>547</v>
+      </c>
+      <c r="I150" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C151" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D151" t="s">
-        <v>513</v>
-      </c>
-      <c r="E151">
+      <c r="D151" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E151" s="1">
         <v>18</v>
       </c>
-      <c r="F151" t="s">
-        <v>71</v>
-      </c>
-      <c r="G151">
+      <c r="F151" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G151" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+      <c r="H151" t="s">
+        <v>547</v>
+      </c>
+      <c r="I151" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C152" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D152" t="s">
-        <v>513</v>
-      </c>
-      <c r="E152">
+      <c r="D152" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E152" s="1">
         <v>19</v>
       </c>
-      <c r="F152" t="s">
-        <v>71</v>
-      </c>
-      <c r="G152">
+      <c r="F152" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G152" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+      <c r="H152" t="s">
+        <v>547</v>
+      </c>
+      <c r="I152" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C153" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D153" t="s">
-        <v>513</v>
-      </c>
-      <c r="E153">
+      <c r="D153" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E153" s="1">
         <v>1</v>
       </c>
-      <c r="F153" t="s">
-        <v>71</v>
-      </c>
-      <c r="G153">
+      <c r="F153" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G153" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+      <c r="H153" t="s">
+        <v>547</v>
+      </c>
+      <c r="I153" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C154" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D154" t="s">
-        <v>513</v>
-      </c>
-      <c r="E154">
+      <c r="D154" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E154" s="1">
         <v>20</v>
       </c>
-      <c r="F154" t="s">
-        <v>71</v>
-      </c>
-      <c r="G154">
+      <c r="F154" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G154" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+      <c r="H154" t="s">
+        <v>547</v>
+      </c>
+      <c r="I154" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C155" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D155" t="s">
-        <v>513</v>
-      </c>
-      <c r="E155">
+      <c r="D155" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E155" s="1">
         <v>21</v>
       </c>
-      <c r="F155" t="s">
-        <v>71</v>
-      </c>
-      <c r="G155">
+      <c r="F155" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G155" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+      <c r="H155" t="s">
+        <v>547</v>
+      </c>
+      <c r="I155" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C156" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D156" t="s">
-        <v>513</v>
-      </c>
-      <c r="E156">
+      <c r="D156" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E156" s="1">
         <v>22</v>
       </c>
-      <c r="F156" t="s">
-        <v>71</v>
-      </c>
-      <c r="G156">
+      <c r="F156" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G156" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+      <c r="H156" t="s">
+        <v>547</v>
+      </c>
+      <c r="I156" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C157" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D157" t="s">
-        <v>513</v>
-      </c>
-      <c r="E157">
+      <c r="D157" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E157" s="1">
         <v>23</v>
       </c>
-      <c r="F157" t="s">
-        <v>71</v>
-      </c>
-      <c r="G157">
+      <c r="F157" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G157" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+      <c r="H157" t="s">
+        <v>547</v>
+      </c>
+      <c r="I157" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C158" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D158" t="s">
-        <v>513</v>
-      </c>
-      <c r="E158">
+      <c r="D158" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E158" s="1">
         <v>24</v>
       </c>
-      <c r="F158" t="s">
-        <v>71</v>
-      </c>
-      <c r="G158">
+      <c r="F158" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G158" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+      <c r="H158" t="s">
+        <v>547</v>
+      </c>
+      <c r="I158" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C159" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D159" t="s">
-        <v>513</v>
-      </c>
-      <c r="E159">
+      <c r="D159" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E159" s="1">
         <v>25</v>
       </c>
-      <c r="F159" t="s">
-        <v>71</v>
-      </c>
-      <c r="G159">
+      <c r="F159" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G159" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+      <c r="H159" t="s">
+        <v>547</v>
+      </c>
+      <c r="I159" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C160" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D160" t="s">
-        <v>513</v>
-      </c>
-      <c r="E160">
+      <c r="D160" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E160" s="1">
         <v>26</v>
       </c>
-      <c r="F160" t="s">
-        <v>71</v>
-      </c>
-      <c r="G160">
+      <c r="F160" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G160" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+      <c r="H160" t="s">
+        <v>547</v>
+      </c>
+      <c r="I160" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C161" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D161" t="s">
-        <v>513</v>
-      </c>
-      <c r="E161">
+      <c r="D161" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E161" s="1">
         <v>27</v>
       </c>
-      <c r="F161" t="s">
-        <v>71</v>
-      </c>
-      <c r="G161">
+      <c r="F161" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G161" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+      <c r="H161" t="s">
+        <v>547</v>
+      </c>
+      <c r="I161" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C162" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D162" t="s">
-        <v>513</v>
-      </c>
-      <c r="E162">
+      <c r="D162" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E162" s="1">
         <v>28</v>
       </c>
-      <c r="F162" t="s">
-        <v>71</v>
-      </c>
-      <c r="G162">
+      <c r="F162" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G162" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+      <c r="H162" t="s">
+        <v>547</v>
+      </c>
+      <c r="I162" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C163" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D163" t="s">
-        <v>513</v>
-      </c>
-      <c r="E163">
+      <c r="D163" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E163" s="1">
         <v>29</v>
       </c>
-      <c r="F163" t="s">
-        <v>71</v>
-      </c>
-      <c r="G163">
+      <c r="F163" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G163" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+      <c r="H163" t="s">
+        <v>547</v>
+      </c>
+      <c r="I163" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C164" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D164" t="s">
-        <v>513</v>
-      </c>
-      <c r="E164">
+      <c r="D164" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E164" s="1">
         <v>2</v>
       </c>
-      <c r="F164" t="s">
-        <v>71</v>
-      </c>
-      <c r="G164">
+      <c r="F164" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G164" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+      <c r="H164" t="s">
+        <v>547</v>
+      </c>
+      <c r="I164" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C165" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D165" t="s">
-        <v>513</v>
-      </c>
-      <c r="E165">
+      <c r="D165" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E165" s="1">
         <v>30</v>
       </c>
-      <c r="F165" t="s">
-        <v>71</v>
-      </c>
-      <c r="G165">
+      <c r="F165" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G165" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+      <c r="H165" t="s">
+        <v>547</v>
+      </c>
+      <c r="I165" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C166" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D166" t="s">
-        <v>513</v>
-      </c>
-      <c r="E166">
+      <c r="D166" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E166" s="1">
         <v>31</v>
       </c>
-      <c r="F166" t="s">
-        <v>71</v>
-      </c>
-      <c r="G166">
+      <c r="F166" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G166" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+      <c r="H166" t="s">
+        <v>547</v>
+      </c>
+      <c r="I166" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C167" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D167" t="s">
-        <v>513</v>
-      </c>
-      <c r="E167">
+      <c r="D167" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E167" s="1">
         <v>32</v>
       </c>
-      <c r="F167" t="s">
-        <v>71</v>
-      </c>
-      <c r="G167">
+      <c r="F167" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G167" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+      <c r="H167" t="s">
+        <v>547</v>
+      </c>
+      <c r="I167" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C168" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D168" t="s">
-        <v>513</v>
-      </c>
-      <c r="E168">
+      <c r="D168" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E168" s="1">
         <v>33</v>
       </c>
-      <c r="F168" t="s">
-        <v>71</v>
-      </c>
-      <c r="G168">
+      <c r="F168" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G168" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+      <c r="H168" t="s">
+        <v>547</v>
+      </c>
+      <c r="I168" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C169" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D169" t="s">
-        <v>513</v>
-      </c>
-      <c r="E169">
+      <c r="D169" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E169" s="1">
         <v>34</v>
       </c>
-      <c r="F169" t="s">
-        <v>71</v>
-      </c>
-      <c r="G169">
+      <c r="F169" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G169" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+      <c r="H169" t="s">
+        <v>547</v>
+      </c>
+      <c r="I169" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C170" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D170" t="s">
-        <v>513</v>
-      </c>
-      <c r="E170">
+      <c r="D170" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E170" s="1">
         <v>35</v>
       </c>
-      <c r="F170" t="s">
-        <v>71</v>
-      </c>
-      <c r="G170">
+      <c r="F170" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G170" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+      <c r="H170" t="s">
+        <v>547</v>
+      </c>
+      <c r="I170" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C171" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D171" t="s">
-        <v>513</v>
-      </c>
-      <c r="E171">
+      <c r="D171" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E171" s="1">
         <v>36</v>
       </c>
-      <c r="F171" t="s">
-        <v>71</v>
-      </c>
-      <c r="G171">
+      <c r="F171" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G171" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+      <c r="H171" t="s">
+        <v>547</v>
+      </c>
+      <c r="I171" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C172" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D172" t="s">
-        <v>513</v>
-      </c>
-      <c r="E172">
+      <c r="D172" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E172" s="1">
         <v>37</v>
       </c>
-      <c r="F172" t="s">
-        <v>71</v>
-      </c>
-      <c r="G172">
+      <c r="F172" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G172" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+      <c r="H172" t="s">
+        <v>547</v>
+      </c>
+      <c r="I172" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C173" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D173" t="s">
-        <v>513</v>
-      </c>
-      <c r="E173">
+      <c r="D173" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E173" s="1">
         <v>38</v>
       </c>
-      <c r="F173" t="s">
-        <v>71</v>
-      </c>
-      <c r="G173">
+      <c r="F173" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G173" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+      <c r="H173" t="s">
+        <v>547</v>
+      </c>
+      <c r="I173" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C174" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D174" t="s">
-        <v>513</v>
-      </c>
-      <c r="E174">
+      <c r="D174" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E174" s="1">
         <v>39</v>
       </c>
-      <c r="F174" t="s">
-        <v>71</v>
-      </c>
-      <c r="G174">
+      <c r="F174" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G174" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+      <c r="H174" t="s">
+        <v>547</v>
+      </c>
+      <c r="I174" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B175" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C175" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D175" t="s">
-        <v>513</v>
-      </c>
-      <c r="E175">
+      <c r="D175" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E175" s="1">
         <v>3</v>
       </c>
-      <c r="F175" t="s">
-        <v>71</v>
-      </c>
-      <c r="G175">
+      <c r="F175" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G175" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+      <c r="H175" t="s">
+        <v>547</v>
+      </c>
+      <c r="I175" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C176" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D176" t="s">
-        <v>513</v>
-      </c>
-      <c r="E176">
+      <c r="D176" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E176" s="1">
         <v>40</v>
       </c>
-      <c r="F176" t="s">
-        <v>71</v>
-      </c>
-      <c r="G176">
+      <c r="F176" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G176" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+      <c r="H176" t="s">
+        <v>547</v>
+      </c>
+      <c r="I176" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B177" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C177" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D177" t="s">
-        <v>513</v>
-      </c>
-      <c r="E177">
+      <c r="D177" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E177" s="1">
         <v>41</v>
       </c>
-      <c r="F177" t="s">
-        <v>71</v>
-      </c>
-      <c r="G177">
+      <c r="F177" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G177" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+      <c r="H177" t="s">
+        <v>547</v>
+      </c>
+      <c r="I177" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C178" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D178" t="s">
-        <v>513</v>
-      </c>
-      <c r="E178">
+      <c r="D178" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E178" s="1">
         <v>42</v>
       </c>
-      <c r="F178" t="s">
-        <v>71</v>
-      </c>
-      <c r="G178">
+      <c r="F178" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G178" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+      <c r="H178" t="s">
+        <v>547</v>
+      </c>
+      <c r="I178" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B179" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C179" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D179" t="s">
-        <v>513</v>
-      </c>
-      <c r="E179">
+      <c r="D179" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E179" s="1">
         <v>45</v>
       </c>
-      <c r="F179" t="s">
-        <v>71</v>
-      </c>
-      <c r="G179">
+      <c r="F179" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G179" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+      <c r="H179" t="s">
+        <v>547</v>
+      </c>
+      <c r="I179" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C180" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D180" t="s">
-        <v>513</v>
-      </c>
-      <c r="E180">
+      <c r="D180" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E180" s="1">
         <v>46</v>
       </c>
-      <c r="F180" t="s">
-        <v>71</v>
-      </c>
-      <c r="G180">
+      <c r="F180" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G180" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+      <c r="H180" t="s">
+        <v>547</v>
+      </c>
+      <c r="I180" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B181" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C181" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D181" t="s">
-        <v>513</v>
-      </c>
-      <c r="E181">
+      <c r="D181" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E181" s="1">
         <v>47</v>
       </c>
-      <c r="F181" t="s">
-        <v>71</v>
-      </c>
-      <c r="G181">
+      <c r="F181" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G181" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+      <c r="H181" t="s">
+        <v>547</v>
+      </c>
+      <c r="I181" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B182" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C182" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D182" t="s">
-        <v>513</v>
-      </c>
-      <c r="E182">
+      <c r="D182" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E182" s="1">
         <v>48</v>
       </c>
-      <c r="F182" t="s">
-        <v>71</v>
-      </c>
-      <c r="G182">
+      <c r="F182" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G182" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+      <c r="H182" t="s">
+        <v>547</v>
+      </c>
+      <c r="I182" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B183" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C183" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D183" t="s">
-        <v>513</v>
-      </c>
-      <c r="E183">
+      <c r="D183" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E183" s="1">
         <v>49</v>
       </c>
-      <c r="F183" t="s">
-        <v>71</v>
-      </c>
-      <c r="G183">
+      <c r="F183" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G183" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+      <c r="H183" t="s">
+        <v>547</v>
+      </c>
+      <c r="I183" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B184" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C184" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D184" t="s">
-        <v>513</v>
-      </c>
-      <c r="E184">
+      <c r="D184" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E184" s="1">
         <v>5</v>
       </c>
-      <c r="F184" t="s">
-        <v>71</v>
-      </c>
-      <c r="G184">
+      <c r="F184" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G184" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+      <c r="H184" t="s">
+        <v>547</v>
+      </c>
+      <c r="I184" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B185" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C185" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D185" t="s">
-        <v>513</v>
-      </c>
-      <c r="E185">
+      <c r="D185" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E185" s="1">
         <v>6</v>
       </c>
-      <c r="F185" t="s">
-        <v>71</v>
-      </c>
-      <c r="G185">
+      <c r="F185" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G185" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+      <c r="H185" t="s">
+        <v>547</v>
+      </c>
+      <c r="I185" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B186" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C186" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D186" t="s">
-        <v>513</v>
-      </c>
-      <c r="E186">
+      <c r="D186" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E186" s="1">
         <v>7</v>
       </c>
-      <c r="F186" t="s">
-        <v>71</v>
-      </c>
-      <c r="G186">
+      <c r="F186" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G186" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+      <c r="H186" t="s">
+        <v>547</v>
+      </c>
+      <c r="I186" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C187" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D187" t="s">
-        <v>513</v>
-      </c>
-      <c r="E187">
+      <c r="D187" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E187" s="1">
         <v>8</v>
       </c>
-      <c r="F187" t="s">
-        <v>71</v>
-      </c>
-      <c r="G187">
+      <c r="F187" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G187" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+      <c r="H187" t="s">
+        <v>547</v>
+      </c>
+      <c r="I187" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B188" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C188" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D188" t="s">
-        <v>513</v>
-      </c>
-      <c r="E188">
+      <c r="D188" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E188" s="1">
         <v>9</v>
       </c>
-      <c r="F188" t="s">
-        <v>71</v>
-      </c>
-      <c r="G188">
+      <c r="F188" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G188" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+      <c r="H188" t="s">
+        <v>547</v>
+      </c>
+      <c r="I188" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B189" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C189" t="s">
+      <c r="C189" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D189" t="s">
-        <v>513</v>
-      </c>
-      <c r="E189">
+      <c r="D189" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E189" s="1">
         <v>15</v>
       </c>
-      <c r="F189" t="s">
-        <v>71</v>
-      </c>
-      <c r="G189">
+      <c r="F189" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G189" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+      <c r="H189" t="s">
+        <v>547</v>
+      </c>
+      <c r="I189" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B190" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C190" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D190" t="s">
-        <v>513</v>
-      </c>
-      <c r="E190">
+      <c r="D190" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E190" s="1">
         <v>19</v>
       </c>
-      <c r="F190" t="s">
-        <v>71</v>
-      </c>
-      <c r="G190">
+      <c r="F190" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G190" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+      <c r="H190" t="s">
+        <v>547</v>
+      </c>
+      <c r="I190" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B191" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C191" t="s">
+      <c r="C191" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D191" t="s">
-        <v>513</v>
-      </c>
-      <c r="E191">
+      <c r="D191" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E191" s="1">
         <v>23</v>
       </c>
-      <c r="F191" t="s">
-        <v>71</v>
-      </c>
-      <c r="G191">
+      <c r="F191" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G191" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+      <c r="H191" t="s">
+        <v>547</v>
+      </c>
+      <c r="I191" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C192" t="s">
+      <c r="C192" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D192" t="s">
-        <v>513</v>
-      </c>
-      <c r="E192">
+      <c r="D192" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E192" s="1">
         <v>24</v>
       </c>
-      <c r="F192" t="s">
-        <v>71</v>
-      </c>
-      <c r="G192">
+      <c r="F192" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G192" s="1">
         <v>2021</v>
       </c>
+      <c r="H192" t="s">
+        <v>547</v>
+      </c>
+      <c r="I192" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+      <c r="A193" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C193" t="s">
+      <c r="C193" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D193" t="s">
-        <v>513</v>
-      </c>
-      <c r="E193">
+      <c r="D193" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E193" s="1">
         <v>32</v>
       </c>
-      <c r="F193" t="s">
-        <v>71</v>
-      </c>
-      <c r="G193">
+      <c r="F193" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G193" s="1">
         <v>2021</v>
       </c>
+      <c r="H193" t="s">
+        <v>547</v>
+      </c>
+      <c r="I193" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+      <c r="A194" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B194" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C194" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D194" t="s">
-        <v>513</v>
-      </c>
-      <c r="E194">
+      <c r="D194" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E194" s="1">
         <v>50</v>
       </c>
-      <c r="F194" t="s">
-        <v>71</v>
-      </c>
-      <c r="G194">
+      <c r="F194" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G194" s="1">
         <v>2021</v>
+      </c>
+      <c r="H194" t="s">
+        <v>547</v>
+      </c>
+      <c r="I194" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
@@ -7434,7 +7843,7 @@
         <v>2022</v>
       </c>
       <c r="H216" t="s">
-        <v>539</v>
+        <v>560</v>
       </c>
       <c r="I216" t="s">
         <v>540</v>
@@ -7463,7 +7872,7 @@
         <v>2022</v>
       </c>
       <c r="H217" t="s">
-        <v>539</v>
+        <v>560</v>
       </c>
       <c r="I217" t="s">
         <v>540</v>
@@ -8978,372 +9387,403 @@
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
+      <c r="A270" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="B270" t="s">
+      <c r="B270" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="C270" t="s">
+      <c r="C270" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="D270" t="s">
-        <v>513</v>
-      </c>
-      <c r="E270">
+      <c r="D270" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E270" s="3">
         <v>2</v>
       </c>
-      <c r="F270" t="s">
-        <v>71</v>
-      </c>
-      <c r="G270">
+      <c r="F270" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G270" s="3">
         <v>2018</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
+      <c r="A271" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="B271" t="s">
+      <c r="B271" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="C271" t="s">
+      <c r="C271" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="D271" t="s">
-        <v>513</v>
-      </c>
-      <c r="E271">
+      <c r="D271" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E271" s="3">
         <v>4</v>
       </c>
-      <c r="F271" t="s">
-        <v>71</v>
-      </c>
-      <c r="G271">
+      <c r="F271" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G271" s="3">
         <v>2018</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
+      <c r="A272" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="B272" t="s">
+      <c r="B272" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="C272" t="s">
+      <c r="C272" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="D272" t="s">
-        <v>513</v>
-      </c>
-      <c r="E272">
+      <c r="D272" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="E272" s="2">
         <v>2</v>
       </c>
-      <c r="F272" t="s">
-        <v>71</v>
-      </c>
-      <c r="G272">
+      <c r="F272" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G272" s="2">
         <v>2021</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
+      <c r="A273" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="B273" t="s">
+      <c r="B273" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="C273" t="s">
+      <c r="C273" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="D273" t="s">
-        <v>513</v>
-      </c>
-      <c r="E273" t="s">
+      <c r="D273" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E273" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="F273" t="s">
-        <v>71</v>
-      </c>
-      <c r="G273">
+      <c r="F273" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G273" s="3">
         <v>2021</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
+      <c r="A274" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="B274" t="s">
+      <c r="B274" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="C274" t="s">
+      <c r="C274" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="D274" t="s">
-        <v>513</v>
-      </c>
-      <c r="E274" t="s">
+      <c r="D274" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E274" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="F274" t="s">
-        <v>71</v>
-      </c>
-      <c r="G274">
+      <c r="F274" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G274" s="3">
         <v>2021</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
+      <c r="A275" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="B275" t="s">
+      <c r="B275" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="C275" t="s">
+      <c r="C275" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="D275" t="s">
-        <v>513</v>
-      </c>
-      <c r="E275">
+      <c r="D275" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E275" s="3">
         <v>1</v>
       </c>
-      <c r="F275" t="s">
-        <v>71</v>
-      </c>
-      <c r="G275">
+      <c r="F275" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G275" s="3">
         <v>2022</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
+      <c r="A276" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="B276" t="s">
+      <c r="B276" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="C276" t="s">
+      <c r="C276" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="D276" t="s">
-        <v>513</v>
-      </c>
-      <c r="E276">
+      <c r="D276" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E276" s="3">
         <v>3</v>
       </c>
-      <c r="F276" t="s">
-        <v>71</v>
-      </c>
-      <c r="G276">
+      <c r="F276" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G276" s="3">
         <v>2022</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
+      <c r="A277" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="B277" t="s">
+      <c r="B277" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="C277" t="s">
+      <c r="C277" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="D277" t="s">
-        <v>513</v>
-      </c>
-      <c r="E277">
+      <c r="D277" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E277" s="3">
         <v>5</v>
       </c>
-      <c r="F277" t="s">
-        <v>71</v>
-      </c>
-      <c r="G277">
+      <c r="F277" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G277" s="3">
         <v>2022</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
+      <c r="A278" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="B278" t="s">
+      <c r="B278" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="C278" t="s">
+      <c r="C278" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="D278" t="s">
-        <v>513</v>
-      </c>
-      <c r="E278">
+      <c r="D278" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E278" s="3">
         <v>6</v>
       </c>
-      <c r="F278" t="s">
-        <v>71</v>
-      </c>
-      <c r="G278">
+      <c r="F278" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G278" s="3">
         <v>2022</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
+      <c r="A279" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C279" t="s">
+      <c r="B279" s="1"/>
+      <c r="C279" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="D279" t="s">
+      <c r="D279" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="E279">
+      <c r="E279" s="1">
         <v>2</v>
       </c>
-      <c r="F279" t="s">
+      <c r="F279" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G279">
+      <c r="G279" s="1">
         <v>2018</v>
       </c>
+      <c r="H279" t="s">
+        <v>551</v>
+      </c>
+      <c r="I279" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
+      <c r="A280" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C280" t="s">
+      <c r="B280" s="1"/>
+      <c r="C280" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="D280" t="s">
+      <c r="D280" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="E280">
+      <c r="E280" s="1">
         <v>2</v>
       </c>
-      <c r="F280" t="s">
+      <c r="F280" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G280">
+      <c r="G280" s="1">
         <v>2020</v>
       </c>
+      <c r="H280" t="s">
+        <v>551</v>
+      </c>
+      <c r="I280" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
+      <c r="A281" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C281" t="s">
+      <c r="B281" s="1"/>
+      <c r="C281" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="D281" t="s">
+      <c r="D281" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="E281">
+      <c r="E281" s="1">
         <v>2</v>
       </c>
-      <c r="F281" t="s">
+      <c r="F281" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G281">
+      <c r="G281" s="1">
         <v>2018</v>
       </c>
+      <c r="H281" t="s">
+        <v>551</v>
+      </c>
+      <c r="I281" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
+      <c r="A282" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C282" t="s">
+      <c r="B282" s="1"/>
+      <c r="C282" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="D282" t="s">
+      <c r="D282" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="E282">
+      <c r="E282" s="1">
         <v>2</v>
       </c>
-      <c r="F282" t="s">
+      <c r="F282" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G282">
+      <c r="G282" s="1">
         <v>2022</v>
       </c>
+      <c r="H282" t="s">
+        <v>552</v>
+      </c>
+      <c r="I282" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
+      <c r="A283" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B283" t="s">
+      <c r="B283" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="C283" t="s">
+      <c r="C283" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="D283" t="s">
+      <c r="D283" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="F283" t="s">
+      <c r="E283" s="2"/>
+      <c r="F283" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G283">
+      <c r="G283" s="2">
         <v>2009</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
+      <c r="A284" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B284" t="s">
+      <c r="B284" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="C284" t="s">
+      <c r="C284" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="D284" t="s">
+      <c r="D284" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="F284" t="s">
+      <c r="E284" s="2"/>
+      <c r="F284" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="G284">
+      <c r="G284" s="2">
         <v>2008</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
+      <c r="A285" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B285" t="s">
+      <c r="B285" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="C285" t="s">
+      <c r="C285" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="D285" t="s">
+      <c r="D285" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="F285" t="s">
+      <c r="E285" s="2"/>
+      <c r="F285" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G285">
+      <c r="G285" s="2">
         <v>2008</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
+      <c r="A286" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="B286" t="s">
+      <c r="B286" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="C286" t="s">
+      <c r="C286" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="D286" t="s">
+      <c r="D286" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="E286">
+      <c r="E286" s="3">
         <v>2</v>
       </c>
-      <c r="F286" t="s">
+      <c r="F286" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="G286">
+      <c r="G286" s="3">
         <v>2008</v>
       </c>
     </row>
@@ -9696,7 +10136,7 @@
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
+      <c r="A299" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B299" s="1"/>
@@ -9723,7 +10163,7 @@
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
+      <c r="A300" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B300" s="1"/>
@@ -9750,7 +10190,7 @@
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
+      <c r="A301" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B301" s="1"/>
@@ -9777,7 +10217,7 @@
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
+      <c r="A302" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B302" s="1"/>
@@ -9804,7 +10244,7 @@
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
+      <c r="A303" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B303" s="1"/>
@@ -9831,7 +10271,7 @@
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
+      <c r="A304" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B304" s="1"/>
@@ -9858,7 +10298,7 @@
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A305" t="s">
+      <c r="A305" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B305" s="1"/>
@@ -9885,7 +10325,7 @@
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
+      <c r="A306" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B306" s="1"/>
@@ -9912,7 +10352,7 @@
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
+      <c r="A307" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B307" s="1"/>
@@ -9939,7 +10379,7 @@
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
+      <c r="A308" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B308" s="1"/>
@@ -9966,7 +10406,7 @@
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
+      <c r="A309" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B309" s="1"/>
@@ -9993,7 +10433,7 @@
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
+      <c r="A310" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B310" s="1"/>
@@ -10020,7 +10460,7 @@
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
+      <c r="A311" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B311" s="1"/>
@@ -10047,7 +10487,7 @@
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
+      <c r="A312" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B312" s="1"/>
@@ -10074,7 +10514,7 @@
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
+      <c r="A313" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B313" s="1"/>
@@ -10101,7 +10541,7 @@
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A314" t="s">
+      <c r="A314" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B314" s="1"/>
@@ -10128,7 +10568,7 @@
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A315" t="s">
+      <c r="A315" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B315" s="1"/>
@@ -10155,7 +10595,7 @@
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
+      <c r="A316" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B316" s="1"/>
@@ -10182,7 +10622,7 @@
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A317" t="s">
+      <c r="A317" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B317" s="1"/>
@@ -10209,7 +10649,7 @@
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A318" t="s">
+      <c r="A318" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B318" s="1"/>
@@ -10236,7 +10676,7 @@
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A319" t="s">
+      <c r="A319" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B319" s="1"/>
@@ -10263,7 +10703,7 @@
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A320" t="s">
+      <c r="A320" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B320" s="1"/>
@@ -10290,7 +10730,7 @@
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A321" t="s">
+      <c r="A321" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B321" s="1"/>
@@ -10317,7 +10757,7 @@
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A322" t="s">
+      <c r="A322" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B322" s="1"/>
@@ -10344,7 +10784,7 @@
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
+      <c r="A323" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B323" s="1"/>
@@ -10371,7 +10811,7 @@
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A324" t="s">
+      <c r="A324" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B324" s="1"/>
@@ -10398,7 +10838,7 @@
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
+      <c r="A325" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B325" s="1"/>
@@ -10425,7 +10865,7 @@
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A326" t="s">
+      <c r="A326" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B326" s="1"/>
@@ -10452,7 +10892,7 @@
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A327" t="s">
+      <c r="A327" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B327" s="1"/>
@@ -10479,7 +10919,7 @@
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A328" t="s">
+      <c r="A328" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B328" s="1"/>
@@ -10506,7 +10946,7 @@
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A329" t="s">
+      <c r="A329" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B329" s="1"/>
@@ -10533,7 +10973,7 @@
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A330" t="s">
+      <c r="A330" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B330" s="1"/>
@@ -10560,7 +11000,7 @@
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A331" t="s">
+      <c r="A331" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B331" s="1"/>
@@ -10587,7 +11027,7 @@
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A332" t="s">
+      <c r="A332" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B332" s="1"/>
@@ -10614,86 +11054,114 @@
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A333" t="s">
+      <c r="A333" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C333" t="s">
+      <c r="B333" s="1"/>
+      <c r="C333" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="D333" t="s">
+      <c r="D333" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E333">
+      <c r="E333" s="1">
         <v>41</v>
       </c>
-      <c r="F333" t="s">
+      <c r="F333" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G333">
+      <c r="G333" s="1">
         <v>2020</v>
       </c>
+      <c r="H333" t="s">
+        <v>556</v>
+      </c>
+      <c r="I333" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A334" t="s">
+      <c r="A334" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C334" t="s">
+      <c r="B334" s="1"/>
+      <c r="C334" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="D334" t="s">
+      <c r="D334" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E334">
+      <c r="E334" s="1">
         <v>47</v>
       </c>
-      <c r="F334" t="s">
+      <c r="F334" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G334">
+      <c r="G334" s="1">
         <v>2020</v>
       </c>
+      <c r="H334" t="s">
+        <v>556</v>
+      </c>
+      <c r="I334" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A335" t="s">
+      <c r="A335" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C335" t="s">
+      <c r="B335" s="1"/>
+      <c r="C335" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="D335" t="s">
+      <c r="D335" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E335">
+      <c r="E335" s="1">
         <v>49</v>
       </c>
-      <c r="F335" t="s">
+      <c r="F335" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G335">
+      <c r="G335" s="1">
         <v>2020</v>
       </c>
+      <c r="H335" t="s">
+        <v>556</v>
+      </c>
+      <c r="I335" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A336" t="s">
+      <c r="A336" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C336" t="s">
+      <c r="B336" s="1"/>
+      <c r="C336" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="D336" t="s">
+      <c r="D336" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E336">
+      <c r="E336" s="1">
         <v>90</v>
       </c>
-      <c r="F336" t="s">
+      <c r="F336" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G336">
+      <c r="G336" s="1">
         <v>2020</v>
       </c>
-    </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H336" t="s">
+        <v>556</v>
+      </c>
+      <c r="I336" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
         <v>343</v>
       </c>
@@ -10714,7 +11182,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
         <v>355</v>
       </c>
@@ -10735,950 +11203,1196 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A339" t="s">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B339" t="s">
+      <c r="B339" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C339" t="s">
+      <c r="C339" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D339" t="s">
+      <c r="D339" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="E339">
+      <c r="E339" s="1">
         <v>2</v>
       </c>
-      <c r="F339" t="s">
+      <c r="F339" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G339">
+      <c r="G339" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A340" t="s">
+      <c r="H339" t="s">
+        <v>559</v>
+      </c>
+      <c r="I339" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B340" t="s">
+      <c r="B340" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C340" t="s">
+      <c r="C340" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D340" t="s">
+      <c r="D340" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="E340">
+      <c r="E340" s="1">
         <v>3</v>
       </c>
-      <c r="F340" t="s">
+      <c r="F340" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G340">
+      <c r="G340" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A341" t="s">
+      <c r="H340" t="s">
+        <v>559</v>
+      </c>
+      <c r="I340" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B341" t="s">
+      <c r="B341" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C341" t="s">
+      <c r="C341" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D341" t="s">
+      <c r="D341" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="E341">
+      <c r="E341" s="1">
         <v>4</v>
       </c>
-      <c r="F341" t="s">
+      <c r="F341" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G341">
+      <c r="G341" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A342" t="s">
+      <c r="H341" t="s">
+        <v>559</v>
+      </c>
+      <c r="I341" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B342" t="s">
+      <c r="B342" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C342" t="s">
+      <c r="C342" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D342" t="s">
+      <c r="D342" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="E342">
+      <c r="E342" s="1">
         <v>5</v>
       </c>
-      <c r="F342" t="s">
+      <c r="F342" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G342">
+      <c r="G342" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A343" t="s">
+      <c r="H342" t="s">
+        <v>559</v>
+      </c>
+      <c r="I342" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B343" t="s">
+      <c r="B343" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C343" t="s">
+      <c r="C343" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D343" t="s">
+      <c r="D343" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="E343">
+      <c r="E343" s="1">
         <v>6</v>
       </c>
-      <c r="F343" t="s">
+      <c r="F343" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G343">
+      <c r="G343" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A344" t="s">
+      <c r="H343" t="s">
+        <v>559</v>
+      </c>
+      <c r="I343" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B344" t="s">
+      <c r="B344" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C344" t="s">
+      <c r="C344" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D344" t="s">
+      <c r="D344" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="E344">
+      <c r="E344" s="1">
         <v>2</v>
       </c>
-      <c r="F344" t="s">
+      <c r="F344" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G344">
+      <c r="G344" s="1">
         <v>2013</v>
       </c>
-    </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A345" t="s">
+      <c r="H344" t="s">
+        <v>559</v>
+      </c>
+      <c r="I344" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B345" t="s">
+      <c r="B345" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C345" t="s">
+      <c r="C345" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D345" t="s">
+      <c r="D345" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="E345">
+      <c r="E345" s="1">
         <v>6</v>
       </c>
-      <c r="F345" t="s">
+      <c r="F345" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G345">
+      <c r="G345" s="1">
         <v>2013</v>
       </c>
-    </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A346" t="s">
+      <c r="H345" t="s">
+        <v>559</v>
+      </c>
+      <c r="I345" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B346" t="s">
+      <c r="B346" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C346" t="s">
+      <c r="C346" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D346" t="s">
+      <c r="D346" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="E346">
+      <c r="E346" s="1">
         <v>1</v>
       </c>
-      <c r="F346" t="s">
+      <c r="F346" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G346">
+      <c r="G346" s="1">
         <v>2009</v>
       </c>
-    </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A347" t="s">
+      <c r="H346" t="s">
+        <v>559</v>
+      </c>
+      <c r="I346" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B347" t="s">
+      <c r="B347" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C347" t="s">
+      <c r="C347" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D347" t="s">
+      <c r="D347" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="E347">
+      <c r="E347" s="1">
         <v>2</v>
       </c>
-      <c r="F347" t="s">
+      <c r="F347" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G347">
+      <c r="G347" s="1">
         <v>2009</v>
       </c>
-    </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A348" t="s">
+      <c r="H347" t="s">
+        <v>559</v>
+      </c>
+      <c r="I347" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B348" t="s">
+      <c r="B348" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C348" t="s">
+      <c r="C348" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D348" t="s">
+      <c r="D348" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="E348">
+      <c r="E348" s="1">
         <v>3</v>
       </c>
-      <c r="F348" t="s">
+      <c r="F348" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G348">
+      <c r="G348" s="1">
         <v>2009</v>
       </c>
-    </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A349" t="s">
+      <c r="H348" t="s">
+        <v>559</v>
+      </c>
+      <c r="I348" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A349" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B349" t="s">
+      <c r="B349" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C349" t="s">
+      <c r="C349" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D349" t="s">
+      <c r="D349" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="E349">
+      <c r="E349" s="1">
         <v>5</v>
       </c>
-      <c r="F349" t="s">
+      <c r="F349" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G349">
+      <c r="G349" s="1">
         <v>2009</v>
       </c>
-    </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A350" t="s">
+      <c r="H349" t="s">
+        <v>559</v>
+      </c>
+      <c r="I349" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B350" t="s">
+      <c r="B350" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C350" t="s">
+      <c r="C350" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D350" t="s">
+      <c r="D350" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="E350">
+      <c r="E350" s="1">
         <v>6</v>
       </c>
-      <c r="F350" t="s">
+      <c r="F350" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G350">
+      <c r="G350" s="1">
         <v>2009</v>
       </c>
-    </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A351" t="s">
+      <c r="H350" t="s">
+        <v>559</v>
+      </c>
+      <c r="I350" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B351" t="s">
+      <c r="B351" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C351" t="s">
+      <c r="C351" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D351" t="s">
+      <c r="D351" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="E351">
+      <c r="E351" s="1">
         <v>1</v>
       </c>
-      <c r="F351" t="s">
+      <c r="F351" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G351">
+      <c r="G351" s="1">
         <v>2017</v>
       </c>
-    </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A352" t="s">
+      <c r="H351" t="s">
+        <v>559</v>
+      </c>
+      <c r="I351" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B352" t="s">
+      <c r="B352" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C352" t="s">
+      <c r="C352" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D352" t="s">
+      <c r="D352" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="E352">
+      <c r="E352" s="1">
         <v>2</v>
       </c>
-      <c r="F352" t="s">
+      <c r="F352" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G352">
+      <c r="G352" s="1">
         <v>2017</v>
       </c>
-    </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A353" t="s">
+      <c r="H352" t="s">
+        <v>559</v>
+      </c>
+      <c r="I352" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A353" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B353" t="s">
+      <c r="B353" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C353" t="s">
+      <c r="C353" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D353" t="s">
+      <c r="D353" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="E353">
+      <c r="E353" s="1">
         <v>3</v>
       </c>
-      <c r="F353" t="s">
+      <c r="F353" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G353">
+      <c r="G353" s="1">
         <v>2017</v>
       </c>
-    </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A354" t="s">
+      <c r="H353" t="s">
+        <v>559</v>
+      </c>
+      <c r="I353" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A354" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B354" t="s">
+      <c r="B354" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C354" t="s">
+      <c r="C354" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D354" t="s">
+      <c r="D354" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="E354">
+      <c r="E354" s="1">
         <v>4</v>
       </c>
-      <c r="F354" t="s">
+      <c r="F354" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G354">
+      <c r="G354" s="1">
         <v>2017</v>
       </c>
-    </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A355" t="s">
+      <c r="H354" t="s">
+        <v>559</v>
+      </c>
+      <c r="I354" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A355" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B355" t="s">
+      <c r="B355" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C355" t="s">
+      <c r="C355" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D355" t="s">
+      <c r="D355" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="E355">
+      <c r="E355" s="1">
         <v>5</v>
       </c>
-      <c r="F355" t="s">
+      <c r="F355" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G355">
+      <c r="G355" s="1">
         <v>2017</v>
       </c>
-    </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A356" t="s">
+      <c r="H355" t="s">
+        <v>559</v>
+      </c>
+      <c r="I355" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B356" t="s">
+      <c r="B356" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C356" t="s">
+      <c r="C356" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D356" t="s">
+      <c r="D356" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="E356">
+      <c r="E356" s="1">
         <v>6</v>
       </c>
-      <c r="F356" t="s">
+      <c r="F356" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G356">
+      <c r="G356" s="1">
         <v>2017</v>
       </c>
-    </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A357" t="s">
+      <c r="H356" t="s">
+        <v>559</v>
+      </c>
+      <c r="I356" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A357" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B357" t="s">
+      <c r="B357" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="C357" t="s">
+      <c r="C357" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="D357" t="s">
+      <c r="D357" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="E357">
+      <c r="E357" s="1">
         <v>5</v>
       </c>
-      <c r="F357" t="s">
+      <c r="F357" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G357">
+      <c r="G357" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A358" t="s">
+      <c r="H357" t="s">
+        <v>560</v>
+      </c>
+      <c r="I357" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A358" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B358" t="s">
+      <c r="B358" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="C358" t="s">
+      <c r="C358" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="D358" t="s">
+      <c r="D358" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="E358">
+      <c r="E358" s="1">
         <v>3</v>
       </c>
-      <c r="F358" t="s">
+      <c r="F358" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G358">
+      <c r="G358" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A359" t="s">
+      <c r="H358" t="s">
+        <v>560</v>
+      </c>
+      <c r="I358" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A359" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B359" t="s">
+      <c r="B359" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C359" t="s">
-        <v>446</v>
-      </c>
-      <c r="D359" t="s">
+      <c r="C359" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D359" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="E359">
+      <c r="E359" s="1">
         <v>4</v>
       </c>
-      <c r="F359" t="s">
+      <c r="F359" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="G359">
+      <c r="G359" s="1">
         <v>2010</v>
       </c>
-    </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A360" t="s">
+      <c r="H359" t="s">
+        <v>537</v>
+      </c>
+      <c r="I359" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A360" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B360" t="s">
+      <c r="B360" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C360" t="s">
-        <v>446</v>
-      </c>
-      <c r="D360" t="s">
+      <c r="C360" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D360" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="E360">
+      <c r="E360" s="1">
         <v>1</v>
       </c>
-      <c r="F360" t="s">
+      <c r="F360" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="G360">
+      <c r="G360" s="1">
         <v>2020</v>
       </c>
-    </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A361" t="s">
+      <c r="H360" t="s">
+        <v>539</v>
+      </c>
+      <c r="I360" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B361" t="s">
+      <c r="B361" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C361" t="s">
-        <v>446</v>
-      </c>
-      <c r="D361" t="s">
+      <c r="C361" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D361" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="E361">
+      <c r="E361" s="1">
         <v>3</v>
       </c>
-      <c r="F361" t="s">
+      <c r="F361" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="G361">
+      <c r="G361" s="1">
         <v>2020</v>
       </c>
-    </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A362" t="s">
+      <c r="H361" t="s">
+        <v>539</v>
+      </c>
+      <c r="I361" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A362" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B362" t="s">
+      <c r="B362" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C362" t="s">
-        <v>446</v>
-      </c>
-      <c r="D362" t="s">
+      <c r="C362" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D362" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="E362">
+      <c r="E362" s="1">
         <v>5</v>
       </c>
-      <c r="F362" t="s">
+      <c r="F362" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="G362">
+      <c r="G362" s="1">
         <v>2020</v>
       </c>
-    </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A363" t="s">
+      <c r="H362" t="s">
+        <v>539</v>
+      </c>
+      <c r="I362" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A363" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B363" t="s">
+      <c r="B363" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C363" t="s">
-        <v>446</v>
-      </c>
-      <c r="D363" t="s">
+      <c r="C363" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D363" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="E363">
+      <c r="E363" s="1">
         <v>7</v>
       </c>
-      <c r="F363" t="s">
+      <c r="F363" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="G363">
+      <c r="G363" s="1">
         <v>2020</v>
       </c>
-    </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A364" t="s">
+      <c r="H363" t="s">
+        <v>539</v>
+      </c>
+      <c r="I363" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A364" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B364" t="s">
+      <c r="B364" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C364" t="s">
-        <v>446</v>
-      </c>
-      <c r="D364" t="s">
+      <c r="C364" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D364" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="E364">
+      <c r="E364" s="1">
         <v>2</v>
       </c>
-      <c r="F364" t="s">
+      <c r="F364" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="G364">
+      <c r="G364" s="1">
         <v>2014</v>
       </c>
-    </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A365" t="s">
+      <c r="H364" t="s">
+        <v>539</v>
+      </c>
+      <c r="I364" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A365" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B365" t="s">
+      <c r="B365" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C365" t="s">
-        <v>446</v>
-      </c>
-      <c r="D365" t="s">
+      <c r="C365" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D365" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="E365">
+      <c r="E365" s="1">
         <v>4</v>
       </c>
-      <c r="F365" t="s">
+      <c r="F365" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="G365">
+      <c r="G365" s="1">
         <v>2014</v>
       </c>
-    </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A366" t="s">
+      <c r="H365" t="s">
+        <v>539</v>
+      </c>
+      <c r="I365" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A366" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B366" t="s">
+      <c r="B366" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C366" t="s">
-        <v>446</v>
-      </c>
-      <c r="D366" t="s">
+      <c r="C366" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D366" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="E366">
+      <c r="E366" s="1">
         <v>6</v>
       </c>
-      <c r="F366" t="s">
+      <c r="F366" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="G366">
+      <c r="G366" s="1">
         <v>2014</v>
       </c>
-    </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A367" t="s">
+      <c r="H366" t="s">
+        <v>539</v>
+      </c>
+      <c r="I366" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A367" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B367" t="s">
+      <c r="B367" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C367" t="s">
-        <v>446</v>
-      </c>
-      <c r="D367" t="s">
+      <c r="C367" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D367" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="E367">
+      <c r="E367" s="1">
         <v>1</v>
       </c>
-      <c r="F367" t="s">
+      <c r="F367" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="G367">
+      <c r="G367" s="1">
         <v>2012</v>
       </c>
-    </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A368" t="s">
+      <c r="H367" t="s">
+        <v>537</v>
+      </c>
+      <c r="I367" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A368" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B368" t="s">
+      <c r="B368" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C368" t="s">
-        <v>446</v>
-      </c>
-      <c r="D368" t="s">
+      <c r="C368" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D368" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="E368">
+      <c r="E368" s="1">
         <v>3</v>
       </c>
-      <c r="F368" t="s">
+      <c r="F368" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="G368">
+      <c r="G368" s="1">
         <v>2012</v>
       </c>
-    </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A369" t="s">
+      <c r="H368" t="s">
+        <v>537</v>
+      </c>
+      <c r="I368" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A369" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B369" t="s">
+      <c r="B369" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C369" t="s">
-        <v>446</v>
-      </c>
-      <c r="D369" t="s">
+      <c r="C369" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D369" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="E369">
+      <c r="E369" s="1">
         <v>5</v>
       </c>
-      <c r="F369" t="s">
+      <c r="F369" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="G369">
+      <c r="G369" s="1">
         <v>2012</v>
       </c>
-    </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A370" t="s">
+      <c r="H369" t="s">
+        <v>537</v>
+      </c>
+      <c r="I369" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A370" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B370" t="s">
+      <c r="B370" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C370" t="s">
-        <v>446</v>
-      </c>
-      <c r="D370" t="s">
+      <c r="C370" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D370" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="E370">
+      <c r="E370" s="1">
         <v>7</v>
       </c>
-      <c r="F370" t="s">
+      <c r="F370" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="G370">
+      <c r="G370" s="1">
         <v>2012</v>
       </c>
-    </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A371" t="s">
+      <c r="H370" t="s">
+        <v>537</v>
+      </c>
+      <c r="I370" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A371" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B371" t="s">
+      <c r="B371" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C371" t="s">
-        <v>446</v>
-      </c>
-      <c r="D371" t="s">
+      <c r="C371" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D371" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="E371">
+      <c r="E371" s="1">
         <v>4</v>
       </c>
-      <c r="F371" t="s">
+      <c r="F371" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="G371">
+      <c r="G371" s="1">
         <v>2018</v>
       </c>
-    </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A372" t="s">
+      <c r="H371" t="s">
+        <v>539</v>
+      </c>
+      <c r="I371" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A372" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B372" t="s">
+      <c r="B372" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C372" t="s">
-        <v>446</v>
-      </c>
-      <c r="D372" t="s">
+      <c r="C372" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D372" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="E372">
+      <c r="E372" s="1">
         <v>6</v>
       </c>
-      <c r="F372" t="s">
+      <c r="F372" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="G372">
+      <c r="G372" s="1">
         <v>2018</v>
       </c>
-    </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A373" t="s">
+      <c r="H372" t="s">
+        <v>539</v>
+      </c>
+      <c r="I372" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A373" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B373" t="s">
+      <c r="B373" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C373" t="s">
-        <v>446</v>
-      </c>
-      <c r="D373" t="s">
+      <c r="C373" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D373" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="E373">
+      <c r="E373" s="1">
         <v>1</v>
       </c>
-      <c r="F373" t="s">
+      <c r="F373" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="G373">
+      <c r="G373" s="1">
         <v>2016</v>
       </c>
-    </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A374" t="s">
+      <c r="H373" t="s">
+        <v>539</v>
+      </c>
+      <c r="I373" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A374" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B374" t="s">
+      <c r="B374" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C374" t="s">
-        <v>446</v>
-      </c>
-      <c r="D374" t="s">
+      <c r="C374" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D374" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="E374">
+      <c r="E374" s="1">
         <v>3</v>
       </c>
-      <c r="F374" t="s">
+      <c r="F374" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="G374">
+      <c r="G374" s="1">
         <v>2016</v>
       </c>
-    </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A375" t="s">
+      <c r="H374" t="s">
+        <v>539</v>
+      </c>
+      <c r="I374" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A375" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B375" t="s">
+      <c r="B375" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C375" t="s">
-        <v>446</v>
-      </c>
-      <c r="D375" t="s">
+      <c r="C375" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D375" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="E375">
+      <c r="E375" s="1">
         <v>5</v>
       </c>
-      <c r="F375" t="s">
+      <c r="F375" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="G375">
+      <c r="G375" s="1">
         <v>2016</v>
       </c>
-    </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A376" t="s">
+      <c r="H375" t="s">
+        <v>539</v>
+      </c>
+      <c r="I375" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A376" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B376" t="s">
+      <c r="B376" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C376" t="s">
-        <v>446</v>
-      </c>
-      <c r="D376" t="s">
+      <c r="C376" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D376" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="E376">
+      <c r="E376" s="1">
         <v>7</v>
       </c>
-      <c r="F376" t="s">
+      <c r="F376" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="G376">
+      <c r="G376" s="1">
         <v>2016</v>
       </c>
-    </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A377" t="s">
+      <c r="H376" t="s">
+        <v>539</v>
+      </c>
+      <c r="I376" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A377" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B377" t="s">
+      <c r="B377" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C377" t="s">
-        <v>446</v>
-      </c>
-      <c r="D377" t="s">
+      <c r="C377" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D377" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="E377">
+      <c r="E377" s="1">
         <v>2</v>
       </c>
-      <c r="F377" t="s">
+      <c r="F377" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="G377">
+      <c r="G377" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A378" t="s">
+      <c r="H377" t="s">
+        <v>560</v>
+      </c>
+      <c r="I377" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A378" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B378" t="s">
+      <c r="B378" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C378" t="s">
-        <v>446</v>
-      </c>
-      <c r="D378" t="s">
+      <c r="C378" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D378" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="E378">
+      <c r="E378" s="1">
         <v>4</v>
       </c>
-      <c r="F378" t="s">
+      <c r="F378" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="G378">
+      <c r="G378" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A379" t="s">
+      <c r="H378" t="s">
+        <v>560</v>
+      </c>
+      <c r="I378" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A379" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B379" t="s">
+      <c r="B379" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C379" t="s">
-        <v>446</v>
-      </c>
-      <c r="D379" t="s">
+      <c r="C379" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D379" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="E379">
+      <c r="E379" s="1">
         <v>6</v>
       </c>
-      <c r="F379" t="s">
+      <c r="F379" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="G379">
+      <c r="G379" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H379" t="s">
+        <v>560</v>
+      </c>
+      <c r="I379" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
         <v>356</v>
       </c>
@@ -11699,7 +12413,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
         <v>3</v>
       </c>
@@ -11718,7 +12432,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
         <v>5</v>
       </c>
@@ -11737,7 +12451,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
         <v>8</v>
       </c>
@@ -11756,7 +12470,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
         <v>65</v>
       </c>
@@ -11909,7 +12623,7 @@
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A392" t="s">
+      <c r="A392" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B392" s="1"/>
@@ -11936,7 +12650,7 @@
       </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A393" t="s">
+      <c r="A393" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B393" s="1"/>
@@ -11963,7 +12677,7 @@
       </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A394" t="s">
+      <c r="A394" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B394" s="1"/>
@@ -11990,7 +12704,7 @@
       </c>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A395" t="s">
+      <c r="A395" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B395" s="1"/>
@@ -12017,7 +12731,7 @@
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A396" t="s">
+      <c r="A396" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B396" s="1"/>
@@ -12044,7 +12758,7 @@
       </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A397" t="s">
+      <c r="A397" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B397" s="1"/>
@@ -12071,7 +12785,7 @@
       </c>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A398" t="s">
+      <c r="A398" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B398" s="1"/>
@@ -12098,7 +12812,7 @@
       </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A399" t="s">
+      <c r="A399" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B399" s="1"/>
@@ -12125,7 +12839,7 @@
       </c>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A400" t="s">
+      <c r="A400" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B400" s="1"/>
@@ -12152,7 +12866,7 @@
       </c>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A401" t="s">
+      <c r="A401" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B401" s="1"/>
@@ -12179,7 +12893,7 @@
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A402" t="s">
+      <c r="A402" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B402" s="1"/>
@@ -12206,7 +12920,7 @@
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A403" t="s">
+      <c r="A403" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B403" s="1"/>
@@ -12233,7 +12947,7 @@
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A404" t="s">
+      <c r="A404" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B404" s="1"/>
@@ -12260,7 +12974,7 @@
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A405" t="s">
+      <c r="A405" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B405" s="1"/>
@@ -12287,7 +13001,7 @@
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A406" t="s">
+      <c r="A406" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B406" s="1"/>
@@ -12314,7 +13028,7 @@
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A407" t="s">
+      <c r="A407" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B407" s="1"/>
@@ -12341,7 +13055,7 @@
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A408" t="s">
+      <c r="A408" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B408" s="1"/>
@@ -12368,7 +13082,7 @@
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A409" t="s">
+      <c r="A409" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B409" s="1"/>
@@ -12395,23 +13109,30 @@
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A410" t="s">
+      <c r="A410" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C410" t="s">
+      <c r="B410" s="1"/>
+      <c r="C410" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="D410" t="s">
+      <c r="D410" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="E410">
+      <c r="E410" s="1">
         <v>11</v>
       </c>
-      <c r="F410" t="s">
+      <c r="F410" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G410">
+      <c r="G410" s="1">
         <v>2020</v>
+      </c>
+      <c r="H410" t="s">
+        <v>555</v>
+      </c>
+      <c r="I410" t="s">
+        <v>554</v>
       </c>
     </row>
   </sheetData>

--- a/acs/elections.xlsx
+++ b/acs/elections.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kguan17/Documents/GitHub/RA-Work/acs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\User\Downloads\RA Work\acs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561BBAE2-F13A-7C46-9A51-764FC266B083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1890992E-C75C-4BCC-A695-A562187F1CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" xr2:uid="{6B2EB732-C0BF-4336-8C6B-FF3332FBF24E}"/>
+    <workbookView xWindow="4785" yWindow="4215" windowWidth="21555" windowHeight="11385" xr2:uid="{6B2EB732-C0BF-4336-8C6B-FF3332FBF24E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2642" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2328" uniqueCount="544">
   <si>
     <t>filename</t>
   </si>
@@ -1598,108 +1598,54 @@
     <t>geo_filename</t>
   </si>
   <si>
-    <t>tract_filename</t>
-  </si>
-  <si>
     <t>alaska_lower_districts_2022.csv</t>
   </si>
   <si>
     <t>alaska_upper_districts_2022.csv</t>
   </si>
   <si>
-    <t>alaska_tracts_2020.csv</t>
-  </si>
-  <si>
     <t>san_leandro_city_council_2010.csv</t>
   </si>
   <si>
-    <t>san leandro_tracts_2020.csv</t>
-  </si>
-  <si>
-    <t>san leandro_tracts_2010.csv</t>
-  </si>
-  <si>
     <t>berkeley_city_council_2014.csv</t>
   </si>
   <si>
-    <t>berkeley_tracts_2010.csv</t>
-  </si>
-  <si>
     <t>berkeley_city_council_2002.csv</t>
   </si>
   <si>
-    <t>berkeley_tracts_2020.csv</t>
-  </si>
-  <si>
     <t>minneapolis_city_council_2012.csv</t>
   </si>
   <si>
-    <t>minneapolis_tracts_2020.csv</t>
-  </si>
-  <si>
-    <t>minneapolis_tracts_2010.csv</t>
-  </si>
-  <si>
     <t>minneapolis_city_council_2002.csv</t>
   </si>
   <si>
-    <t>minneapolis_tracts_2000.csv</t>
-  </si>
-  <si>
     <t>oakland_city_council_2003.csv</t>
   </si>
   <si>
-    <t>oakland_tracts_2010.csv</t>
-  </si>
-  <si>
     <t>oakland_city_council_2014.csv</t>
   </si>
   <si>
-    <t>oakland_tracts_2020.csv</t>
-  </si>
-  <si>
     <t>san_francisco_city_council_2012.csv</t>
   </si>
   <si>
-    <t>san francisco_tracts_2010.csv</t>
-  </si>
-  <si>
     <t>san_francisco_city_council_2002.csv</t>
   </si>
   <si>
-    <t>san francisco_tracts_2000.csv</t>
-  </si>
-  <si>
-    <t>san francisco_tracts_2020.csv</t>
-  </si>
-  <si>
     <t>san_francisco_city_council_2022.csv</t>
   </si>
   <si>
     <t>new_york_city_council_2021.csv</t>
   </si>
   <si>
-    <t>new york_tracts_2020.csv</t>
-  </si>
-  <si>
     <t>burlington_city_council_2023.csv</t>
   </si>
   <si>
-    <t>vermont_tracts_2020.csv</t>
-  </si>
-  <si>
     <t>maine_congressional_district_2011.csv</t>
   </si>
   <si>
     <t>maine_congressional_district_2021.csv</t>
   </si>
   <si>
-    <t>maine_tracts_2010.csv</t>
-  </si>
-  <si>
-    <t>maine_tracts_2020.csv</t>
-  </si>
-  <si>
     <t>maine_upper_districts_2020.csv</t>
   </si>
   <si>
@@ -1709,25 +1655,19 @@
     <t>las_cruces_city_council_2019.csv</t>
   </si>
   <si>
-    <t>new mexico_tracts_2010.csv</t>
-  </si>
-  <si>
     <t>minneapolis_park_commissioner_2012.csv</t>
   </si>
   <si>
     <t>oakland_city_council_2022.csv</t>
   </si>
   <si>
-    <t>place_code</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
     <t>pierce_county_council_2002.csv</t>
   </si>
   <si>
-    <t>washington_tracts_2000.csv</t>
+    <t>takoma_park_wards_2022.csv</t>
   </si>
 </sst>
 </file>
@@ -2106,23 +2046,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022FCB54-8620-44BA-9E5B-DD50E1770DCA}">
-  <dimension ref="A1:J410"/>
+  <dimension ref="A1:H410"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
-      <selection activeCell="K282" sqref="K282"/>
+    <sheetView tabSelected="1" topLeftCell="A347" workbookViewId="0">
+      <selection activeCell="D357" sqref="D357"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="68.1640625" customWidth="1"/>
-    <col min="2" max="2" width="32.5" customWidth="1"/>
+    <col min="1" max="1" width="68.140625" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" customWidth="1"/>
     <col min="3" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" customWidth="1"/>
-    <col min="7" max="7" width="20.5" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2147,14 +2087,8 @@
       <c r="H1" t="s">
         <v>519</v>
       </c>
-      <c r="I1" t="s">
-        <v>520</v>
-      </c>
-      <c r="J1" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>203</v>
       </c>
@@ -2177,7 +2111,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>205</v>
       </c>
@@ -2200,7 +2134,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>206</v>
       </c>
@@ -2223,7 +2157,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>207</v>
       </c>
@@ -2246,7 +2180,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>208</v>
       </c>
@@ -2269,7 +2203,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>260</v>
       </c>
@@ -2292,7 +2226,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>261</v>
       </c>
@@ -2315,7 +2249,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>68</v>
       </c>
@@ -2336,7 +2270,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>70</v>
       </c>
@@ -2357,7 +2291,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>77</v>
       </c>
@@ -2378,7 +2312,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>90</v>
       </c>
@@ -2399,7 +2333,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>91</v>
       </c>
@@ -2420,7 +2354,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>102</v>
       </c>
@@ -2441,7 +2375,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>103</v>
       </c>
@@ -2462,7 +2396,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>104</v>
       </c>
@@ -2483,7 +2417,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>109</v>
       </c>
@@ -2504,7 +2438,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>110</v>
       </c>
@@ -2525,7 +2459,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>111</v>
       </c>
@@ -2546,7 +2480,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>112</v>
       </c>
@@ -2567,7 +2501,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>119</v>
       </c>
@@ -2588,7 +2522,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>147</v>
       </c>
@@ -2609,7 +2543,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>148</v>
       </c>
@@ -2630,7 +2564,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>155</v>
       </c>
@@ -2651,7 +2585,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>161</v>
       </c>
@@ -2672,7 +2606,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>180</v>
       </c>
@@ -2693,7 +2627,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>199</v>
       </c>
@@ -2714,7 +2648,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>200</v>
       </c>
@@ -2735,7 +2669,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>201</v>
       </c>
@@ -2756,7 +2690,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>209</v>
       </c>
@@ -2777,7 +2711,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>257</v>
       </c>
@@ -2798,7 +2732,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>258</v>
       </c>
@@ -2821,7 +2755,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>268</v>
       </c>
@@ -2842,7 +2776,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>269</v>
       </c>
@@ -2863,7 +2797,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>273</v>
       </c>
@@ -2884,7 +2818,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>276</v>
       </c>
@@ -2905,7 +2839,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>278</v>
       </c>
@@ -2926,7 +2860,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>287</v>
       </c>
@@ -2947,7 +2881,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>291</v>
       </c>
@@ -2968,7 +2902,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>295</v>
       </c>
@@ -2989,7 +2923,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>296</v>
       </c>
@@ -3010,7 +2944,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>305</v>
       </c>
@@ -3031,7 +2965,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>309</v>
       </c>
@@ -3052,7 +2986,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>316</v>
       </c>
@@ -3073,7 +3007,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>323</v>
       </c>
@@ -3094,7 +3028,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>327</v>
       </c>
@@ -3115,7 +3049,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>336</v>
       </c>
@@ -3136,7 +3070,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>338</v>
       </c>
@@ -3157,7 +3091,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>339</v>
       </c>
@@ -3178,7 +3112,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>373</v>
       </c>
@@ -3199,7 +3133,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>374</v>
       </c>
@@ -3220,7 +3154,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>376</v>
       </c>
@@ -3241,7 +3175,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>379</v>
       </c>
@@ -3262,7 +3196,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>391</v>
       </c>
@@ -3283,7 +3217,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>392</v>
       </c>
@@ -3304,7 +3238,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>393</v>
       </c>
@@ -3325,7 +3259,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>394</v>
       </c>
@@ -3346,7 +3280,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>395</v>
       </c>
@@ -3367,7 +3301,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>406</v>
       </c>
@@ -3388,7 +3322,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>407</v>
       </c>
@@ -3409,7 +3343,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>411</v>
       </c>
@@ -3430,7 +3364,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>417</v>
       </c>
@@ -3451,7 +3385,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>424</v>
       </c>
@@ -3472,7 +3406,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>428</v>
       </c>
@@ -3493,7 +3427,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>430</v>
       </c>
@@ -3514,7 +3448,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>437</v>
       </c>
@@ -3535,7 +3469,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>438</v>
       </c>
@@ -3556,7 +3490,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>439</v>
       </c>
@@ -3577,7 +3511,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>440</v>
       </c>
@@ -3598,7 +3532,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>72</v>
       </c>
@@ -3621,13 +3555,10 @@
         <v>2017</v>
       </c>
       <c r="H70" t="s">
-        <v>527</v>
-      </c>
-      <c r="I70" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>73</v>
       </c>
@@ -3650,13 +3581,10 @@
         <v>2010</v>
       </c>
       <c r="H71" t="s">
-        <v>529</v>
-      </c>
-      <c r="I71" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>74</v>
       </c>
@@ -3679,13 +3607,10 @@
         <v>2010</v>
       </c>
       <c r="H72" t="s">
-        <v>529</v>
-      </c>
-      <c r="I72" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>75</v>
       </c>
@@ -3708,13 +3633,10 @@
         <v>2010</v>
       </c>
       <c r="H73" t="s">
-        <v>529</v>
-      </c>
-      <c r="I73" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>76</v>
       </c>
@@ -3737,13 +3659,10 @@
         <v>2010</v>
       </c>
       <c r="H74" t="s">
-        <v>529</v>
-      </c>
-      <c r="I74" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>79</v>
       </c>
@@ -3766,13 +3685,10 @@
         <v>2020</v>
       </c>
       <c r="H75" t="s">
-        <v>527</v>
-      </c>
-      <c r="I75" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>80</v>
       </c>
@@ -3795,13 +3711,10 @@
         <v>2020</v>
       </c>
       <c r="H76" t="s">
-        <v>527</v>
-      </c>
-      <c r="I76" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>81</v>
       </c>
@@ -3824,13 +3737,10 @@
         <v>2020</v>
       </c>
       <c r="H77" t="s">
-        <v>527</v>
-      </c>
-      <c r="I77" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>82</v>
       </c>
@@ -3853,13 +3763,10 @@
         <v>2020</v>
       </c>
       <c r="H78" t="s">
-        <v>527</v>
-      </c>
-      <c r="I78" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>83</v>
       </c>
@@ -3882,13 +3789,10 @@
         <v>2014</v>
       </c>
       <c r="H79" t="s">
-        <v>527</v>
-      </c>
-      <c r="I79" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>84</v>
       </c>
@@ -3911,13 +3815,10 @@
         <v>2014</v>
       </c>
       <c r="H80" t="s">
-        <v>527</v>
-      </c>
-      <c r="I80" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>85</v>
       </c>
@@ -3940,13 +3841,10 @@
         <v>2014</v>
       </c>
       <c r="H81" t="s">
-        <v>527</v>
-      </c>
-      <c r="I81" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>86</v>
       </c>
@@ -3969,13 +3867,10 @@
         <v>2012</v>
       </c>
       <c r="H82" t="s">
-        <v>529</v>
-      </c>
-      <c r="I82" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>87</v>
       </c>
@@ -3998,13 +3893,10 @@
         <v>2012</v>
       </c>
       <c r="H83" t="s">
-        <v>529</v>
-      </c>
-      <c r="I83" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>88</v>
       </c>
@@ -4027,13 +3919,10 @@
         <v>2012</v>
       </c>
       <c r="H84" t="s">
-        <v>529</v>
-      </c>
-      <c r="I84" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>89</v>
       </c>
@@ -4056,13 +3945,10 @@
         <v>2012</v>
       </c>
       <c r="H85" t="s">
-        <v>529</v>
-      </c>
-      <c r="I85" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>94</v>
       </c>
@@ -4085,13 +3971,10 @@
         <v>2018</v>
       </c>
       <c r="H86" t="s">
-        <v>527</v>
-      </c>
-      <c r="I86" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>95</v>
       </c>
@@ -4114,13 +3997,10 @@
         <v>2018</v>
       </c>
       <c r="H87" t="s">
-        <v>527</v>
-      </c>
-      <c r="I87" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>96</v>
       </c>
@@ -4143,13 +4023,10 @@
         <v>2018</v>
       </c>
       <c r="H88" t="s">
-        <v>527</v>
-      </c>
-      <c r="I88" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>97</v>
       </c>
@@ -4172,13 +4049,10 @@
         <v>2018</v>
       </c>
       <c r="H89" t="s">
-        <v>527</v>
-      </c>
-      <c r="I89" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>98</v>
       </c>
@@ -4201,13 +4075,10 @@
         <v>2016</v>
       </c>
       <c r="H90" t="s">
-        <v>527</v>
-      </c>
-      <c r="I90" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>99</v>
       </c>
@@ -4230,13 +4101,10 @@
         <v>2016</v>
       </c>
       <c r="H91" t="s">
-        <v>527</v>
-      </c>
-      <c r="I91" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>100</v>
       </c>
@@ -4259,13 +4127,10 @@
         <v>2016</v>
       </c>
       <c r="H92" t="s">
-        <v>527</v>
-      </c>
-      <c r="I92" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>101</v>
       </c>
@@ -4288,13 +4153,10 @@
         <v>2016</v>
       </c>
       <c r="H93" t="s">
-        <v>527</v>
-      </c>
-      <c r="I93" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>105</v>
       </c>
@@ -4317,13 +4179,10 @@
         <v>2023</v>
       </c>
       <c r="H94" t="s">
-        <v>548</v>
-      </c>
-      <c r="I94" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>106</v>
       </c>
@@ -4346,13 +4205,10 @@
         <v>2023</v>
       </c>
       <c r="H95" t="s">
-        <v>548</v>
-      </c>
-      <c r="I95" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>107</v>
       </c>
@@ -4375,13 +4231,10 @@
         <v>2023</v>
       </c>
       <c r="H96" t="s">
-        <v>548</v>
-      </c>
-      <c r="I96" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>108</v>
       </c>
@@ -4404,7 +4257,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>117</v>
       </c>
@@ -4427,13 +4280,10 @@
         <v>2019</v>
       </c>
       <c r="H98" t="s">
-        <v>556</v>
-      </c>
-      <c r="I98" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>118</v>
       </c>
@@ -4456,13 +4306,10 @@
         <v>2019</v>
       </c>
       <c r="H99" t="s">
-        <v>556</v>
-      </c>
-      <c r="I99" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>133</v>
       </c>
@@ -4485,13 +4332,10 @@
         <v>2020</v>
       </c>
       <c r="H100" t="s">
-        <v>531</v>
-      </c>
-      <c r="I100" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>134</v>
       </c>
@@ -4514,13 +4358,10 @@
         <v>2021</v>
       </c>
       <c r="H101" t="s">
-        <v>531</v>
-      </c>
-      <c r="I101" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>135</v>
       </c>
@@ -4543,13 +4384,10 @@
         <v>2021</v>
       </c>
       <c r="H102" t="s">
-        <v>531</v>
-      </c>
-      <c r="I102" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>136</v>
       </c>
@@ -4572,13 +4410,10 @@
         <v>2021</v>
       </c>
       <c r="H103" t="s">
-        <v>531</v>
-      </c>
-      <c r="I103" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>137</v>
       </c>
@@ -4601,13 +4436,10 @@
         <v>2021</v>
       </c>
       <c r="H104" t="s">
-        <v>531</v>
-      </c>
-      <c r="I104" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>138</v>
       </c>
@@ -4630,13 +4462,10 @@
         <v>2021</v>
       </c>
       <c r="H105" t="s">
-        <v>531</v>
-      </c>
-      <c r="I105" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>139</v>
       </c>
@@ -4659,13 +4488,10 @@
         <v>2021</v>
       </c>
       <c r="H106" t="s">
-        <v>531</v>
-      </c>
-      <c r="I106" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>140</v>
       </c>
@@ -4688,13 +4514,10 @@
         <v>2021</v>
       </c>
       <c r="H107" t="s">
-        <v>531</v>
-      </c>
-      <c r="I107" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>141</v>
       </c>
@@ -4717,13 +4540,10 @@
         <v>2021</v>
       </c>
       <c r="H108" t="s">
-        <v>531</v>
-      </c>
-      <c r="I108" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>142</v>
       </c>
@@ -4746,13 +4566,10 @@
         <v>2021</v>
       </c>
       <c r="H109" t="s">
-        <v>531</v>
-      </c>
-      <c r="I109" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>143</v>
       </c>
@@ -4775,13 +4592,10 @@
         <v>2021</v>
       </c>
       <c r="H110" t="s">
-        <v>531</v>
-      </c>
-      <c r="I110" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>144</v>
       </c>
@@ -4804,13 +4618,10 @@
         <v>2021</v>
       </c>
       <c r="H111" t="s">
-        <v>531</v>
-      </c>
-      <c r="I111" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>145</v>
       </c>
@@ -4833,13 +4644,10 @@
         <v>2021</v>
       </c>
       <c r="H112" t="s">
-        <v>531</v>
-      </c>
-      <c r="I112" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>146</v>
       </c>
@@ -4862,13 +4670,10 @@
         <v>2021</v>
       </c>
       <c r="H113" t="s">
-        <v>531</v>
-      </c>
-      <c r="I113" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>158</v>
       </c>
@@ -4891,13 +4696,10 @@
         <v>2013</v>
       </c>
       <c r="H114" t="s">
-        <v>531</v>
-      </c>
-      <c r="I114" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>159</v>
       </c>
@@ -4920,13 +4722,10 @@
         <v>2013</v>
       </c>
       <c r="H115" t="s">
-        <v>531</v>
-      </c>
-      <c r="I115" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>160</v>
       </c>
@@ -4949,13 +4748,10 @@
         <v>2013</v>
       </c>
       <c r="H116" t="s">
-        <v>531</v>
-      </c>
-      <c r="I116" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>167</v>
       </c>
@@ -4978,13 +4774,10 @@
         <v>2009</v>
       </c>
       <c r="H117" t="s">
-        <v>534</v>
-      </c>
-      <c r="I117" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>168</v>
       </c>
@@ -5007,13 +4800,10 @@
         <v>2009</v>
       </c>
       <c r="H118" t="s">
-        <v>534</v>
-      </c>
-      <c r="I118" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>169</v>
       </c>
@@ -5036,13 +4826,10 @@
         <v>2009</v>
       </c>
       <c r="H119" t="s">
-        <v>534</v>
-      </c>
-      <c r="I119" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>170</v>
       </c>
@@ -5065,13 +4852,10 @@
         <v>2009</v>
       </c>
       <c r="H120" t="s">
-        <v>534</v>
-      </c>
-      <c r="I120" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>171</v>
       </c>
@@ -5094,13 +4878,10 @@
         <v>2009</v>
       </c>
       <c r="H121" t="s">
-        <v>534</v>
-      </c>
-      <c r="I121" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>172</v>
       </c>
@@ -5123,13 +4904,10 @@
         <v>2009</v>
       </c>
       <c r="H122" t="s">
-        <v>534</v>
-      </c>
-      <c r="I122" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>173</v>
       </c>
@@ -5152,13 +4930,10 @@
         <v>2009</v>
       </c>
       <c r="H123" t="s">
-        <v>534</v>
-      </c>
-      <c r="I123" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>174</v>
       </c>
@@ -5181,13 +4956,10 @@
         <v>2009</v>
       </c>
       <c r="H124" t="s">
-        <v>534</v>
-      </c>
-      <c r="I124" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>175</v>
       </c>
@@ -5210,13 +4982,10 @@
         <v>2009</v>
       </c>
       <c r="H125" t="s">
-        <v>534</v>
-      </c>
-      <c r="I125" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>176</v>
       </c>
@@ -5239,13 +5008,10 @@
         <v>2009</v>
       </c>
       <c r="H126" t="s">
-        <v>534</v>
-      </c>
-      <c r="I126" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>177</v>
       </c>
@@ -5268,13 +5034,10 @@
         <v>2009</v>
       </c>
       <c r="H127" t="s">
-        <v>534</v>
-      </c>
-      <c r="I127" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>178</v>
       </c>
@@ -5297,13 +5060,10 @@
         <v>2009</v>
       </c>
       <c r="H128" t="s">
-        <v>534</v>
-      </c>
-      <c r="I128" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>179</v>
       </c>
@@ -5326,13 +5086,10 @@
         <v>2009</v>
       </c>
       <c r="H129" t="s">
-        <v>534</v>
-      </c>
-      <c r="I129" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>187</v>
       </c>
@@ -5355,13 +5112,10 @@
         <v>2017</v>
       </c>
       <c r="H130" t="s">
-        <v>531</v>
-      </c>
-      <c r="I130" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>188</v>
       </c>
@@ -5384,13 +5138,10 @@
         <v>2017</v>
       </c>
       <c r="H131" t="s">
-        <v>531</v>
-      </c>
-      <c r="I131" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>189</v>
       </c>
@@ -5413,13 +5164,10 @@
         <v>2017</v>
       </c>
       <c r="H132" t="s">
-        <v>531</v>
-      </c>
-      <c r="I132" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>190</v>
       </c>
@@ -5442,13 +5190,10 @@
         <v>2017</v>
       </c>
       <c r="H133" t="s">
-        <v>531</v>
-      </c>
-      <c r="I133" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>191</v>
       </c>
@@ -5471,13 +5216,10 @@
         <v>2017</v>
       </c>
       <c r="H134" t="s">
-        <v>531</v>
-      </c>
-      <c r="I134" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>192</v>
       </c>
@@ -5500,13 +5242,10 @@
         <v>2017</v>
       </c>
       <c r="H135" t="s">
-        <v>531</v>
-      </c>
-      <c r="I135" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>193</v>
       </c>
@@ -5529,13 +5268,10 @@
         <v>2017</v>
       </c>
       <c r="H136" t="s">
-        <v>531</v>
-      </c>
-      <c r="I136" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>194</v>
       </c>
@@ -5558,13 +5294,10 @@
         <v>2017</v>
       </c>
       <c r="H137" t="s">
-        <v>531</v>
-      </c>
-      <c r="I137" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>195</v>
       </c>
@@ -5587,13 +5320,10 @@
         <v>2017</v>
       </c>
       <c r="H138" t="s">
-        <v>531</v>
-      </c>
-      <c r="I138" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>196</v>
       </c>
@@ -5616,13 +5346,10 @@
         <v>2017</v>
       </c>
       <c r="H139" t="s">
-        <v>531</v>
-      </c>
-      <c r="I139" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>197</v>
       </c>
@@ -5645,13 +5372,10 @@
         <v>2017</v>
       </c>
       <c r="H140" t="s">
-        <v>531</v>
-      </c>
-      <c r="I140" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>198</v>
       </c>
@@ -5674,13 +5398,10 @@
         <v>2017</v>
       </c>
       <c r="H141" t="s">
-        <v>531</v>
-      </c>
-      <c r="I141" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>202</v>
       </c>
@@ -5703,13 +5424,10 @@
         <v>2021</v>
       </c>
       <c r="H142" t="s">
-        <v>546</v>
-      </c>
-      <c r="I142" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>211</v>
       </c>
@@ -5732,13 +5450,10 @@
         <v>2021</v>
       </c>
       <c r="H143" t="s">
-        <v>546</v>
-      </c>
-      <c r="I143" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>212</v>
       </c>
@@ -5761,13 +5476,10 @@
         <v>2021</v>
       </c>
       <c r="H144" t="s">
-        <v>546</v>
-      </c>
-      <c r="I144" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>213</v>
       </c>
@@ -5790,13 +5502,10 @@
         <v>2021</v>
       </c>
       <c r="H145" t="s">
-        <v>546</v>
-      </c>
-      <c r="I145" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>214</v>
       </c>
@@ -5819,13 +5528,10 @@
         <v>2021</v>
       </c>
       <c r="H146" t="s">
-        <v>546</v>
-      </c>
-      <c r="I146" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>215</v>
       </c>
@@ -5848,13 +5554,10 @@
         <v>2021</v>
       </c>
       <c r="H147" t="s">
-        <v>546</v>
-      </c>
-      <c r="I147" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>216</v>
       </c>
@@ -5877,13 +5580,10 @@
         <v>2021</v>
       </c>
       <c r="H148" t="s">
-        <v>546</v>
-      </c>
-      <c r="I148" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>217</v>
       </c>
@@ -5906,13 +5606,10 @@
         <v>2021</v>
       </c>
       <c r="H149" t="s">
-        <v>546</v>
-      </c>
-      <c r="I149" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>218</v>
       </c>
@@ -5935,13 +5632,10 @@
         <v>2021</v>
       </c>
       <c r="H150" t="s">
-        <v>546</v>
-      </c>
-      <c r="I150" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>219</v>
       </c>
@@ -5964,13 +5658,10 @@
         <v>2021</v>
       </c>
       <c r="H151" t="s">
-        <v>546</v>
-      </c>
-      <c r="I151" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>220</v>
       </c>
@@ -5993,13 +5684,10 @@
         <v>2021</v>
       </c>
       <c r="H152" t="s">
-        <v>546</v>
-      </c>
-      <c r="I152" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>221</v>
       </c>
@@ -6022,13 +5710,10 @@
         <v>2021</v>
       </c>
       <c r="H153" t="s">
-        <v>546</v>
-      </c>
-      <c r="I153" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>222</v>
       </c>
@@ -6051,13 +5736,10 @@
         <v>2021</v>
       </c>
       <c r="H154" t="s">
-        <v>546</v>
-      </c>
-      <c r="I154" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>223</v>
       </c>
@@ -6080,13 +5762,10 @@
         <v>2021</v>
       </c>
       <c r="H155" t="s">
-        <v>546</v>
-      </c>
-      <c r="I155" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>224</v>
       </c>
@@ -6109,13 +5788,10 @@
         <v>2021</v>
       </c>
       <c r="H156" t="s">
-        <v>546</v>
-      </c>
-      <c r="I156" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>225</v>
       </c>
@@ -6138,13 +5814,10 @@
         <v>2021</v>
       </c>
       <c r="H157" t="s">
-        <v>546</v>
-      </c>
-      <c r="I157" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>226</v>
       </c>
@@ -6167,13 +5840,10 @@
         <v>2021</v>
       </c>
       <c r="H158" t="s">
-        <v>546</v>
-      </c>
-      <c r="I158" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>227</v>
       </c>
@@ -6196,13 +5866,10 @@
         <v>2021</v>
       </c>
       <c r="H159" t="s">
-        <v>546</v>
-      </c>
-      <c r="I159" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>228</v>
       </c>
@@ -6225,13 +5892,10 @@
         <v>2021</v>
       </c>
       <c r="H160" t="s">
-        <v>546</v>
-      </c>
-      <c r="I160" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>229</v>
       </c>
@@ -6254,13 +5918,10 @@
         <v>2021</v>
       </c>
       <c r="H161" t="s">
-        <v>546</v>
-      </c>
-      <c r="I161" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>230</v>
       </c>
@@ -6283,13 +5944,10 @@
         <v>2021</v>
       </c>
       <c r="H162" t="s">
-        <v>546</v>
-      </c>
-      <c r="I162" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>231</v>
       </c>
@@ -6312,13 +5970,10 @@
         <v>2021</v>
       </c>
       <c r="H163" t="s">
-        <v>546</v>
-      </c>
-      <c r="I163" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>232</v>
       </c>
@@ -6341,13 +5996,10 @@
         <v>2021</v>
       </c>
       <c r="H164" t="s">
-        <v>546</v>
-      </c>
-      <c r="I164" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>233</v>
       </c>
@@ -6370,13 +6022,10 @@
         <v>2021</v>
       </c>
       <c r="H165" t="s">
-        <v>546</v>
-      </c>
-      <c r="I165" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>234</v>
       </c>
@@ -6399,13 +6048,10 @@
         <v>2021</v>
       </c>
       <c r="H166" t="s">
-        <v>546</v>
-      </c>
-      <c r="I166" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>235</v>
       </c>
@@ -6428,13 +6074,10 @@
         <v>2021</v>
       </c>
       <c r="H167" t="s">
-        <v>546</v>
-      </c>
-      <c r="I167" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>236</v>
       </c>
@@ -6457,13 +6100,10 @@
         <v>2021</v>
       </c>
       <c r="H168" t="s">
-        <v>546</v>
-      </c>
-      <c r="I168" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>237</v>
       </c>
@@ -6486,13 +6126,10 @@
         <v>2021</v>
       </c>
       <c r="H169" t="s">
-        <v>546</v>
-      </c>
-      <c r="I169" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>238</v>
       </c>
@@ -6515,13 +6152,10 @@
         <v>2021</v>
       </c>
       <c r="H170" t="s">
-        <v>546</v>
-      </c>
-      <c r="I170" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>239</v>
       </c>
@@ -6544,13 +6178,10 @@
         <v>2021</v>
       </c>
       <c r="H171" t="s">
-        <v>546</v>
-      </c>
-      <c r="I171" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>240</v>
       </c>
@@ -6573,13 +6204,10 @@
         <v>2021</v>
       </c>
       <c r="H172" t="s">
-        <v>546</v>
-      </c>
-      <c r="I172" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>241</v>
       </c>
@@ -6602,13 +6230,10 @@
         <v>2021</v>
       </c>
       <c r="H173" t="s">
-        <v>546</v>
-      </c>
-      <c r="I173" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>242</v>
       </c>
@@ -6631,13 +6256,10 @@
         <v>2021</v>
       </c>
       <c r="H174" t="s">
-        <v>546</v>
-      </c>
-      <c r="I174" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>243</v>
       </c>
@@ -6660,13 +6282,10 @@
         <v>2021</v>
       </c>
       <c r="H175" t="s">
-        <v>546</v>
-      </c>
-      <c r="I175" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>244</v>
       </c>
@@ -6689,13 +6308,10 @@
         <v>2021</v>
       </c>
       <c r="H176" t="s">
-        <v>546</v>
-      </c>
-      <c r="I176" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>245</v>
       </c>
@@ -6718,13 +6334,10 @@
         <v>2021</v>
       </c>
       <c r="H177" t="s">
-        <v>546</v>
-      </c>
-      <c r="I177" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>246</v>
       </c>
@@ -6747,13 +6360,10 @@
         <v>2021</v>
       </c>
       <c r="H178" t="s">
-        <v>546</v>
-      </c>
-      <c r="I178" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>247</v>
       </c>
@@ -6776,13 +6386,10 @@
         <v>2021</v>
       </c>
       <c r="H179" t="s">
-        <v>546</v>
-      </c>
-      <c r="I179" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>248</v>
       </c>
@@ -6805,13 +6412,10 @@
         <v>2021</v>
       </c>
       <c r="H180" t="s">
-        <v>546</v>
-      </c>
-      <c r="I180" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>249</v>
       </c>
@@ -6834,13 +6438,10 @@
         <v>2021</v>
       </c>
       <c r="H181" t="s">
-        <v>546</v>
-      </c>
-      <c r="I181" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>250</v>
       </c>
@@ -6863,13 +6464,10 @@
         <v>2021</v>
       </c>
       <c r="H182" t="s">
-        <v>546</v>
-      </c>
-      <c r="I182" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>251</v>
       </c>
@@ -6892,13 +6490,10 @@
         <v>2021</v>
       </c>
       <c r="H183" t="s">
-        <v>546</v>
-      </c>
-      <c r="I183" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>252</v>
       </c>
@@ -6921,13 +6516,10 @@
         <v>2021</v>
       </c>
       <c r="H184" t="s">
-        <v>546</v>
-      </c>
-      <c r="I184" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>253</v>
       </c>
@@ -6950,13 +6542,10 @@
         <v>2021</v>
       </c>
       <c r="H185" t="s">
-        <v>546</v>
-      </c>
-      <c r="I185" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>254</v>
       </c>
@@ -6979,13 +6568,10 @@
         <v>2021</v>
       </c>
       <c r="H186" t="s">
-        <v>546</v>
-      </c>
-      <c r="I186" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>255</v>
       </c>
@@ -7008,13 +6594,10 @@
         <v>2021</v>
       </c>
       <c r="H187" t="s">
-        <v>546</v>
-      </c>
-      <c r="I187" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>256</v>
       </c>
@@ -7037,13 +6620,10 @@
         <v>2021</v>
       </c>
       <c r="H188" t="s">
-        <v>546</v>
-      </c>
-      <c r="I188" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>262</v>
       </c>
@@ -7066,13 +6646,10 @@
         <v>2021</v>
       </c>
       <c r="H189" t="s">
-        <v>546</v>
-      </c>
-      <c r="I189" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>263</v>
       </c>
@@ -7095,13 +6672,10 @@
         <v>2021</v>
       </c>
       <c r="H190" t="s">
-        <v>546</v>
-      </c>
-      <c r="I190" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>264</v>
       </c>
@@ -7124,13 +6698,10 @@
         <v>2021</v>
       </c>
       <c r="H191" t="s">
-        <v>546</v>
-      </c>
-      <c r="I191" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>265</v>
       </c>
@@ -7153,13 +6724,10 @@
         <v>2021</v>
       </c>
       <c r="H192" t="s">
-        <v>546</v>
-      </c>
-      <c r="I192" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>266</v>
       </c>
@@ -7182,13 +6750,10 @@
         <v>2021</v>
       </c>
       <c r="H193" t="s">
-        <v>546</v>
-      </c>
-      <c r="I193" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>267</v>
       </c>
@@ -7211,13 +6776,10 @@
         <v>2021</v>
       </c>
       <c r="H194" t="s">
-        <v>546</v>
-      </c>
-      <c r="I194" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>270</v>
       </c>
@@ -7240,13 +6802,10 @@
         <v>2010</v>
       </c>
       <c r="H195" t="s">
-        <v>536</v>
-      </c>
-      <c r="I195" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>271</v>
       </c>
@@ -7269,13 +6828,10 @@
         <v>2010</v>
       </c>
       <c r="H196" t="s">
-        <v>536</v>
-      </c>
-      <c r="I196" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>272</v>
       </c>
@@ -7298,13 +6854,10 @@
         <v>2010</v>
       </c>
       <c r="H197" t="s">
-        <v>536</v>
-      </c>
-      <c r="I197" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>279</v>
       </c>
@@ -7327,13 +6880,10 @@
         <v>2020</v>
       </c>
       <c r="H198" t="s">
-        <v>538</v>
-      </c>
-      <c r="I198" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>280</v>
       </c>
@@ -7356,13 +6906,10 @@
         <v>2020</v>
       </c>
       <c r="H199" t="s">
-        <v>538</v>
-      </c>
-      <c r="I199" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>281</v>
       </c>
@@ -7385,13 +6932,10 @@
         <v>2020</v>
       </c>
       <c r="H200" t="s">
-        <v>538</v>
-      </c>
-      <c r="I200" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>282</v>
       </c>
@@ -7414,13 +6958,10 @@
         <v>2020</v>
       </c>
       <c r="H201" t="s">
-        <v>538</v>
-      </c>
-      <c r="I201" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>288</v>
       </c>
@@ -7443,13 +6984,10 @@
         <v>2014</v>
       </c>
       <c r="H202" t="s">
-        <v>538</v>
-      </c>
-      <c r="I202" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>289</v>
       </c>
@@ -7472,13 +7010,10 @@
         <v>2014</v>
       </c>
       <c r="H203" t="s">
-        <v>538</v>
-      </c>
-      <c r="I203" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>290</v>
       </c>
@@ -7501,13 +7036,10 @@
         <v>2014</v>
       </c>
       <c r="H204" t="s">
-        <v>538</v>
-      </c>
-      <c r="I204" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>297</v>
       </c>
@@ -7530,13 +7062,10 @@
         <v>2012</v>
       </c>
       <c r="H205" t="s">
-        <v>536</v>
-      </c>
-      <c r="I205" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>298</v>
       </c>
@@ -7559,13 +7088,10 @@
         <v>2012</v>
       </c>
       <c r="H206" t="s">
-        <v>536</v>
-      </c>
-      <c r="I206" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>299</v>
       </c>
@@ -7588,13 +7114,10 @@
         <v>2012</v>
       </c>
       <c r="H207" t="s">
-        <v>536</v>
-      </c>
-      <c r="I207" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>300</v>
       </c>
@@ -7617,13 +7140,10 @@
         <v>2012</v>
       </c>
       <c r="H208" t="s">
-        <v>536</v>
-      </c>
-      <c r="I208" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>306</v>
       </c>
@@ -7646,13 +7166,10 @@
         <v>2018</v>
       </c>
       <c r="H209" t="s">
-        <v>538</v>
-      </c>
-      <c r="I209" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>307</v>
       </c>
@@ -7675,13 +7192,10 @@
         <v>2018</v>
       </c>
       <c r="H210" t="s">
-        <v>538</v>
-      </c>
-      <c r="I210" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>308</v>
       </c>
@@ -7704,13 +7218,10 @@
         <v>2018</v>
       </c>
       <c r="H211" t="s">
-        <v>538</v>
-      </c>
-      <c r="I211" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>312</v>
       </c>
@@ -7733,13 +7244,10 @@
         <v>2016</v>
       </c>
       <c r="H212" t="s">
-        <v>538</v>
-      </c>
-      <c r="I212" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>313</v>
       </c>
@@ -7762,13 +7270,10 @@
         <v>2016</v>
       </c>
       <c r="H213" t="s">
-        <v>538</v>
-      </c>
-      <c r="I213" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>314</v>
       </c>
@@ -7791,13 +7296,10 @@
         <v>2016</v>
       </c>
       <c r="H214" t="s">
-        <v>538</v>
-      </c>
-      <c r="I214" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>315</v>
       </c>
@@ -7820,13 +7322,10 @@
         <v>2016</v>
       </c>
       <c r="H215" t="s">
-        <v>538</v>
-      </c>
-      <c r="I215" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>321</v>
       </c>
@@ -7849,13 +7348,10 @@
         <v>2022</v>
       </c>
       <c r="H216" t="s">
-        <v>559</v>
-      </c>
-      <c r="I216" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>322</v>
       </c>
@@ -7878,13 +7374,10 @@
         <v>2022</v>
       </c>
       <c r="H217" t="s">
-        <v>559</v>
-      </c>
-      <c r="I217" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>342</v>
       </c>
@@ -7907,13 +7400,10 @@
         <v>2018</v>
       </c>
       <c r="H218" t="s">
-        <v>540</v>
-      </c>
-      <c r="I218" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>344</v>
       </c>
@@ -7936,13 +7426,10 @@
         <v>2004</v>
       </c>
       <c r="H219" t="s">
-        <v>542</v>
-      </c>
-      <c r="I219" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>345</v>
       </c>
@@ -7965,13 +7452,10 @@
         <v>2004</v>
       </c>
       <c r="H220" t="s">
-        <v>542</v>
-      </c>
-      <c r="I220" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>346</v>
       </c>
@@ -7994,13 +7478,10 @@
         <v>2004</v>
       </c>
       <c r="H221" t="s">
-        <v>542</v>
-      </c>
-      <c r="I221" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>347</v>
       </c>
@@ -8023,13 +7504,10 @@
         <v>2004</v>
       </c>
       <c r="H222" t="s">
-        <v>542</v>
-      </c>
-      <c r="I222" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>348</v>
       </c>
@@ -8052,13 +7530,10 @@
         <v>2004</v>
       </c>
       <c r="H223" t="s">
-        <v>542</v>
-      </c>
-      <c r="I223" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>349</v>
       </c>
@@ -8081,13 +7556,10 @@
         <v>2004</v>
       </c>
       <c r="H224" t="s">
-        <v>542</v>
-      </c>
-      <c r="I224" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>350</v>
       </c>
@@ -8110,13 +7582,10 @@
         <v>2010</v>
       </c>
       <c r="H225" t="s">
-        <v>542</v>
-      </c>
-      <c r="I225" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>351</v>
       </c>
@@ -8139,13 +7608,10 @@
         <v>2010</v>
       </c>
       <c r="H226" t="s">
-        <v>542</v>
-      </c>
-      <c r="I226" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>352</v>
       </c>
@@ -8168,13 +7634,10 @@
         <v>2010</v>
       </c>
       <c r="H227" t="s">
-        <v>542</v>
-      </c>
-      <c r="I227" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>353</v>
       </c>
@@ -8197,13 +7660,10 @@
         <v>2010</v>
       </c>
       <c r="H228" t="s">
-        <v>542</v>
-      </c>
-      <c r="I228" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>354</v>
       </c>
@@ -8226,13 +7686,10 @@
         <v>2015</v>
       </c>
       <c r="H229" t="s">
-        <v>540</v>
-      </c>
-      <c r="I229" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>358</v>
       </c>
@@ -8255,13 +7712,10 @@
         <v>2020</v>
       </c>
       <c r="H230" t="s">
-        <v>540</v>
-      </c>
-      <c r="I230" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>359</v>
       </c>
@@ -8284,13 +7738,10 @@
         <v>2020</v>
       </c>
       <c r="H231" t="s">
-        <v>540</v>
-      </c>
-      <c r="I231" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>360</v>
       </c>
@@ -8313,13 +7764,10 @@
         <v>2020</v>
       </c>
       <c r="H232" t="s">
-        <v>540</v>
-      </c>
-      <c r="I232" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>361</v>
       </c>
@@ -8342,13 +7790,10 @@
         <v>2020</v>
       </c>
       <c r="H233" t="s">
-        <v>540</v>
-      </c>
-      <c r="I233" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>362</v>
       </c>
@@ -8371,13 +7816,10 @@
         <v>2020</v>
       </c>
       <c r="H234" t="s">
-        <v>540</v>
-      </c>
-      <c r="I234" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>363</v>
       </c>
@@ -8400,13 +7842,10 @@
         <v>2020</v>
       </c>
       <c r="H235" t="s">
-        <v>540</v>
-      </c>
-      <c r="I235" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>364</v>
       </c>
@@ -8429,13 +7868,10 @@
         <v>2008</v>
       </c>
       <c r="H236" t="s">
-        <v>542</v>
-      </c>
-      <c r="I236" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>365</v>
       </c>
@@ -8458,13 +7894,10 @@
         <v>2008</v>
       </c>
       <c r="H237" t="s">
-        <v>542</v>
-      </c>
-      <c r="I237" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>366</v>
       </c>
@@ -8487,13 +7920,10 @@
         <v>2008</v>
       </c>
       <c r="H238" t="s">
-        <v>542</v>
-      </c>
-      <c r="I238" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>367</v>
       </c>
@@ -8516,13 +7946,10 @@
         <v>2008</v>
       </c>
       <c r="H239" t="s">
-        <v>542</v>
-      </c>
-      <c r="I239" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>368</v>
       </c>
@@ -8545,13 +7972,10 @@
         <v>2008</v>
       </c>
       <c r="H240" t="s">
-        <v>542</v>
-      </c>
-      <c r="I240" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>369</v>
       </c>
@@ -8574,13 +7998,10 @@
         <v>2008</v>
       </c>
       <c r="H241" t="s">
-        <v>542</v>
-      </c>
-      <c r="I241" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>370</v>
       </c>
@@ -8603,13 +8024,10 @@
         <v>2008</v>
       </c>
       <c r="H242" t="s">
-        <v>542</v>
-      </c>
-      <c r="I242" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>371</v>
       </c>
@@ -8632,13 +8050,10 @@
         <v>2014</v>
       </c>
       <c r="H243" t="s">
-        <v>540</v>
-      </c>
-      <c r="I243" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>372</v>
       </c>
@@ -8661,13 +8076,10 @@
         <v>2004</v>
       </c>
       <c r="H244" t="s">
-        <v>542</v>
-      </c>
-      <c r="I244" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>375</v>
       </c>
@@ -8690,13 +8102,10 @@
         <v>2019</v>
       </c>
       <c r="H245" t="s">
-        <v>540</v>
-      </c>
-      <c r="I245" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>377</v>
       </c>
@@ -8719,13 +8128,10 @@
         <v>2012</v>
       </c>
       <c r="H246" t="s">
-        <v>540</v>
-      </c>
-      <c r="I246" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>378</v>
       </c>
@@ -8748,13 +8154,10 @@
         <v>2012</v>
       </c>
       <c r="H247" t="s">
-        <v>540</v>
-      </c>
-      <c r="I247" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>381</v>
       </c>
@@ -8777,13 +8180,10 @@
         <v>2018</v>
       </c>
       <c r="H248" t="s">
-        <v>540</v>
-      </c>
-      <c r="I248" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>382</v>
       </c>
@@ -8806,13 +8206,10 @@
         <v>2018</v>
       </c>
       <c r="H249" t="s">
-        <v>540</v>
-      </c>
-      <c r="I249" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>383</v>
       </c>
@@ -8835,13 +8232,10 @@
         <v>2018</v>
       </c>
       <c r="H250" t="s">
-        <v>540</v>
-      </c>
-      <c r="I250" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>384</v>
       </c>
@@ -8864,13 +8258,10 @@
         <v>2018</v>
       </c>
       <c r="H251" t="s">
-        <v>540</v>
-      </c>
-      <c r="I251" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>385</v>
       </c>
@@ -8893,13 +8284,10 @@
         <v>2018</v>
       </c>
       <c r="H252" t="s">
-        <v>540</v>
-      </c>
-      <c r="I252" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>386</v>
       </c>
@@ -8922,13 +8310,10 @@
         <v>2006</v>
       </c>
       <c r="H253" t="s">
-        <v>542</v>
-      </c>
-      <c r="I253" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>387</v>
       </c>
@@ -8951,13 +8336,10 @@
         <v>2006</v>
       </c>
       <c r="H254" t="s">
-        <v>542</v>
-      </c>
-      <c r="I254" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>388</v>
       </c>
@@ -8980,13 +8362,10 @@
         <v>2006</v>
       </c>
       <c r="H255" t="s">
-        <v>542</v>
-      </c>
-      <c r="I255" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>389</v>
       </c>
@@ -9009,13 +8388,10 @@
         <v>2006</v>
       </c>
       <c r="H256" t="s">
-        <v>542</v>
-      </c>
-      <c r="I256" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>390</v>
       </c>
@@ -9038,13 +8414,10 @@
         <v>2006</v>
       </c>
       <c r="H257" t="s">
-        <v>542</v>
-      </c>
-      <c r="I257" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>396</v>
       </c>
@@ -9067,13 +8440,10 @@
         <v>2016</v>
       </c>
       <c r="H258" t="s">
-        <v>540</v>
-      </c>
-      <c r="I258" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>397</v>
       </c>
@@ -9096,13 +8466,10 @@
         <v>2016</v>
       </c>
       <c r="H259" t="s">
-        <v>540</v>
-      </c>
-      <c r="I259" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>398</v>
       </c>
@@ -9125,13 +8492,10 @@
         <v>2016</v>
       </c>
       <c r="H260" t="s">
-        <v>540</v>
-      </c>
-      <c r="I260" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>399</v>
       </c>
@@ -9154,13 +8518,10 @@
         <v>2016</v>
       </c>
       <c r="H261" t="s">
-        <v>540</v>
-      </c>
-      <c r="I261" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>400</v>
       </c>
@@ -9183,13 +8544,10 @@
         <v>2016</v>
       </c>
       <c r="H262" t="s">
-        <v>540</v>
-      </c>
-      <c r="I262" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>401</v>
       </c>
@@ -9212,13 +8570,10 @@
         <v>2016</v>
       </c>
       <c r="H263" t="s">
-        <v>540</v>
-      </c>
-      <c r="I263" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>402</v>
       </c>
@@ -9241,13 +8596,10 @@
         <v>2022</v>
       </c>
       <c r="H264" t="s">
-        <v>545</v>
-      </c>
-      <c r="I264" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>403</v>
       </c>
@@ -9270,13 +8622,10 @@
         <v>2022</v>
       </c>
       <c r="H265" t="s">
-        <v>545</v>
-      </c>
-      <c r="I265" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>404</v>
       </c>
@@ -9299,13 +8648,10 @@
         <v>2022</v>
       </c>
       <c r="H266" t="s">
-        <v>545</v>
-      </c>
-      <c r="I266" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>405</v>
       </c>
@@ -9328,13 +8674,10 @@
         <v>2022</v>
       </c>
       <c r="H267" t="s">
-        <v>545</v>
-      </c>
-      <c r="I267" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>412</v>
       </c>
@@ -9357,13 +8700,10 @@
         <v>2020</v>
       </c>
       <c r="H268" t="s">
-        <v>524</v>
-      </c>
-      <c r="I268" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>413</v>
       </c>
@@ -9386,13 +8726,10 @@
         <v>2020</v>
       </c>
       <c r="H269" t="s">
-        <v>524</v>
-      </c>
-      <c r="I269" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
         <v>426</v>
       </c>
@@ -9415,7 +8752,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
         <v>427</v>
       </c>
@@ -9438,7 +8775,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>429</v>
       </c>
@@ -9461,7 +8798,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
         <v>431</v>
       </c>
@@ -9484,7 +8821,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
         <v>432</v>
       </c>
@@ -9507,99 +8844,111 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A275" s="3" t="s">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="B275" s="3" t="s">
+      <c r="B275" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="C275" s="3" t="s">
+      <c r="C275" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="D275" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="E275" s="3">
+      <c r="D275" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E275" s="1">
         <v>1</v>
       </c>
-      <c r="F275" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G275" s="3">
+      <c r="F275" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G275" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A276" s="3" t="s">
+      <c r="H275" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="B276" s="3" t="s">
+      <c r="B276" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="C276" s="3" t="s">
+      <c r="C276" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="D276" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="E276" s="3">
+      <c r="D276" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E276" s="1">
         <v>3</v>
       </c>
-      <c r="F276" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G276" s="3">
+      <c r="F276" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G276" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A277" s="3" t="s">
+      <c r="H276" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="B277" s="3" t="s">
+      <c r="B277" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="C277" s="3" t="s">
+      <c r="C277" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="D277" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="E277" s="3">
+      <c r="D277" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E277" s="1">
         <v>5</v>
       </c>
-      <c r="F277" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G277" s="3">
+      <c r="F277" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G277" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A278" s="3" t="s">
+      <c r="H277" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="B278" s="3" t="s">
+      <c r="B278" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="C278" s="3" t="s">
+      <c r="C278" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="D278" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="E278" s="3">
+      <c r="D278" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E278" s="1">
         <v>6</v>
       </c>
-      <c r="F278" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G278" s="3">
+      <c r="F278" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G278" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H278" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>120</v>
       </c>
@@ -9620,13 +8969,10 @@
         <v>2018</v>
       </c>
       <c r="H279" t="s">
-        <v>550</v>
-      </c>
-      <c r="I279" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>130</v>
       </c>
@@ -9647,13 +8993,10 @@
         <v>2020</v>
       </c>
       <c r="H280" t="s">
-        <v>550</v>
-      </c>
-      <c r="I280" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>131</v>
       </c>
@@ -9674,13 +9017,10 @@
         <v>2018</v>
       </c>
       <c r="H281" t="s">
-        <v>550</v>
-      </c>
-      <c r="I281" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>132</v>
       </c>
@@ -9701,13 +9041,10 @@
         <v>2022</v>
       </c>
       <c r="H282" t="s">
-        <v>551</v>
-      </c>
-      <c r="I282" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>328</v>
       </c>
@@ -9728,7 +9065,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>330</v>
       </c>
@@ -9749,7 +9086,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>334</v>
       </c>
@@ -9770,7 +9107,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>332</v>
       </c>
@@ -9793,13 +9130,10 @@
         <v>2008</v>
       </c>
       <c r="H286" t="s">
-        <v>562</v>
-      </c>
-      <c r="I286" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>409</v>
       </c>
@@ -9822,13 +9156,10 @@
         <v>2010</v>
       </c>
       <c r="H287" t="s">
-        <v>524</v>
-      </c>
-      <c r="I287" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>410</v>
       </c>
@@ -9851,13 +9182,10 @@
         <v>2010</v>
       </c>
       <c r="H288" t="s">
-        <v>524</v>
-      </c>
-      <c r="I288" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>414</v>
       </c>
@@ -9880,13 +9208,10 @@
         <v>2014</v>
       </c>
       <c r="H289" t="s">
-        <v>524</v>
-      </c>
-      <c r="I289" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>415</v>
       </c>
@@ -9909,13 +9234,10 @@
         <v>2014</v>
       </c>
       <c r="H290" t="s">
-        <v>524</v>
-      </c>
-      <c r="I290" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>416</v>
       </c>
@@ -9938,13 +9260,10 @@
         <v>2014</v>
       </c>
       <c r="H291" t="s">
-        <v>524</v>
-      </c>
-      <c r="I291" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>418</v>
       </c>
@@ -9967,13 +9286,10 @@
         <v>2012</v>
       </c>
       <c r="H292" t="s">
-        <v>524</v>
-      </c>
-      <c r="I292" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>419</v>
       </c>
@@ -9996,13 +9312,10 @@
         <v>2012</v>
       </c>
       <c r="H293" t="s">
-        <v>524</v>
-      </c>
-      <c r="I293" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>420</v>
       </c>
@@ -10025,13 +9338,10 @@
         <v>2012</v>
       </c>
       <c r="H294" t="s">
-        <v>524</v>
-      </c>
-      <c r="I294" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>421</v>
       </c>
@@ -10054,13 +9364,10 @@
         <v>2018</v>
       </c>
       <c r="H295" t="s">
-        <v>524</v>
-      </c>
-      <c r="I295" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>422</v>
       </c>
@@ -10083,13 +9390,10 @@
         <v>2018</v>
       </c>
       <c r="H296" t="s">
-        <v>524</v>
-      </c>
-      <c r="I296" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>423</v>
       </c>
@@ -10112,13 +9416,10 @@
         <v>2018</v>
       </c>
       <c r="H297" t="s">
-        <v>524</v>
-      </c>
-      <c r="I297" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>425</v>
       </c>
@@ -10141,13 +9442,10 @@
         <v>2016</v>
       </c>
       <c r="H298" t="s">
-        <v>524</v>
-      </c>
-      <c r="I298" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>10</v>
       </c>
@@ -10168,13 +9466,10 @@
         <v>2022</v>
       </c>
       <c r="H299" t="s">
-        <v>521</v>
-      </c>
-      <c r="I299" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>12</v>
       </c>
@@ -10195,13 +9490,10 @@
         <v>2022</v>
       </c>
       <c r="H300" t="s">
-        <v>521</v>
-      </c>
-      <c r="I300" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>13</v>
       </c>
@@ -10222,13 +9514,10 @@
         <v>2022</v>
       </c>
       <c r="H301" t="s">
-        <v>521</v>
-      </c>
-      <c r="I301" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>14</v>
       </c>
@@ -10249,13 +9538,10 @@
         <v>2022</v>
       </c>
       <c r="H302" t="s">
-        <v>521</v>
-      </c>
-      <c r="I302" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>15</v>
       </c>
@@ -10276,13 +9562,10 @@
         <v>2022</v>
       </c>
       <c r="H303" t="s">
-        <v>521</v>
-      </c>
-      <c r="I303" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>16</v>
       </c>
@@ -10303,13 +9586,10 @@
         <v>2022</v>
       </c>
       <c r="H304" t="s">
-        <v>521</v>
-      </c>
-      <c r="I304" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>17</v>
       </c>
@@ -10330,13 +9610,10 @@
         <v>2022</v>
       </c>
       <c r="H305" t="s">
-        <v>521</v>
-      </c>
-      <c r="I305" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>18</v>
       </c>
@@ -10357,13 +9634,10 @@
         <v>2022</v>
       </c>
       <c r="H306" t="s">
-        <v>521</v>
-      </c>
-      <c r="I306" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>19</v>
       </c>
@@ -10384,13 +9658,10 @@
         <v>2022</v>
       </c>
       <c r="H307" t="s">
-        <v>521</v>
-      </c>
-      <c r="I307" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>20</v>
       </c>
@@ -10411,13 +9682,10 @@
         <v>2022</v>
       </c>
       <c r="H308" t="s">
-        <v>521</v>
-      </c>
-      <c r="I308" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>21</v>
       </c>
@@ -10438,13 +9706,10 @@
         <v>2022</v>
       </c>
       <c r="H309" t="s">
-        <v>521</v>
-      </c>
-      <c r="I309" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>22</v>
       </c>
@@ -10465,13 +9730,10 @@
         <v>2022</v>
       </c>
       <c r="H310" t="s">
-        <v>521</v>
-      </c>
-      <c r="I310" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>23</v>
       </c>
@@ -10492,13 +9754,10 @@
         <v>2022</v>
       </c>
       <c r="H311" t="s">
-        <v>521</v>
-      </c>
-      <c r="I311" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>24</v>
       </c>
@@ -10519,13 +9778,10 @@
         <v>2022</v>
       </c>
       <c r="H312" t="s">
-        <v>521</v>
-      </c>
-      <c r="I312" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>25</v>
       </c>
@@ -10546,13 +9802,10 @@
         <v>2022</v>
       </c>
       <c r="H313" t="s">
-        <v>521</v>
-      </c>
-      <c r="I313" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>26</v>
       </c>
@@ -10573,13 +9826,10 @@
         <v>2022</v>
       </c>
       <c r="H314" t="s">
-        <v>521</v>
-      </c>
-      <c r="I314" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>27</v>
       </c>
@@ -10600,13 +9850,10 @@
         <v>2022</v>
       </c>
       <c r="H315" t="s">
-        <v>521</v>
-      </c>
-      <c r="I315" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>28</v>
       </c>
@@ -10627,13 +9874,10 @@
         <v>2022</v>
       </c>
       <c r="H316" t="s">
-        <v>521</v>
-      </c>
-      <c r="I316" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>29</v>
       </c>
@@ -10654,13 +9898,10 @@
         <v>2022</v>
       </c>
       <c r="H317" t="s">
-        <v>521</v>
-      </c>
-      <c r="I317" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>30</v>
       </c>
@@ -10681,13 +9922,10 @@
         <v>2022</v>
       </c>
       <c r="H318" t="s">
-        <v>521</v>
-      </c>
-      <c r="I318" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>31</v>
       </c>
@@ -10708,13 +9946,10 @@
         <v>2022</v>
       </c>
       <c r="H319" t="s">
-        <v>521</v>
-      </c>
-      <c r="I319" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>32</v>
       </c>
@@ -10735,13 +9970,10 @@
         <v>2022</v>
       </c>
       <c r="H320" t="s">
-        <v>521</v>
-      </c>
-      <c r="I320" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>33</v>
       </c>
@@ -10762,13 +9994,10 @@
         <v>2022</v>
       </c>
       <c r="H321" t="s">
-        <v>521</v>
-      </c>
-      <c r="I321" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>34</v>
       </c>
@@ -10789,13 +10018,10 @@
         <v>2022</v>
       </c>
       <c r="H322" t="s">
-        <v>521</v>
-      </c>
-      <c r="I322" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>35</v>
       </c>
@@ -10816,13 +10042,10 @@
         <v>2022</v>
       </c>
       <c r="H323" t="s">
-        <v>521</v>
-      </c>
-      <c r="I323" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>36</v>
       </c>
@@ -10843,13 +10066,10 @@
         <v>2022</v>
       </c>
       <c r="H324" t="s">
-        <v>521</v>
-      </c>
-      <c r="I324" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>37</v>
       </c>
@@ -10870,13 +10090,10 @@
         <v>2022</v>
       </c>
       <c r="H325" t="s">
-        <v>521</v>
-      </c>
-      <c r="I325" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>38</v>
       </c>
@@ -10897,13 +10114,10 @@
         <v>2022</v>
       </c>
       <c r="H326" t="s">
-        <v>521</v>
-      </c>
-      <c r="I326" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>39</v>
       </c>
@@ -10924,13 +10138,10 @@
         <v>2022</v>
       </c>
       <c r="H327" t="s">
-        <v>521</v>
-      </c>
-      <c r="I327" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>40</v>
       </c>
@@ -10951,13 +10162,10 @@
         <v>2022</v>
       </c>
       <c r="H328" t="s">
-        <v>521</v>
-      </c>
-      <c r="I328" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>41</v>
       </c>
@@ -10978,13 +10186,10 @@
         <v>2022</v>
       </c>
       <c r="H329" t="s">
-        <v>521</v>
-      </c>
-      <c r="I329" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>42</v>
       </c>
@@ -11005,13 +10210,10 @@
         <v>2022</v>
       </c>
       <c r="H330" t="s">
-        <v>521</v>
-      </c>
-      <c r="I330" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>43</v>
       </c>
@@ -11032,13 +10234,10 @@
         <v>2022</v>
       </c>
       <c r="H331" t="s">
-        <v>521</v>
-      </c>
-      <c r="I331" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>44</v>
       </c>
@@ -11059,13 +10258,10 @@
         <v>2022</v>
       </c>
       <c r="H332" t="s">
-        <v>521</v>
-      </c>
-      <c r="I332" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>123</v>
       </c>
@@ -11086,13 +10282,10 @@
         <v>2020</v>
       </c>
       <c r="H333" t="s">
-        <v>555</v>
-      </c>
-      <c r="I333" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.2">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>125</v>
       </c>
@@ -11113,13 +10306,10 @@
         <v>2020</v>
       </c>
       <c r="H334" t="s">
-        <v>555</v>
-      </c>
-      <c r="I334" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.2">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>126</v>
       </c>
@@ -11140,13 +10330,10 @@
         <v>2020</v>
       </c>
       <c r="H335" t="s">
-        <v>555</v>
-      </c>
-      <c r="I335" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.2">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>127</v>
       </c>
@@ -11167,13 +10354,10 @@
         <v>2020</v>
       </c>
       <c r="H336" t="s">
-        <v>555</v>
-      </c>
-      <c r="I336" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.2">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
         <v>343</v>
       </c>
@@ -11194,7 +10378,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
         <v>355</v>
       </c>
@@ -11215,7 +10399,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>150</v>
       </c>
@@ -11238,13 +10422,10 @@
         <v>2021</v>
       </c>
       <c r="H339" t="s">
-        <v>558</v>
-      </c>
-      <c r="I339" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.2">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>151</v>
       </c>
@@ -11267,13 +10448,10 @@
         <v>2021</v>
       </c>
       <c r="H340" t="s">
-        <v>558</v>
-      </c>
-      <c r="I340" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.2">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>152</v>
       </c>
@@ -11296,13 +10474,10 @@
         <v>2021</v>
       </c>
       <c r="H341" t="s">
-        <v>558</v>
-      </c>
-      <c r="I341" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.2">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>153</v>
       </c>
@@ -11325,13 +10500,10 @@
         <v>2021</v>
       </c>
       <c r="H342" t="s">
-        <v>558</v>
-      </c>
-      <c r="I342" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.2">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>154</v>
       </c>
@@ -11354,13 +10526,10 @@
         <v>2021</v>
       </c>
       <c r="H343" t="s">
-        <v>558</v>
-      </c>
-      <c r="I343" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.2">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>156</v>
       </c>
@@ -11383,13 +10552,10 @@
         <v>2013</v>
       </c>
       <c r="H344" t="s">
-        <v>558</v>
-      </c>
-      <c r="I344" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.2">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>157</v>
       </c>
@@ -11412,13 +10578,10 @@
         <v>2013</v>
       </c>
       <c r="H345" t="s">
-        <v>558</v>
-      </c>
-      <c r="I345" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.2">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>162</v>
       </c>
@@ -11441,13 +10604,10 @@
         <v>2009</v>
       </c>
       <c r="H346" t="s">
-        <v>558</v>
-      </c>
-      <c r="I346" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.2">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>163</v>
       </c>
@@ -11470,13 +10630,10 @@
         <v>2009</v>
       </c>
       <c r="H347" t="s">
-        <v>558</v>
-      </c>
-      <c r="I347" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.2">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>164</v>
       </c>
@@ -11499,13 +10656,10 @@
         <v>2009</v>
       </c>
       <c r="H348" t="s">
-        <v>558</v>
-      </c>
-      <c r="I348" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.2">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>165</v>
       </c>
@@ -11528,13 +10682,10 @@
         <v>2009</v>
       </c>
       <c r="H349" t="s">
-        <v>558</v>
-      </c>
-      <c r="I349" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.2">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>166</v>
       </c>
@@ -11557,13 +10708,10 @@
         <v>2009</v>
       </c>
       <c r="H350" t="s">
-        <v>558</v>
-      </c>
-      <c r="I350" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.2">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>181</v>
       </c>
@@ -11586,13 +10734,10 @@
         <v>2017</v>
       </c>
       <c r="H351" t="s">
-        <v>558</v>
-      </c>
-      <c r="I351" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.2">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>182</v>
       </c>
@@ -11615,13 +10760,10 @@
         <v>2017</v>
       </c>
       <c r="H352" t="s">
-        <v>558</v>
-      </c>
-      <c r="I352" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.2">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>183</v>
       </c>
@@ -11644,13 +10786,10 @@
         <v>2017</v>
       </c>
       <c r="H353" t="s">
-        <v>558</v>
-      </c>
-      <c r="I353" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.2">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>184</v>
       </c>
@@ -11673,13 +10812,10 @@
         <v>2017</v>
       </c>
       <c r="H354" t="s">
-        <v>558</v>
-      </c>
-      <c r="I354" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.2">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>185</v>
       </c>
@@ -11702,13 +10838,10 @@
         <v>2017</v>
       </c>
       <c r="H355" t="s">
-        <v>558</v>
-      </c>
-      <c r="I355" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.2">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>186</v>
       </c>
@@ -11731,71 +10864,52 @@
         <v>2017</v>
       </c>
       <c r="H356" t="s">
-        <v>558</v>
-      </c>
-      <c r="I356" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A357" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A357" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B357" s="1" t="s">
+      <c r="B357" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="C357" s="1" t="s">
+      <c r="C357" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="D357" s="1" t="s">
+      <c r="D357" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="E357" s="1">
-        <v>5</v>
-      </c>
-      <c r="F357" s="1" t="s">
+      <c r="E357" s="2"/>
+      <c r="F357" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G357" s="1">
+      <c r="G357" s="2">
         <v>2022</v>
       </c>
-      <c r="H357" t="s">
-        <v>559</v>
-      </c>
-      <c r="I357" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A358" s="1" t="s">
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A358" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="B358" s="1" t="s">
+      <c r="B358" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="C358" s="1" t="s">
+      <c r="C358" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="D358" s="1" t="s">
+      <c r="D358" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="E358" s="1">
-        <v>3</v>
-      </c>
-      <c r="F358" s="1" t="s">
+      <c r="E358" s="2"/>
+      <c r="F358" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G358" s="1">
+      <c r="G358" s="2">
         <v>2022</v>
       </c>
-      <c r="H358" t="s">
-        <v>559</v>
-      </c>
-      <c r="I358" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>274</v>
       </c>
@@ -11818,13 +10932,10 @@
         <v>2010</v>
       </c>
       <c r="H359" t="s">
-        <v>536</v>
-      </c>
-      <c r="I359" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>283</v>
       </c>
@@ -11847,13 +10958,10 @@
         <v>2020</v>
       </c>
       <c r="H360" t="s">
-        <v>538</v>
-      </c>
-      <c r="I360" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>284</v>
       </c>
@@ -11876,13 +10984,10 @@
         <v>2020</v>
       </c>
       <c r="H361" t="s">
-        <v>538</v>
-      </c>
-      <c r="I361" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>285</v>
       </c>
@@ -11905,13 +11010,10 @@
         <v>2020</v>
       </c>
       <c r="H362" t="s">
-        <v>538</v>
-      </c>
-      <c r="I362" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>286</v>
       </c>
@@ -11934,13 +11036,10 @@
         <v>2020</v>
       </c>
       <c r="H363" t="s">
-        <v>538</v>
-      </c>
-      <c r="I363" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>292</v>
       </c>
@@ -11963,13 +11062,10 @@
         <v>2014</v>
       </c>
       <c r="H364" t="s">
-        <v>538</v>
-      </c>
-      <c r="I364" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>293</v>
       </c>
@@ -11992,13 +11088,10 @@
         <v>2014</v>
       </c>
       <c r="H365" t="s">
-        <v>538</v>
-      </c>
-      <c r="I365" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>294</v>
       </c>
@@ -12021,13 +11114,10 @@
         <v>2014</v>
       </c>
       <c r="H366" t="s">
-        <v>538</v>
-      </c>
-      <c r="I366" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>301</v>
       </c>
@@ -12050,13 +11140,10 @@
         <v>2012</v>
       </c>
       <c r="H367" t="s">
-        <v>536</v>
-      </c>
-      <c r="I367" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>302</v>
       </c>
@@ -12079,13 +11166,10 @@
         <v>2012</v>
       </c>
       <c r="H368" t="s">
-        <v>536</v>
-      </c>
-      <c r="I368" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>303</v>
       </c>
@@ -12108,13 +11192,10 @@
         <v>2012</v>
       </c>
       <c r="H369" t="s">
-        <v>536</v>
-      </c>
-      <c r="I369" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>304</v>
       </c>
@@ -12137,13 +11218,10 @@
         <v>2012</v>
       </c>
       <c r="H370" t="s">
-        <v>536</v>
-      </c>
-      <c r="I370" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>310</v>
       </c>
@@ -12166,13 +11244,10 @@
         <v>2018</v>
       </c>
       <c r="H371" t="s">
-        <v>538</v>
-      </c>
-      <c r="I371" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>311</v>
       </c>
@@ -12195,13 +11270,10 @@
         <v>2018</v>
       </c>
       <c r="H372" t="s">
-        <v>538</v>
-      </c>
-      <c r="I372" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>317</v>
       </c>
@@ -12224,13 +11296,10 @@
         <v>2016</v>
       </c>
       <c r="H373" t="s">
-        <v>538</v>
-      </c>
-      <c r="I373" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>318</v>
       </c>
@@ -12253,13 +11322,10 @@
         <v>2016</v>
       </c>
       <c r="H374" t="s">
-        <v>538</v>
-      </c>
-      <c r="I374" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>319</v>
       </c>
@@ -12282,13 +11348,10 @@
         <v>2016</v>
       </c>
       <c r="H375" t="s">
-        <v>538</v>
-      </c>
-      <c r="I375" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>320</v>
       </c>
@@ -12311,13 +11374,10 @@
         <v>2016</v>
       </c>
       <c r="H376" t="s">
-        <v>538</v>
-      </c>
-      <c r="I376" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>324</v>
       </c>
@@ -12340,13 +11400,10 @@
         <v>2022</v>
       </c>
       <c r="H377" t="s">
-        <v>559</v>
-      </c>
-      <c r="I377" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.2">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>325</v>
       </c>
@@ -12369,13 +11426,10 @@
         <v>2022</v>
       </c>
       <c r="H378" t="s">
-        <v>559</v>
-      </c>
-      <c r="I378" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.2">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>326</v>
       </c>
@@ -12398,13 +11452,10 @@
         <v>2022</v>
       </c>
       <c r="H379" t="s">
-        <v>559</v>
-      </c>
-      <c r="I379" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.2">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
         <v>356</v>
       </c>
@@ -12425,7 +11476,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
         <v>3</v>
       </c>
@@ -12444,7 +11495,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
         <v>5</v>
       </c>
@@ -12463,7 +11514,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
         <v>8</v>
       </c>
@@ -12482,7 +11533,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
         <v>65</v>
       </c>
@@ -12501,7 +11552,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
         <v>66</v>
       </c>
@@ -12520,7 +11571,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
         <v>113</v>
       </c>
@@ -12539,7 +11590,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
         <v>114</v>
       </c>
@@ -12558,7 +11609,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
         <v>115</v>
       </c>
@@ -12577,7 +11628,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
         <v>116</v>
       </c>
@@ -12596,7 +11647,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
         <v>121</v>
       </c>
@@ -12615,7 +11666,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
         <v>441</v>
       </c>
@@ -12634,7 +11685,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>45</v>
       </c>
@@ -12655,13 +11706,10 @@
         <v>2022</v>
       </c>
       <c r="H392" t="s">
-        <v>522</v>
-      </c>
-      <c r="I392" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.2">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>48</v>
       </c>
@@ -12682,13 +11730,10 @@
         <v>2022</v>
       </c>
       <c r="H393" t="s">
-        <v>522</v>
-      </c>
-      <c r="I393" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.2">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>49</v>
       </c>
@@ -12709,13 +11754,10 @@
         <v>2022</v>
       </c>
       <c r="H394" t="s">
-        <v>522</v>
-      </c>
-      <c r="I394" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.2">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>50</v>
       </c>
@@ -12727,7 +11769,7 @@
         <v>518</v>
       </c>
       <c r="E395" s="1" t="s">
-        <v>561</v>
+        <v>541</v>
       </c>
       <c r="F395" s="1" t="s">
         <v>46</v>
@@ -12736,13 +11778,10 @@
         <v>2022</v>
       </c>
       <c r="H395" t="s">
-        <v>522</v>
-      </c>
-      <c r="I395" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.2">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>51</v>
       </c>
@@ -12763,13 +11802,10 @@
         <v>2022</v>
       </c>
       <c r="H396" t="s">
-        <v>522</v>
-      </c>
-      <c r="I396" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.2">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>52</v>
       </c>
@@ -12790,13 +11826,10 @@
         <v>2022</v>
       </c>
       <c r="H397" t="s">
-        <v>522</v>
-      </c>
-      <c r="I397" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.2">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>53</v>
       </c>
@@ -12817,13 +11850,10 @@
         <v>2022</v>
       </c>
       <c r="H398" t="s">
-        <v>522</v>
-      </c>
-      <c r="I398" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.2">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>54</v>
       </c>
@@ -12844,13 +11874,10 @@
         <v>2022</v>
       </c>
       <c r="H399" t="s">
-        <v>522</v>
-      </c>
-      <c r="I399" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.2">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>55</v>
       </c>
@@ -12871,13 +11898,10 @@
         <v>2022</v>
       </c>
       <c r="H400" t="s">
-        <v>522</v>
-      </c>
-      <c r="I400" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.2">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>56</v>
       </c>
@@ -12898,13 +11922,10 @@
         <v>2022</v>
       </c>
       <c r="H401" t="s">
-        <v>522</v>
-      </c>
-      <c r="I401" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.2">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>57</v>
       </c>
@@ -12925,13 +11946,10 @@
         <v>2022</v>
       </c>
       <c r="H402" t="s">
-        <v>522</v>
-      </c>
-      <c r="I402" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.2">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>58</v>
       </c>
@@ -12952,13 +11970,10 @@
         <v>2022</v>
       </c>
       <c r="H403" t="s">
-        <v>522</v>
-      </c>
-      <c r="I403" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.2">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>59</v>
       </c>
@@ -12979,13 +11994,10 @@
         <v>2022</v>
       </c>
       <c r="H404" t="s">
-        <v>522</v>
-      </c>
-      <c r="I404" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.2">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>60</v>
       </c>
@@ -13006,13 +12018,10 @@
         <v>2022</v>
       </c>
       <c r="H405" t="s">
-        <v>522</v>
-      </c>
-      <c r="I405" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.2">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>61</v>
       </c>
@@ -13033,13 +12042,10 @@
         <v>2022</v>
       </c>
       <c r="H406" t="s">
-        <v>522</v>
-      </c>
-      <c r="I406" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.2">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>62</v>
       </c>
@@ -13060,13 +12066,10 @@
         <v>2022</v>
       </c>
       <c r="H407" t="s">
-        <v>522</v>
-      </c>
-      <c r="I407" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.2">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>63</v>
       </c>
@@ -13087,13 +12090,10 @@
         <v>2022</v>
       </c>
       <c r="H408" t="s">
-        <v>522</v>
-      </c>
-      <c r="I408" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.2">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>64</v>
       </c>
@@ -13114,13 +12114,10 @@
         <v>2022</v>
       </c>
       <c r="H409" t="s">
-        <v>522</v>
-      </c>
-      <c r="I409" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.2">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>128</v>
       </c>
@@ -13141,10 +12138,7 @@
         <v>2020</v>
       </c>
       <c r="H410" t="s">
-        <v>554</v>
-      </c>
-      <c r="I410" t="s">
-        <v>553</v>
+        <v>536</v>
       </c>
     </row>
   </sheetData>

--- a/acs/elections.xlsx
+++ b/acs/elections.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\User\Downloads\RA Work\acs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kguan17/Documents/GitHub/RA-Work/acs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1890992E-C75C-4BCC-A695-A562187F1CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A05CAEF-C5B8-5D4B-959A-AFAAF6E24DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4785" yWindow="4215" windowWidth="21555" windowHeight="11385" xr2:uid="{6B2EB732-C0BF-4336-8C6B-FF3332FBF24E}"/>
+    <workbookView xWindow="-6920" yWindow="-28300" windowWidth="21560" windowHeight="28300" xr2:uid="{6B2EB732-C0BF-4336-8C6B-FF3332FBF24E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2328" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2329" uniqueCount="545">
   <si>
     <t>filename</t>
   </si>
@@ -1668,6 +1668,9 @@
   </si>
   <si>
     <t>takoma_park_wards_2022.csv</t>
+  </si>
+  <si>
+    <t>corvallis_city_council_2022.csv</t>
   </si>
 </sst>
 </file>
@@ -2048,21 +2051,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022FCB54-8620-44BA-9E5B-DD50E1770DCA}">
   <dimension ref="A1:H410"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A347" workbookViewId="0">
-      <selection activeCell="D357" sqref="D357"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="H97" sqref="H97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="68.140625" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" customWidth="1"/>
+    <col min="1" max="1" width="68.1640625" customWidth="1"/>
+    <col min="2" max="2" width="32.5" customWidth="1"/>
     <col min="3" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="7" max="7" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2088,7 +2091,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>203</v>
       </c>
@@ -2111,7 +2114,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>205</v>
       </c>
@@ -2134,7 +2137,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>206</v>
       </c>
@@ -2157,7 +2160,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>207</v>
       </c>
@@ -2180,7 +2183,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>208</v>
       </c>
@@ -2203,7 +2206,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>260</v>
       </c>
@@ -2226,7 +2229,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>261</v>
       </c>
@@ -2249,7 +2252,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>68</v>
       </c>
@@ -2270,7 +2273,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>70</v>
       </c>
@@ -2291,7 +2294,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>77</v>
       </c>
@@ -2312,7 +2315,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>90</v>
       </c>
@@ -2333,7 +2336,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>91</v>
       </c>
@@ -2354,7 +2357,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>102</v>
       </c>
@@ -2375,7 +2378,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>103</v>
       </c>
@@ -2396,7 +2399,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>104</v>
       </c>
@@ -2417,7 +2420,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>109</v>
       </c>
@@ -2438,7 +2441,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>110</v>
       </c>
@@ -2459,7 +2462,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>111</v>
       </c>
@@ -2480,7 +2483,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>112</v>
       </c>
@@ -2501,7 +2504,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>119</v>
       </c>
@@ -2522,7 +2525,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>147</v>
       </c>
@@ -2543,7 +2546,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>148</v>
       </c>
@@ -2564,7 +2567,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>155</v>
       </c>
@@ -2585,7 +2588,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>161</v>
       </c>
@@ -2606,7 +2609,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>180</v>
       </c>
@@ -2627,7 +2630,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>199</v>
       </c>
@@ -2648,7 +2651,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>200</v>
       </c>
@@ -2669,7 +2672,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>201</v>
       </c>
@@ -2690,7 +2693,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>209</v>
       </c>
@@ -2711,7 +2714,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>257</v>
       </c>
@@ -2732,7 +2735,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>258</v>
       </c>
@@ -2755,7 +2758,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>268</v>
       </c>
@@ -2776,7 +2779,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>269</v>
       </c>
@@ -2797,7 +2800,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>273</v>
       </c>
@@ -2818,7 +2821,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>276</v>
       </c>
@@ -2839,7 +2842,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>278</v>
       </c>
@@ -2860,7 +2863,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>287</v>
       </c>
@@ -2881,7 +2884,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>291</v>
       </c>
@@ -2902,7 +2905,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>295</v>
       </c>
@@ -2923,7 +2926,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>296</v>
       </c>
@@ -2944,7 +2947,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>305</v>
       </c>
@@ -2965,7 +2968,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>309</v>
       </c>
@@ -2986,7 +2989,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>316</v>
       </c>
@@ -3007,7 +3010,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>323</v>
       </c>
@@ -3028,7 +3031,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>327</v>
       </c>
@@ -3049,7 +3052,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>336</v>
       </c>
@@ -3070,7 +3073,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>338</v>
       </c>
@@ -3091,7 +3094,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>339</v>
       </c>
@@ -3112,7 +3115,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>373</v>
       </c>
@@ -3133,7 +3136,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>374</v>
       </c>
@@ -3154,7 +3157,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>376</v>
       </c>
@@ -3175,7 +3178,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>379</v>
       </c>
@@ -3196,7 +3199,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>391</v>
       </c>
@@ -3217,7 +3220,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>392</v>
       </c>
@@ -3238,7 +3241,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>393</v>
       </c>
@@ -3259,7 +3262,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>394</v>
       </c>
@@ -3280,7 +3283,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>395</v>
       </c>
@@ -3301,7 +3304,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>406</v>
       </c>
@@ -3322,7 +3325,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>407</v>
       </c>
@@ -3343,7 +3346,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>411</v>
       </c>
@@ -3364,7 +3367,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>417</v>
       </c>
@@ -3385,7 +3388,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>424</v>
       </c>
@@ -3406,7 +3409,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>428</v>
       </c>
@@ -3427,7 +3430,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>430</v>
       </c>
@@ -3448,7 +3451,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>437</v>
       </c>
@@ -3469,7 +3472,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>438</v>
       </c>
@@ -3490,7 +3493,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>439</v>
       </c>
@@ -3511,7 +3514,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>440</v>
       </c>
@@ -3532,7 +3535,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>72</v>
       </c>
@@ -3558,7 +3561,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>73</v>
       </c>
@@ -3584,7 +3587,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>74</v>
       </c>
@@ -3610,7 +3613,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>75</v>
       </c>
@@ -3636,7 +3639,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>76</v>
       </c>
@@ -3662,7 +3665,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>79</v>
       </c>
@@ -3688,7 +3691,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>80</v>
       </c>
@@ -3714,7 +3717,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>81</v>
       </c>
@@ -3740,7 +3743,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>82</v>
       </c>
@@ -3766,7 +3769,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>83</v>
       </c>
@@ -3792,7 +3795,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>84</v>
       </c>
@@ -3818,7 +3821,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>85</v>
       </c>
@@ -3844,7 +3847,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>86</v>
       </c>
@@ -3870,7 +3873,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>87</v>
       </c>
@@ -3896,7 +3899,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>88</v>
       </c>
@@ -3922,7 +3925,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>89</v>
       </c>
@@ -3948,7 +3951,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>94</v>
       </c>
@@ -3974,7 +3977,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>95</v>
       </c>
@@ -4000,7 +4003,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>96</v>
       </c>
@@ -4026,7 +4029,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>97</v>
       </c>
@@ -4052,7 +4055,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>98</v>
       </c>
@@ -4078,7 +4081,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>99</v>
       </c>
@@ -4104,7 +4107,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>100</v>
       </c>
@@ -4130,7 +4133,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>101</v>
       </c>
@@ -4156,7 +4159,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>105</v>
       </c>
@@ -4182,7 +4185,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>106</v>
       </c>
@@ -4208,7 +4211,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>107</v>
       </c>
@@ -4234,30 +4237,33 @@
         <v>533</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C97" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="D97" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="E97" s="3">
+      <c r="D97" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E97" s="1">
         <v>9</v>
       </c>
-      <c r="F97" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G97" s="3">
+      <c r="F97" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G97" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H97" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>117</v>
       </c>
@@ -4283,7 +4289,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>118</v>
       </c>
@@ -4309,7 +4315,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>133</v>
       </c>
@@ -4335,7 +4341,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>134</v>
       </c>
@@ -4361,7 +4367,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>135</v>
       </c>
@@ -4387,7 +4393,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>136</v>
       </c>
@@ -4413,7 +4419,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>137</v>
       </c>
@@ -4439,7 +4445,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>138</v>
       </c>
@@ -4465,7 +4471,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>139</v>
       </c>
@@ -4491,7 +4497,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>140</v>
       </c>
@@ -4517,7 +4523,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>141</v>
       </c>
@@ -4543,7 +4549,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>142</v>
       </c>
@@ -4569,7 +4575,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>143</v>
       </c>
@@ -4595,7 +4601,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>144</v>
       </c>
@@ -4621,7 +4627,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>145</v>
       </c>
@@ -4647,7 +4653,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>146</v>
       </c>
@@ -4673,7 +4679,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>158</v>
       </c>
@@ -4699,7 +4705,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>159</v>
       </c>
@@ -4725,7 +4731,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>160</v>
       </c>
@@ -4751,7 +4757,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>167</v>
       </c>
@@ -4777,7 +4783,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>168</v>
       </c>
@@ -4803,7 +4809,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>169</v>
       </c>
@@ -4829,7 +4835,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>170</v>
       </c>
@@ -4855,7 +4861,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>171</v>
       </c>
@@ -4881,7 +4887,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>172</v>
       </c>
@@ -4907,7 +4913,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>173</v>
       </c>
@@ -4933,7 +4939,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>174</v>
       </c>
@@ -4959,7 +4965,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>175</v>
       </c>
@@ -4985,7 +4991,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>176</v>
       </c>
@@ -5011,7 +5017,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>177</v>
       </c>
@@ -5037,7 +5043,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>178</v>
       </c>
@@ -5063,7 +5069,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>179</v>
       </c>
@@ -5089,7 +5095,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>187</v>
       </c>
@@ -5115,7 +5121,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>188</v>
       </c>
@@ -5141,7 +5147,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>189</v>
       </c>
@@ -5167,7 +5173,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>190</v>
       </c>
@@ -5193,7 +5199,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>191</v>
       </c>
@@ -5219,7 +5225,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>192</v>
       </c>
@@ -5245,7 +5251,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>193</v>
       </c>
@@ -5271,7 +5277,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>194</v>
       </c>
@@ -5297,7 +5303,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>195</v>
       </c>
@@ -5323,7 +5329,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>196</v>
       </c>
@@ -5349,7 +5355,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>197</v>
       </c>
@@ -5375,7 +5381,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>198</v>
       </c>
@@ -5401,7 +5407,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>202</v>
       </c>
@@ -5427,7 +5433,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>211</v>
       </c>
@@ -5453,7 +5459,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>212</v>
       </c>
@@ -5479,7 +5485,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>213</v>
       </c>
@@ -5505,7 +5511,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>214</v>
       </c>
@@ -5531,7 +5537,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>215</v>
       </c>
@@ -5557,7 +5563,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>216</v>
       </c>
@@ -5583,7 +5589,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>217</v>
       </c>
@@ -5609,7 +5615,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>218</v>
       </c>
@@ -5635,7 +5641,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>219</v>
       </c>
@@ -5661,7 +5667,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>220</v>
       </c>
@@ -5687,7 +5693,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>221</v>
       </c>
@@ -5713,7 +5719,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>222</v>
       </c>
@@ -5739,7 +5745,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>223</v>
       </c>
@@ -5765,7 +5771,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>224</v>
       </c>
@@ -5791,7 +5797,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>225</v>
       </c>
@@ -5817,7 +5823,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>226</v>
       </c>
@@ -5843,7 +5849,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>227</v>
       </c>
@@ -5869,7 +5875,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>228</v>
       </c>
@@ -5895,7 +5901,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>229</v>
       </c>
@@ -5921,7 +5927,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>230</v>
       </c>
@@ -5947,7 +5953,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>231</v>
       </c>
@@ -5973,7 +5979,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>232</v>
       </c>
@@ -5999,7 +6005,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>233</v>
       </c>
@@ -6025,7 +6031,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>234</v>
       </c>
@@ -6051,7 +6057,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>235</v>
       </c>
@@ -6077,7 +6083,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>236</v>
       </c>
@@ -6103,7 +6109,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>237</v>
       </c>
@@ -6129,7 +6135,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>238</v>
       </c>
@@ -6155,7 +6161,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>239</v>
       </c>
@@ -6181,7 +6187,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>240</v>
       </c>
@@ -6207,7 +6213,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>241</v>
       </c>
@@ -6233,7 +6239,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>242</v>
       </c>
@@ -6259,7 +6265,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>243</v>
       </c>
@@ -6285,7 +6291,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>244</v>
       </c>
@@ -6311,7 +6317,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>245</v>
       </c>
@@ -6337,7 +6343,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>246</v>
       </c>
@@ -6363,7 +6369,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>247</v>
       </c>
@@ -6389,7 +6395,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>248</v>
       </c>
@@ -6415,7 +6421,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>249</v>
       </c>
@@ -6441,7 +6447,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>250</v>
       </c>
@@ -6467,7 +6473,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>251</v>
       </c>
@@ -6493,7 +6499,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>252</v>
       </c>
@@ -6519,7 +6525,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>253</v>
       </c>
@@ -6545,7 +6551,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>254</v>
       </c>
@@ -6571,7 +6577,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>255</v>
       </c>
@@ -6597,7 +6603,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>256</v>
       </c>
@@ -6623,7 +6629,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>262</v>
       </c>
@@ -6649,7 +6655,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>263</v>
       </c>
@@ -6675,7 +6681,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>264</v>
       </c>
@@ -6701,7 +6707,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>265</v>
       </c>
@@ -6727,7 +6733,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>266</v>
       </c>
@@ -6753,7 +6759,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>267</v>
       </c>
@@ -6779,7 +6785,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>270</v>
       </c>
@@ -6805,7 +6811,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>271</v>
       </c>
@@ -6831,7 +6837,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>272</v>
       </c>
@@ -6857,7 +6863,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>279</v>
       </c>
@@ -6883,7 +6889,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>280</v>
       </c>
@@ -6909,7 +6915,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>281</v>
       </c>
@@ -6935,7 +6941,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>282</v>
       </c>
@@ -6961,7 +6967,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>288</v>
       </c>
@@ -6987,7 +6993,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>289</v>
       </c>
@@ -7013,7 +7019,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>290</v>
       </c>
@@ -7039,7 +7045,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>297</v>
       </c>
@@ -7065,7 +7071,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>298</v>
       </c>
@@ -7091,7 +7097,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>299</v>
       </c>
@@ -7117,7 +7123,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>300</v>
       </c>
@@ -7143,7 +7149,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>306</v>
       </c>
@@ -7169,7 +7175,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>307</v>
       </c>
@@ -7195,7 +7201,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>308</v>
       </c>
@@ -7221,7 +7227,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>312</v>
       </c>
@@ -7247,7 +7253,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>313</v>
       </c>
@@ -7273,7 +7279,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>314</v>
       </c>
@@ -7299,7 +7305,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>315</v>
       </c>
@@ -7325,7 +7331,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>321</v>
       </c>
@@ -7351,7 +7357,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>322</v>
       </c>
@@ -7377,7 +7383,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>342</v>
       </c>
@@ -7403,7 +7409,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>344</v>
       </c>
@@ -7429,7 +7435,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>345</v>
       </c>
@@ -7455,7 +7461,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>346</v>
       </c>
@@ -7481,7 +7487,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>347</v>
       </c>
@@ -7507,7 +7513,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>348</v>
       </c>
@@ -7533,7 +7539,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>349</v>
       </c>
@@ -7559,7 +7565,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>350</v>
       </c>
@@ -7585,7 +7591,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>351</v>
       </c>
@@ -7611,7 +7617,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>352</v>
       </c>
@@ -7637,7 +7643,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>353</v>
       </c>
@@ -7663,7 +7669,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>354</v>
       </c>
@@ -7689,7 +7695,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>358</v>
       </c>
@@ -7715,7 +7721,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>359</v>
       </c>
@@ -7741,7 +7747,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>360</v>
       </c>
@@ -7767,7 +7773,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>361</v>
       </c>
@@ -7793,7 +7799,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>362</v>
       </c>
@@ -7819,7 +7825,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>363</v>
       </c>
@@ -7845,7 +7851,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>364</v>
       </c>
@@ -7871,7 +7877,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>365</v>
       </c>
@@ -7897,7 +7903,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>366</v>
       </c>
@@ -7923,7 +7929,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>367</v>
       </c>
@@ -7949,7 +7955,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>368</v>
       </c>
@@ -7975,7 +7981,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>369</v>
       </c>
@@ -8001,7 +8007,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>370</v>
       </c>
@@ -8027,7 +8033,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>371</v>
       </c>
@@ -8053,7 +8059,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>372</v>
       </c>
@@ -8079,7 +8085,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>375</v>
       </c>
@@ -8105,7 +8111,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>377</v>
       </c>
@@ -8131,7 +8137,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>378</v>
       </c>
@@ -8157,7 +8163,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>381</v>
       </c>
@@ -8183,7 +8189,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>382</v>
       </c>
@@ -8209,7 +8215,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>383</v>
       </c>
@@ -8235,7 +8241,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>384</v>
       </c>
@@ -8261,7 +8267,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>385</v>
       </c>
@@ -8287,7 +8293,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>386</v>
       </c>
@@ -8313,7 +8319,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>387</v>
       </c>
@@ -8339,7 +8345,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>388</v>
       </c>
@@ -8365,7 +8371,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>389</v>
       </c>
@@ -8391,7 +8397,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>390</v>
       </c>
@@ -8417,7 +8423,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>396</v>
       </c>
@@ -8443,7 +8449,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>397</v>
       </c>
@@ -8469,7 +8475,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>398</v>
       </c>
@@ -8495,7 +8501,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>399</v>
       </c>
@@ -8521,7 +8527,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>400</v>
       </c>
@@ -8547,7 +8553,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>401</v>
       </c>
@@ -8573,7 +8579,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>402</v>
       </c>
@@ -8599,7 +8605,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>403</v>
       </c>
@@ -8625,7 +8631,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>404</v>
       </c>
@@ -8651,7 +8657,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>405</v>
       </c>
@@ -8677,7 +8683,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>412</v>
       </c>
@@ -8703,7 +8709,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>413</v>
       </c>
@@ -8729,7 +8735,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" s="3" t="s">
         <v>426</v>
       </c>
@@ -8752,7 +8758,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="s">
         <v>427</v>
       </c>
@@ -8775,7 +8781,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
         <v>429</v>
       </c>
@@ -8798,7 +8804,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
         <v>431</v>
       </c>
@@ -8821,7 +8827,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="s">
         <v>432</v>
       </c>
@@ -8844,7 +8850,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>433</v>
       </c>
@@ -8870,7 +8876,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>434</v>
       </c>
@@ -8896,7 +8902,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>435</v>
       </c>
@@ -8922,7 +8928,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>436</v>
       </c>
@@ -8948,7 +8954,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
         <v>120</v>
       </c>
@@ -8972,7 +8978,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
         <v>130</v>
       </c>
@@ -8996,7 +9002,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
         <v>131</v>
       </c>
@@ -9020,7 +9026,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>132</v>
       </c>
@@ -9044,7 +9050,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
         <v>328</v>
       </c>
@@ -9065,7 +9071,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
         <v>330</v>
       </c>
@@ -9086,7 +9092,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
         <v>334</v>
       </c>
@@ -9107,7 +9113,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>332</v>
       </c>
@@ -9133,7 +9139,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>409</v>
       </c>
@@ -9159,7 +9165,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>410</v>
       </c>
@@ -9185,7 +9191,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>414</v>
       </c>
@@ -9211,7 +9217,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>415</v>
       </c>
@@ -9237,7 +9243,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
         <v>416</v>
       </c>
@@ -9263,7 +9269,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>418</v>
       </c>
@@ -9289,7 +9295,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>419</v>
       </c>
@@ -9315,7 +9321,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
         <v>420</v>
       </c>
@@ -9341,7 +9347,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
         <v>421</v>
       </c>
@@ -9367,7 +9373,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>422</v>
       </c>
@@ -9393,7 +9399,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
         <v>423</v>
       </c>
@@ -9419,7 +9425,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>425</v>
       </c>
@@ -9445,7 +9451,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
         <v>10</v>
       </c>
@@ -9469,7 +9475,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>12</v>
       </c>
@@ -9493,7 +9499,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
         <v>13</v>
       </c>
@@ -9517,7 +9523,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
         <v>14</v>
       </c>
@@ -9541,7 +9547,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>15</v>
       </c>
@@ -9565,7 +9571,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
         <v>16</v>
       </c>
@@ -9589,7 +9595,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
         <v>17</v>
       </c>
@@ -9613,7 +9619,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>18</v>
       </c>
@@ -9637,7 +9643,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
         <v>19</v>
       </c>
@@ -9661,7 +9667,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>20</v>
       </c>
@@ -9685,7 +9691,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
         <v>21</v>
       </c>
@@ -9709,7 +9715,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>22</v>
       </c>
@@ -9733,7 +9739,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>23</v>
       </c>
@@ -9757,7 +9763,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>24</v>
       </c>
@@ -9781,7 +9787,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
         <v>25</v>
       </c>
@@ -9805,7 +9811,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>26</v>
       </c>
@@ -9829,7 +9835,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
         <v>27</v>
       </c>
@@ -9853,7 +9859,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
         <v>28</v>
       </c>
@@ -9877,7 +9883,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
         <v>29</v>
       </c>
@@ -9901,7 +9907,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
         <v>30</v>
       </c>
@@ -9925,7 +9931,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
         <v>31</v>
       </c>
@@ -9949,7 +9955,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
         <v>32</v>
       </c>
@@ -9973,7 +9979,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
         <v>33</v>
       </c>
@@ -9997,7 +10003,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>34</v>
       </c>
@@ -10021,7 +10027,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
         <v>35</v>
       </c>
@@ -10045,7 +10051,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>36</v>
       </c>
@@ -10069,7 +10075,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
         <v>37</v>
       </c>
@@ -10093,7 +10099,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
         <v>38</v>
       </c>
@@ -10117,7 +10123,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
         <v>39</v>
       </c>
@@ -10141,7 +10147,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
         <v>40</v>
       </c>
@@ -10165,7 +10171,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
         <v>41</v>
       </c>
@@ -10189,7 +10195,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
         <v>42</v>
       </c>
@@ -10213,7 +10219,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
         <v>43</v>
       </c>
@@ -10237,7 +10243,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
         <v>44</v>
       </c>
@@ -10261,7 +10267,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
         <v>123</v>
       </c>
@@ -10285,7 +10291,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
         <v>125</v>
       </c>
@@ -10309,7 +10315,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
         <v>126</v>
       </c>
@@ -10333,7 +10339,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
         <v>127</v>
       </c>
@@ -10357,7 +10363,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A337" s="2" t="s">
         <v>343</v>
       </c>
@@ -10378,7 +10384,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A338" s="2" t="s">
         <v>355</v>
       </c>
@@ -10399,7 +10405,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
         <v>150</v>
       </c>
@@ -10425,7 +10431,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
         <v>151</v>
       </c>
@@ -10451,7 +10457,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
         <v>152</v>
       </c>
@@ -10477,7 +10483,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
         <v>153</v>
       </c>
@@ -10503,7 +10509,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
         <v>154</v>
       </c>
@@ -10529,7 +10535,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
         <v>156</v>
       </c>
@@ -10555,7 +10561,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
         <v>157</v>
       </c>
@@ -10581,7 +10587,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
         <v>162</v>
       </c>
@@ -10607,7 +10613,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
         <v>163</v>
       </c>
@@ -10633,7 +10639,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
         <v>164</v>
       </c>
@@ -10659,7 +10665,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
         <v>165</v>
       </c>
@@ -10685,7 +10691,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
         <v>166</v>
       </c>
@@ -10711,7 +10717,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
         <v>181</v>
       </c>
@@ -10737,7 +10743,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
         <v>182</v>
       </c>
@@ -10763,7 +10769,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
         <v>183</v>
       </c>
@@ -10789,7 +10795,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
         <v>184</v>
       </c>
@@ -10815,7 +10821,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
         <v>185</v>
       </c>
@@ -10841,7 +10847,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
         <v>186</v>
       </c>
@@ -10867,7 +10873,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A357" s="2" t="s">
         <v>340</v>
       </c>
@@ -10888,7 +10894,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A358" s="2" t="s">
         <v>341</v>
       </c>
@@ -10909,7 +10915,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
         <v>274</v>
       </c>
@@ -10935,7 +10941,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
         <v>283</v>
       </c>
@@ -10961,7 +10967,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
         <v>284</v>
       </c>
@@ -10987,7 +10993,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
         <v>285</v>
       </c>
@@ -11013,7 +11019,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
         <v>286</v>
       </c>
@@ -11039,7 +11045,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
         <v>292</v>
       </c>
@@ -11065,7 +11071,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
         <v>293</v>
       </c>
@@ -11091,7 +11097,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
         <v>294</v>
       </c>
@@ -11117,7 +11123,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
         <v>301</v>
       </c>
@@ -11143,7 +11149,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
         <v>302</v>
       </c>
@@ -11169,7 +11175,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
         <v>303</v>
       </c>
@@ -11195,7 +11201,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
         <v>304</v>
       </c>
@@ -11221,7 +11227,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
         <v>310</v>
       </c>
@@ -11247,7 +11253,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
         <v>311</v>
       </c>
@@ -11273,7 +11279,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
         <v>317</v>
       </c>
@@ -11299,7 +11305,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
         <v>318</v>
       </c>
@@ -11325,7 +11331,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
         <v>319</v>
       </c>
@@ -11351,7 +11357,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
         <v>320</v>
       </c>
@@ -11377,7 +11383,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
         <v>324</v>
       </c>
@@ -11403,7 +11409,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
         <v>325</v>
       </c>
@@ -11429,7 +11435,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
         <v>326</v>
       </c>
@@ -11455,7 +11461,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A380" s="2" t="s">
         <v>356</v>
       </c>
@@ -11476,7 +11482,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A381" s="2" t="s">
         <v>3</v>
       </c>
@@ -11495,7 +11501,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A382" s="2" t="s">
         <v>5</v>
       </c>
@@ -11514,7 +11520,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A383" s="2" t="s">
         <v>8</v>
       </c>
@@ -11533,7 +11539,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A384" s="2" t="s">
         <v>65</v>
       </c>
@@ -11552,7 +11558,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A385" s="2" t="s">
         <v>66</v>
       </c>
@@ -11571,7 +11577,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A386" s="2" t="s">
         <v>113</v>
       </c>
@@ -11590,7 +11596,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A387" s="2" t="s">
         <v>114</v>
       </c>
@@ -11609,7 +11615,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A388" s="2" t="s">
         <v>115</v>
       </c>
@@ -11628,7 +11634,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A389" s="2" t="s">
         <v>116</v>
       </c>
@@ -11647,7 +11653,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A390" s="2" t="s">
         <v>121</v>
       </c>
@@ -11666,7 +11672,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A391" s="2" t="s">
         <v>441</v>
       </c>
@@ -11685,7 +11691,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
         <v>45</v>
       </c>
@@ -11709,7 +11715,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
         <v>48</v>
       </c>
@@ -11733,7 +11739,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
         <v>49</v>
       </c>
@@ -11757,7 +11763,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
         <v>50</v>
       </c>
@@ -11781,7 +11787,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
         <v>51</v>
       </c>
@@ -11805,7 +11811,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
         <v>52</v>
       </c>
@@ -11829,7 +11835,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
         <v>53</v>
       </c>
@@ -11853,7 +11859,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
         <v>54</v>
       </c>
@@ -11877,7 +11883,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
         <v>55</v>
       </c>
@@ -11901,7 +11907,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
         <v>56</v>
       </c>
@@ -11925,7 +11931,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
         <v>57</v>
       </c>
@@ -11949,7 +11955,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
         <v>58</v>
       </c>
@@ -11973,7 +11979,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
         <v>59</v>
       </c>
@@ -11997,7 +12003,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
         <v>60</v>
       </c>
@@ -12021,7 +12027,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
         <v>61</v>
       </c>
@@ -12045,7 +12051,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
         <v>62</v>
       </c>
@@ -12069,7 +12075,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
         <v>63</v>
       </c>
@@ -12093,7 +12099,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
         <v>64</v>
       </c>
@@ -12117,7 +12123,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
         <v>128</v>
       </c>

--- a/acs/elections.xlsx
+++ b/acs/elections.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kguan17/Documents/GitHub/RA-Work/acs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A05CAEF-C5B8-5D4B-959A-AFAAF6E24DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EAA824-35D1-ED40-9DF7-97B91BB30523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6920" yWindow="-28300" windowWidth="21560" windowHeight="28300" xr2:uid="{6B2EB732-C0BF-4336-8C6B-FF3332FBF24E}"/>
+    <workbookView xWindow="-27180" yWindow="-28300" windowWidth="41820" windowHeight="26600" xr2:uid="{6B2EB732-C0BF-4336-8C6B-FF3332FBF24E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2329" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2329" uniqueCount="546">
   <si>
     <t>filename</t>
   </si>
@@ -1671,6 +1671,9 @@
   </si>
   <si>
     <t>corvallis_city_council_2022.csv</t>
+  </si>
+  <si>
+    <t>county</t>
   </si>
 </sst>
 </file>
@@ -2051,8 +2054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022FCB54-8620-44BA-9E5B-DD50E1770DCA}">
   <dimension ref="A1:H410"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="H97" sqref="H97"/>
+    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
+      <selection activeCell="H286" sqref="H286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9061,7 +9064,7 @@
         <v>486</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>513</v>
+        <v>545</v>
       </c>
       <c r="E283" s="2"/>
       <c r="F283" s="2" t="s">
@@ -9082,7 +9085,7 @@
         <v>486</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>513</v>
+        <v>545</v>
       </c>
       <c r="E284" s="2"/>
       <c r="F284" s="2" t="s">
@@ -9103,7 +9106,7 @@
         <v>486</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>513</v>
+        <v>545</v>
       </c>
       <c r="E285" s="2"/>
       <c r="F285" s="2" t="s">

--- a/acs/elections.xlsx
+++ b/acs/elections.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\User\Downloads\RA Work\acs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44440A70-0D3C-425A-B037-9580F90B054B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A2CE9E-AE7D-4A3A-BA6F-61813C34FCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6B2EB732-C0BF-4336-8C6B-FF3332FBF24E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2801" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2803" uniqueCount="651">
   <si>
     <t>filename</t>
   </si>
@@ -1986,6 +1986,9 @@
   </si>
   <si>
     <t>Alaska_11082022_HouseDistrict3.csv</t>
+  </si>
+  <si>
+    <t>santa_fe_districts_2018.csv</t>
   </si>
 </sst>
 </file>
@@ -2001,7 +2004,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2020,12 +2023,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFD7B7B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2039,11 +2036,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2366,8 +2362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022FCB54-8620-44BA-9E5B-DD50E1770DCA}">
   <dimension ref="A1:H500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A490" workbookViewId="0">
-      <selection activeCell="K506" sqref="K506"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3523,26 +3519,29 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="E45" s="3">
+      <c r="D45" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="E45" s="1">
         <v>2</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G45" s="3">
+      <c r="F45" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G45" s="1">
         <v>2018</v>
+      </c>
+      <c r="H45" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -5219,26 +5218,29 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="3" t="s">
+      <c r="A111" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C111" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="D111" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="E111" s="3">
+      <c r="D111" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="E111" s="1">
         <v>4</v>
       </c>
-      <c r="F111" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G111" s="3">
+      <c r="F111" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G111" s="1">
         <v>2018</v>
+      </c>
+      <c r="H111" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">

--- a/acs/elections.xlsx
+++ b/acs/elections.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\User\Downloads\RA Work\acs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A2CE9E-AE7D-4A3A-BA6F-61813C34FCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D9DBC6-D263-4FDD-AF4B-ACBF2883C578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6B2EB732-C0BF-4336-8C6B-FF3332FBF24E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2803" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2798" uniqueCount="651">
   <si>
     <t>filename</t>
   </si>
@@ -2360,10 +2360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022FCB54-8620-44BA-9E5B-DD50E1770DCA}">
-  <dimension ref="A1:H500"/>
+  <dimension ref="A1:H499"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+    <sheetView tabSelected="1" topLeftCell="A473" workbookViewId="0">
+      <selection activeCell="G490" sqref="G490"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14274,28 +14274,28 @@
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>488</v>
+        <v>544</v>
       </c>
       <c r="C490" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D490" s="2" t="s">
         <v>543</v>
       </c>
       <c r="E490" s="2"/>
       <c r="F490" s="2" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="G490" s="2">
-        <v>2022</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B491" s="2" t="s">
         <v>544</v>
@@ -14311,12 +14311,12 @@
         <v>542</v>
       </c>
       <c r="G491" s="2">
-        <v>2005</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B492" s="2" t="s">
         <v>544</v>
@@ -14332,12 +14332,12 @@
         <v>542</v>
       </c>
       <c r="G492" s="2">
-        <v>2015</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B493" s="2" t="s">
         <v>544</v>
@@ -14353,12 +14353,12 @@
         <v>542</v>
       </c>
       <c r="G493" s="2">
-        <v>2003</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B494" s="2" t="s">
         <v>544</v>
@@ -14374,12 +14374,12 @@
         <v>542</v>
       </c>
       <c r="G494" s="2">
-        <v>2019</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B495" s="2" t="s">
         <v>544</v>
@@ -14395,12 +14395,12 @@
         <v>542</v>
       </c>
       <c r="G495" s="2">
-        <v>2011</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B496" s="2" t="s">
         <v>544</v>
@@ -14416,12 +14416,12 @@
         <v>542</v>
       </c>
       <c r="G496" s="2">
-        <v>2007</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B497" s="2" t="s">
         <v>544</v>
@@ -14437,33 +14437,33 @@
         <v>542</v>
       </c>
       <c r="G497" s="2">
-        <v>2013</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" s="2" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>544</v>
+        <v>494</v>
       </c>
       <c r="C498" s="2" t="s">
-        <v>469</v>
+        <v>446</v>
       </c>
       <c r="D498" s="2" t="s">
-        <v>543</v>
+        <v>447</v>
       </c>
       <c r="E498" s="2"/>
       <c r="F498" s="2" t="s">
-        <v>542</v>
+        <v>357</v>
       </c>
       <c r="G498" s="2">
-        <v>2017</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B499" s="2" t="s">
         <v>494</v>
@@ -14476,36 +14476,15 @@
       </c>
       <c r="E499" s="2"/>
       <c r="F499" s="2" t="s">
-        <v>357</v>
+        <v>539</v>
       </c>
       <c r="G499" s="2">
         <v>2019</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A500" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="B500" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="C500" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="D500" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="E500" s="2"/>
-      <c r="F500" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="G500" s="2">
-        <v>2019</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H500">
-    <sortCondition ref="E2:E500"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H499">
+    <sortCondition ref="E2:E499"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
